--- a/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
+++ b/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA_FSJ\Städtenamen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD96B9AA-AA59-4DBB-81C7-311CFC9E87A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDF4292-75AF-4E6C-ABC5-F0E28F7BCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8820" yWindow="4290" windowWidth="14400" windowHeight="7250" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11320" uniqueCount="3809">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11707" uniqueCount="3934">
   <si>
     <t>ID</t>
   </si>
@@ -11452,13 +11452,388 @@
   </si>
   <si>
     <t>Neckarhäuserhof</t>
+  </si>
+  <si>
+    <t>Epfenbach</t>
+  </si>
+  <si>
+    <t>Reichartshausen</t>
+  </si>
+  <si>
+    <t>Michelbach</t>
+  </si>
+  <si>
+    <t>Schönbrunn</t>
+  </si>
+  <si>
+    <t>Schwanheim</t>
+  </si>
+  <si>
+    <t>Unterschwarzach</t>
+  </si>
+  <si>
+    <t>Aglasterhausen</t>
+  </si>
+  <si>
+    <t>134187, 134187</t>
+  </si>
+  <si>
+    <t>Haag</t>
+  </si>
+  <si>
+    <t>Neunkirchen</t>
+  </si>
+  <si>
+    <t>Neckarkatzenbach</t>
+  </si>
+  <si>
+    <t>Landeskommisariat mannheim</t>
+  </si>
+  <si>
+    <t>Breitenbronn</t>
+  </si>
+  <si>
+    <t>Asbach</t>
+  </si>
+  <si>
+    <t>Mörtelstein</t>
+  </si>
+  <si>
+    <t>Guttenbach</t>
+  </si>
+  <si>
+    <t>Binau</t>
+  </si>
+  <si>
+    <t>Neckargerach</t>
+  </si>
+  <si>
+    <t>Reichenbuch</t>
+  </si>
+  <si>
+    <t>Lohrbach</t>
+  </si>
+  <si>
+    <t>Obrigheim</t>
+  </si>
+  <si>
+    <t>Diedesheim</t>
+  </si>
+  <si>
+    <t>Neckarburken</t>
+  </si>
+  <si>
+    <t>Dallau</t>
+  </si>
+  <si>
+    <t>Mittelschefflenz</t>
+  </si>
+  <si>
+    <t>Unterschefflenz</t>
+  </si>
+  <si>
+    <t>Katzental</t>
+  </si>
+  <si>
+    <t>Billigheim</t>
+  </si>
+  <si>
+    <t>Waldmühlbach</t>
+  </si>
+  <si>
+    <t>Boxtal</t>
+  </si>
+  <si>
+    <t>Tauberbischofsheim</t>
+  </si>
+  <si>
+    <t>Mondfeld</t>
+  </si>
+  <si>
+    <t>Grünenwört</t>
+  </si>
+  <si>
+    <t>b. Wertheim</t>
+  </si>
+  <si>
+    <t>Wertheim</t>
+  </si>
+  <si>
+    <t>Bettingen</t>
+  </si>
+  <si>
+    <t>a. M</t>
+  </si>
+  <si>
+    <t>Lindelbach</t>
+  </si>
+  <si>
+    <t>Dertingen</t>
+  </si>
+  <si>
+    <t>Ebenheid</t>
+  </si>
+  <si>
+    <t>128112, 128112</t>
+  </si>
+  <si>
+    <t>Wessental</t>
+  </si>
+  <si>
+    <t>Nassig</t>
+  </si>
+  <si>
+    <t>Vockenrot</t>
+  </si>
+  <si>
+    <t>Sachsenhausen</t>
+  </si>
+  <si>
+    <t>Sonderriet</t>
+  </si>
+  <si>
+    <t>Dörlesberg</t>
+  </si>
+  <si>
+    <t>Hundheim</t>
+  </si>
+  <si>
+    <t>Waldenhausen</t>
+  </si>
+  <si>
+    <t>Wertheim a. Main</t>
+  </si>
+  <si>
+    <t>Urphar</t>
+  </si>
+  <si>
+    <t>Dietenhan</t>
+  </si>
+  <si>
+    <t>Kembach</t>
+  </si>
+  <si>
+    <t>130626, 130626</t>
+  </si>
+  <si>
+    <t>Reicholzheim</t>
+  </si>
+  <si>
+    <t>Bronnbach</t>
+  </si>
+  <si>
+    <t>Külsheim</t>
+  </si>
+  <si>
+    <t>Bez. Amt Tauberbischofsheim Krs. Mosbach</t>
+  </si>
+  <si>
+    <t>Uissigheim</t>
+  </si>
+  <si>
+    <t>133690, 133690</t>
+  </si>
+  <si>
+    <t>Gamburg</t>
+  </si>
+  <si>
+    <t>Niklashausen</t>
+  </si>
+  <si>
+    <t>Höhefeld</t>
+  </si>
+  <si>
+    <t>Werbach</t>
+  </si>
+  <si>
+    <t>Wenkheim</t>
+  </si>
+  <si>
+    <t>Werbachhausen</t>
+  </si>
+  <si>
+    <t>Würzburg</t>
+  </si>
+  <si>
+    <t>Bayern</t>
+  </si>
+  <si>
+    <t>Gerchsheim</t>
+  </si>
+  <si>
+    <t>Schönfeld</t>
+  </si>
+  <si>
+    <t>Reichenhardsachsen</t>
+  </si>
+  <si>
+    <t>Glashofen</t>
+  </si>
+  <si>
+    <t>Wettersdorf</t>
+  </si>
+  <si>
+    <t>Höpfingen</t>
+  </si>
+  <si>
+    <t>Dornberg</t>
+  </si>
+  <si>
+    <t>Hardheim</t>
+  </si>
+  <si>
+    <t>Steinfurt</t>
+  </si>
+  <si>
+    <t>Schweinberg</t>
+  </si>
+  <si>
+    <t>Eiersheim</t>
+  </si>
+  <si>
+    <t>Dienstadt</t>
+  </si>
+  <si>
+    <t>Königheim</t>
+  </si>
+  <si>
+    <t>Gissigheim</t>
+  </si>
+  <si>
+    <t>Dittwar</t>
+  </si>
+  <si>
+    <t>Impfingen</t>
+  </si>
+  <si>
+    <t>131241, 131234</t>
+  </si>
+  <si>
+    <t>Dittigheim</t>
+  </si>
+  <si>
+    <t>Distelhausen</t>
+  </si>
+  <si>
+    <t>GrÃ¼nsfeld</t>
+  </si>
+  <si>
+    <t>GrÃ¼nsfeldhausen</t>
+  </si>
+  <si>
+    <t>Paimar</t>
+  </si>
+  <si>
+    <t>Krensheim</t>
+  </si>
+  <si>
+    <t>Poppenhausen</t>
+  </si>
+  <si>
+    <t>Unterwittighausen</t>
+  </si>
+  <si>
+    <t>Oberwittighausen</t>
+  </si>
+  <si>
+    <t>129563, 129563</t>
+  </si>
+  <si>
+    <t>Hettingen</t>
+  </si>
+  <si>
+    <t>Rinschheim</t>
+  </si>
+  <si>
+    <t>Altheim</t>
+  </si>
+  <si>
+    <t>Waldstetten</t>
+  </si>
+  <si>
+    <t>Bretzingen</t>
+  </si>
+  <si>
+    <t>Erfeld</t>
+  </si>
+  <si>
+    <t>Gerichtstetten</t>
+  </si>
+  <si>
+    <t>Pülfringen</t>
+  </si>
+  <si>
+    <t>Brehmen</t>
+  </si>
+  <si>
+    <t>Buch</t>
+  </si>
+  <si>
+    <t>a. Ahorn</t>
+  </si>
+  <si>
+    <t>Eubigheim</t>
+  </si>
+  <si>
+    <t>Uiffingen</t>
+  </si>
+  <si>
+    <t>Kupprichhausen u. Lengenrieden</t>
+  </si>
+  <si>
+    <t>Epplingen</t>
+  </si>
+  <si>
+    <t>Oberlauda</t>
+  </si>
+  <si>
+    <t>Lauda</t>
+  </si>
+  <si>
+    <t>Beckstein</t>
+  </si>
+  <si>
+    <t>Oberschüpf</t>
+  </si>
+  <si>
+    <t>Unterschüpf</t>
+  </si>
+  <si>
+    <t>Sachsenflur</t>
+  </si>
+  <si>
+    <t>Königshofen</t>
+  </si>
+  <si>
+    <t>Unterbalbach</t>
+  </si>
+  <si>
+    <t>Marbach</t>
+  </si>
+  <si>
+    <t>Gerlachsheim</t>
+  </si>
+  <si>
+    <t>Kützbrunn</t>
+  </si>
+  <si>
+    <t>Messelhausen</t>
+  </si>
+  <si>
+    <t>Landamt Tauberbischofsheim</t>
+  </si>
+  <si>
+    <t>Oberbalbach</t>
+  </si>
+  <si>
+    <t>130868, 130868</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11496,6 +11871,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11573,7 +11955,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11595,6 +11977,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
@@ -11912,8 +12295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:P3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D485" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J458" sqref="J458"/>
+    <sheetView tabSelected="1" topLeftCell="A686" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H696" sqref="H696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -25897,6 +26280,24 @@
       <c r="G510" t="s">
         <v>136</v>
       </c>
+      <c r="H510" t="s">
+        <v>3809</v>
+      </c>
+      <c r="J510" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K510" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L510">
+        <v>130520</v>
+      </c>
+      <c r="M510">
+        <v>8.9108800000000006</v>
+      </c>
+      <c r="N510">
+        <v>49.33719</v>
+      </c>
     </row>
     <row r="511" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A511">
@@ -25920,6 +26321,24 @@
       <c r="G511" t="s">
         <v>137</v>
       </c>
+      <c r="H511" t="s">
+        <v>3810</v>
+      </c>
+      <c r="J511" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K511" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L511">
+        <v>133394</v>
+      </c>
+      <c r="M511">
+        <v>8.9450900000000004</v>
+      </c>
+      <c r="N511">
+        <v>49.355469999999997</v>
+      </c>
     </row>
     <row r="512" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A512">
@@ -25943,8 +26362,26 @@
       <c r="G512" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H512" t="s">
+        <v>3810</v>
+      </c>
+      <c r="J512" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K512" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L512">
+        <v>133394</v>
+      </c>
+      <c r="M512">
+        <v>8.9450900000000004</v>
+      </c>
+      <c r="N512">
+        <v>49.355469999999997</v>
+      </c>
+    </row>
+    <row r="513" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A513">
         <v>182</v>
       </c>
@@ -25966,8 +26403,26 @@
       <c r="G513" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H513" t="s">
+        <v>3811</v>
+      </c>
+      <c r="J513" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K513" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L513">
+        <v>133133</v>
+      </c>
+      <c r="M513">
+        <v>8.9653200000000002</v>
+      </c>
+      <c r="N513">
+        <v>49.372590000000002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A514">
         <v>183</v>
       </c>
@@ -25989,8 +26444,26 @@
       <c r="G514" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H514" s="21" t="s">
+        <v>3812</v>
+      </c>
+      <c r="J514" t="s">
+        <v>3715</v>
+      </c>
+      <c r="K514" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L514">
+        <v>132548</v>
+      </c>
+      <c r="M514">
+        <v>8.9285099999999993</v>
+      </c>
+      <c r="N514">
+        <v>49.412280000000003</v>
+      </c>
+    </row>
+    <row r="515" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A515">
         <v>184</v>
       </c>
@@ -26012,8 +26485,29 @@
       <c r="G515" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H515" t="s">
+        <v>3813</v>
+      </c>
+      <c r="I515" t="s">
+        <v>3727</v>
+      </c>
+      <c r="J515" t="s">
+        <v>3715</v>
+      </c>
+      <c r="K515" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L515">
+        <v>130105</v>
+      </c>
+      <c r="M515">
+        <v>8.9759600000000006</v>
+      </c>
+      <c r="N515">
+        <v>49.401940000000003</v>
+      </c>
+    </row>
+    <row r="516" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A516">
         <v>185</v>
       </c>
@@ -26035,8 +26529,26 @@
       <c r="G516" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H516" t="s">
+        <v>3814</v>
+      </c>
+      <c r="J516" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K516" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L516">
+        <v>131116</v>
+      </c>
+      <c r="M516">
+        <v>8.9820200000000003</v>
+      </c>
+      <c r="N516">
+        <v>49.368560000000002</v>
+      </c>
+    </row>
+    <row r="517" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A517">
         <v>186</v>
       </c>
@@ -26058,8 +26570,26 @@
       <c r="G517" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H517" t="s">
+        <v>3815</v>
+      </c>
+      <c r="J517" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K517" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L517" t="s">
+        <v>3816</v>
+      </c>
+      <c r="M517">
+        <v>8.9898100000000003</v>
+      </c>
+      <c r="N517">
+        <v>49.354709999999997</v>
+      </c>
+    </row>
+    <row r="518" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A518">
         <v>187</v>
       </c>
@@ -26082,7 +26612,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="519" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A519">
         <v>188</v>
       </c>
@@ -26104,8 +26634,26 @@
       <c r="G519" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H519" t="s">
+        <v>3817</v>
+      </c>
+      <c r="J519" t="s">
+        <v>3715</v>
+      </c>
+      <c r="K519" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L519">
+        <v>129956</v>
+      </c>
+      <c r="M519">
+        <v>8.9291199999999993</v>
+      </c>
+      <c r="N519">
+        <v>49.394289999999998</v>
+      </c>
+    </row>
+    <row r="520" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A520">
         <v>189</v>
       </c>
@@ -26127,8 +26675,26 @@
       <c r="G520" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H520" t="s">
+        <v>3818</v>
+      </c>
+      <c r="J520" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K520" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L520">
+        <v>128712</v>
+      </c>
+      <c r="M520">
+        <v>9.0088699999999999</v>
+      </c>
+      <c r="N520">
+        <v>49.387889999999999</v>
+      </c>
+    </row>
+    <row r="521" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A521">
         <v>190</v>
       </c>
@@ -26150,8 +26716,26 @@
       <c r="G521" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H521" t="s">
+        <v>3819</v>
+      </c>
+      <c r="J521" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K521" t="s">
+        <v>3820</v>
+      </c>
+      <c r="L521">
+        <v>129765</v>
+      </c>
+      <c r="M521">
+        <v>9.0345700000000004</v>
+      </c>
+      <c r="N521">
+        <v>49.384410000000003</v>
+      </c>
+    </row>
+    <row r="522" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A522">
         <v>191</v>
       </c>
@@ -26173,8 +26757,26 @@
       <c r="G522" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H522" t="s">
+        <v>3821</v>
+      </c>
+      <c r="J522" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K522" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L522">
+        <v>132419</v>
+      </c>
+      <c r="M522">
+        <v>9.0219699999999996</v>
+      </c>
+      <c r="N522">
+        <v>49.364829999999998</v>
+      </c>
+    </row>
+    <row r="523" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A523">
         <v>192</v>
       </c>
@@ -26196,8 +26798,26 @@
       <c r="G523" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H523" t="s">
+        <v>3822</v>
+      </c>
+      <c r="J523" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K523" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L523">
+        <v>131330</v>
+      </c>
+      <c r="M523">
+        <v>9.02562</v>
+      </c>
+      <c r="N523">
+        <v>49.341329999999999</v>
+      </c>
+    </row>
+    <row r="524" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A524">
         <v>193</v>
       </c>
@@ -26219,8 +26839,26 @@
       <c r="G524" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H524" t="s">
+        <v>3823</v>
+      </c>
+      <c r="J524" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K524" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L524">
+        <v>133965</v>
+      </c>
+      <c r="M524">
+        <v>9.0424600000000002</v>
+      </c>
+      <c r="N524">
+        <v>49.357080000000003</v>
+      </c>
+    </row>
+    <row r="525" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A525">
         <v>194</v>
       </c>
@@ -26242,8 +26880,26 @@
       <c r="G525" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H525" t="s">
+        <v>3824</v>
+      </c>
+      <c r="J525" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K525" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L525">
+        <v>132238</v>
+      </c>
+      <c r="M525">
+        <v>9.0714199999999998</v>
+      </c>
+      <c r="N525">
+        <v>49.389830000000003</v>
+      </c>
+    </row>
+    <row r="526" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A526">
         <v>195</v>
       </c>
@@ -26265,8 +26921,26 @@
       <c r="G526" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H526" t="s">
+        <v>3825</v>
+      </c>
+      <c r="J526" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K526" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L526">
+        <v>131916</v>
+      </c>
+      <c r="M526">
+        <v>9.0577000000000005</v>
+      </c>
+      <c r="N526">
+        <v>49.366579999999999</v>
+      </c>
+    </row>
+    <row r="527" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A527">
         <v>196</v>
       </c>
@@ -26288,8 +26962,26 @@
       <c r="G527" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H527" t="s">
+        <v>3826</v>
+      </c>
+      <c r="J527" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K527" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L527">
+        <v>129121</v>
+      </c>
+      <c r="M527">
+        <v>9.0708000000000002</v>
+      </c>
+      <c r="N527">
+        <v>49.401009999999999</v>
+      </c>
+    </row>
+    <row r="528" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A528">
         <v>197</v>
       </c>
@@ -26311,8 +27003,26 @@
       <c r="G528" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H528" t="s">
+        <v>3827</v>
+      </c>
+      <c r="J528" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K528" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L528">
+        <v>128020</v>
+      </c>
+      <c r="M528">
+        <v>9.0970800000000001</v>
+      </c>
+      <c r="N528">
+        <v>49.393709999999999</v>
+      </c>
+    </row>
+    <row r="529" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A529">
         <v>198</v>
       </c>
@@ -26334,8 +27044,26 @@
       <c r="G529" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H529" t="s">
+        <v>3828</v>
+      </c>
+      <c r="J529" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K529" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L529">
+        <v>132404</v>
+      </c>
+      <c r="M529">
+        <v>9.1418300000000006</v>
+      </c>
+      <c r="N529">
+        <v>49.4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A530">
         <v>199</v>
       </c>
@@ -26357,8 +27085,26 @@
       <c r="G530" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H530" t="s">
+        <v>3829</v>
+      </c>
+      <c r="J530" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K530" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L530">
+        <v>130763</v>
+      </c>
+      <c r="M530">
+        <v>9.0960800000000006</v>
+      </c>
+      <c r="N530">
+        <v>49.351860000000002</v>
+      </c>
+    </row>
+    <row r="531" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A531">
         <v>200</v>
       </c>
@@ -26380,8 +27126,26 @@
       <c r="G531" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H531" t="s">
+        <v>3830</v>
+      </c>
+      <c r="J531" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K531" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L531">
+        <v>133558</v>
+      </c>
+      <c r="M531">
+        <v>9.1136700000000008</v>
+      </c>
+      <c r="N531">
+        <v>49.349330000000002</v>
+      </c>
+    </row>
+    <row r="532" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A532">
         <v>201</v>
       </c>
@@ -26404,7 +27168,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="533" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A533">
         <v>202</v>
       </c>
@@ -26426,8 +27190,26 @@
       <c r="G533" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H533" t="s">
+        <v>3722</v>
+      </c>
+      <c r="J533" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K533" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L533">
+        <v>133718</v>
+      </c>
+      <c r="M533">
+        <v>9.1461900000000007</v>
+      </c>
+      <c r="N533">
+        <v>49.35501</v>
+      </c>
+    </row>
+    <row r="534" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A534">
         <v>203</v>
       </c>
@@ -26449,8 +27231,26 @@
       <c r="G534" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H534" t="s">
+        <v>3722</v>
+      </c>
+      <c r="J534" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K534" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L534">
+        <v>133718</v>
+      </c>
+      <c r="M534">
+        <v>9.1461900000000007</v>
+      </c>
+      <c r="N534">
+        <v>49.35501</v>
+      </c>
+    </row>
+    <row r="535" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A535">
         <v>204</v>
       </c>
@@ -26472,8 +27272,26 @@
       <c r="G535" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H535" t="s">
+        <v>3831</v>
+      </c>
+      <c r="J535" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K535" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L535">
+        <v>132436</v>
+      </c>
+      <c r="M535">
+        <v>9.1649999999999991</v>
+      </c>
+      <c r="N535">
+        <v>49.376620000000003</v>
+      </c>
+    </row>
+    <row r="536" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A536">
         <v>205</v>
       </c>
@@ -26495,8 +27313,26 @@
       <c r="G536" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H536" t="s">
+        <v>3832</v>
+      </c>
+      <c r="J536" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K536" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L536">
+        <v>129544</v>
+      </c>
+      <c r="M536">
+        <v>9.1919199999999996</v>
+      </c>
+      <c r="N536">
+        <v>49.38655</v>
+      </c>
+    </row>
+    <row r="537" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A537">
         <v>206</v>
       </c>
@@ -26518,8 +27354,26 @@
       <c r="G537" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H537" t="s">
+        <v>3833</v>
+      </c>
+      <c r="J537" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K537" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L537">
+        <v>134129</v>
+      </c>
+      <c r="M537">
+        <v>9.2796699999999994</v>
+      </c>
+      <c r="N537">
+        <v>49.400419999999997</v>
+      </c>
+    </row>
+    <row r="538" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A538">
         <v>207</v>
       </c>
@@ -26541,8 +27395,26 @@
       <c r="G538" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H538" t="s">
+        <v>3834</v>
+      </c>
+      <c r="J538" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K538" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L538">
+        <v>128059</v>
+      </c>
+      <c r="M538">
+        <v>9.2707599999999992</v>
+      </c>
+      <c r="N538">
+        <v>49.391539999999999</v>
+      </c>
+    </row>
+    <row r="539" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A539">
         <v>208</v>
       </c>
@@ -26564,8 +27436,26 @@
       <c r="G539" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="540" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H539" t="s">
+        <v>3835</v>
+      </c>
+      <c r="J539" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K539" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L539">
+        <v>132695</v>
+      </c>
+      <c r="M539">
+        <v>9.2661800000000003</v>
+      </c>
+      <c r="N539">
+        <v>49.373379999999997</v>
+      </c>
+    </row>
+    <row r="540" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A540">
         <v>209</v>
       </c>
@@ -26587,8 +27477,26 @@
       <c r="G540" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="541" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H540" t="s">
+        <v>3707</v>
+      </c>
+      <c r="J540" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K540" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L540">
+        <v>128241</v>
+      </c>
+      <c r="M540">
+        <v>9.2212700000000005</v>
+      </c>
+      <c r="N540">
+        <v>49.351559999999999</v>
+      </c>
+    </row>
+    <row r="541" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A541">
         <v>210</v>
       </c>
@@ -26610,8 +27518,26 @@
       <c r="G541" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="542" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H541" t="s">
+        <v>3836</v>
+      </c>
+      <c r="J541" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K541" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L541">
+        <v>127680</v>
+      </c>
+      <c r="M541">
+        <v>9.2540600000000008</v>
+      </c>
+      <c r="N541">
+        <v>49.347479999999997</v>
+      </c>
+    </row>
+    <row r="542" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A542">
         <v>211</v>
       </c>
@@ -26633,8 +27559,26 @@
       <c r="G542" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="543" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H542" t="s">
+        <v>3837</v>
+      </c>
+      <c r="J542" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K542" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L542">
+        <v>132052</v>
+      </c>
+      <c r="M542">
+        <v>9.2826199999999996</v>
+      </c>
+      <c r="N542">
+        <v>49.360779999999998</v>
+      </c>
+    </row>
+    <row r="543" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A543">
         <v>212</v>
       </c>
@@ -26657,7 +27601,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="544" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="544" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A544">
         <v>213</v>
       </c>
@@ -26680,7 +27624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="545" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="545" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A545">
         <v>214</v>
       </c>
@@ -26703,7 +27647,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="546" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="546" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A546">
         <v>215</v>
       </c>
@@ -26726,7 +27670,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="547" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A547">
         <v>216</v>
       </c>
@@ -26749,7 +27693,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="548" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A548">
         <v>217</v>
       </c>
@@ -26771,8 +27715,26 @@
       <c r="G548" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H548" t="s">
+        <v>3838</v>
+      </c>
+      <c r="J548" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K548" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L548">
+        <v>127562</v>
+      </c>
+      <c r="M548">
+        <v>9.4014600000000002</v>
+      </c>
+      <c r="N548">
+        <v>49.764159999999997</v>
+      </c>
+    </row>
+    <row r="549" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A549">
         <v>218</v>
       </c>
@@ -26794,8 +27756,26 @@
       <c r="G549" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H549" t="s">
+        <v>3840</v>
+      </c>
+      <c r="J549" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K549" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L549">
+        <v>130076</v>
+      </c>
+      <c r="M549">
+        <v>9.4165600000000005</v>
+      </c>
+      <c r="N549">
+        <v>49.783700000000003</v>
+      </c>
+    </row>
+    <row r="550" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A550">
         <v>219</v>
       </c>
@@ -26818,7 +27798,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="551" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="551" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A551">
         <v>220</v>
       </c>
@@ -26841,7 +27821,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="552" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="552" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A552">
         <v>221</v>
       </c>
@@ -26864,7 +27844,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="553" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="553" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A553">
         <v>222</v>
       </c>
@@ -26887,7 +27867,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="554" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="554" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A554">
         <v>223</v>
       </c>
@@ -26910,7 +27890,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="555" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="555" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A555">
         <v>224</v>
       </c>
@@ -26933,7 +27913,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="556" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="556" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A556">
         <v>225</v>
       </c>
@@ -26956,7 +27936,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="557" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="557" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A557">
         <v>226</v>
       </c>
@@ -26978,8 +27958,29 @@
       <c r="G557" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H557" t="s">
+        <v>3841</v>
+      </c>
+      <c r="I557" t="s">
+        <v>3842</v>
+      </c>
+      <c r="J557" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K557" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L557">
+        <v>129224</v>
+      </c>
+      <c r="M557">
+        <v>9.4713499999999993</v>
+      </c>
+      <c r="N557">
+        <v>49.774380000000001</v>
+      </c>
+    </row>
+    <row r="558" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A558">
         <v>227</v>
       </c>
@@ -27002,7 +28003,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="559" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A559">
         <v>228</v>
       </c>
@@ -27025,7 +28026,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="560" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A560">
         <v>229</v>
       </c>
@@ -27048,7 +28049,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A561">
         <v>230</v>
       </c>
@@ -27070,8 +28071,11 @@
       <c r="G561" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="562" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H561" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="562" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A562">
         <v>231</v>
       </c>
@@ -27093,8 +28097,11 @@
       <c r="G562" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="563" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H562" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="563" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A563">
         <v>232</v>
       </c>
@@ -27116,8 +28123,11 @@
       <c r="G563" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="564" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H563" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="564" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A564">
         <v>233</v>
       </c>
@@ -27139,8 +28149,11 @@
       <c r="G564" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="565" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H564" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="565" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A565">
         <v>234</v>
       </c>
@@ -27162,8 +28175,29 @@
       <c r="G565" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="566" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H565" t="s">
+        <v>3844</v>
+      </c>
+      <c r="I565" t="s">
+        <v>3845</v>
+      </c>
+      <c r="J565" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K565" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L565">
+        <v>132826</v>
+      </c>
+      <c r="M565">
+        <v>9.5641999999999996</v>
+      </c>
+      <c r="N565">
+        <v>49.77261</v>
+      </c>
+    </row>
+    <row r="566" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A566">
         <v>235</v>
       </c>
@@ -27185,8 +28219,26 @@
       <c r="G566" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="567" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H566" t="s">
+        <v>3846</v>
+      </c>
+      <c r="J566" t="s">
+        <v>3843</v>
+      </c>
+      <c r="K566" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L566">
+        <v>130614</v>
+      </c>
+      <c r="M566">
+        <v>9.5834600000000005</v>
+      </c>
+      <c r="N566">
+        <v>49.75732</v>
+      </c>
+    </row>
+    <row r="567" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A567">
         <v>236</v>
       </c>
@@ -27208,8 +28260,29 @@
       <c r="G567" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="568" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H567" t="s">
+        <v>3847</v>
+      </c>
+      <c r="J567" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K567" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L567">
+        <v>128062</v>
+      </c>
+      <c r="M567">
+        <v>9.6195699999999995</v>
+      </c>
+      <c r="N567">
+        <v>49.766500000000001</v>
+      </c>
+      <c r="O567">
+        <v>49.766500000000001</v>
+      </c>
+    </row>
+    <row r="568" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A568">
         <v>237</v>
       </c>
@@ -27232,7 +28305,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A569">
         <v>238</v>
       </c>
@@ -27255,7 +28328,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A570">
         <v>239</v>
       </c>
@@ -27278,7 +28351,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A571">
         <v>240</v>
       </c>
@@ -27301,7 +28374,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A572">
         <v>241</v>
       </c>
@@ -27324,7 +28397,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="573" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A573">
         <v>242</v>
       </c>
@@ -27347,7 +28420,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="574" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A574">
         <v>243</v>
       </c>
@@ -27370,7 +28443,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="575" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A575">
         <v>244</v>
       </c>
@@ -27393,7 +28466,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="576" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A576">
         <v>245</v>
       </c>
@@ -27416,7 +28489,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="577" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="577" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A577">
         <v>350</v>
       </c>
@@ -27439,7 +28512,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="578" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="578" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A578">
         <v>351</v>
       </c>
@@ -27462,7 +28535,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="579" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A579">
         <v>352</v>
       </c>
@@ -27485,7 +28558,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="580" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A580">
         <v>353</v>
       </c>
@@ -27508,7 +28581,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="581" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A581">
         <v>354</v>
       </c>
@@ -27530,8 +28603,26 @@
       <c r="G581" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H581" t="s">
+        <v>3848</v>
+      </c>
+      <c r="J581" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K581" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L581" t="s">
+        <v>3849</v>
+      </c>
+      <c r="M581">
+        <v>9.3609500000000008</v>
+      </c>
+      <c r="N581">
+        <v>49.715800000000002</v>
+      </c>
+    </row>
+    <row r="582" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A582">
         <v>355</v>
       </c>
@@ -27553,8 +28644,26 @@
       <c r="G582" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="583" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H582" t="s">
+        <v>3850</v>
+      </c>
+      <c r="J582" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K582" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L582">
+        <v>128335</v>
+      </c>
+      <c r="M582">
+        <v>9.4121500000000005</v>
+      </c>
+      <c r="N582">
+        <v>49.730040000000002</v>
+      </c>
+    </row>
+    <row r="583" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A583">
         <v>356</v>
       </c>
@@ -27576,8 +28685,26 @@
       <c r="G583" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="584" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H583" t="s">
+        <v>3851</v>
+      </c>
+      <c r="J583" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K583" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L583">
+        <v>132200</v>
+      </c>
+      <c r="M583">
+        <v>9.4514600000000009</v>
+      </c>
+      <c r="N583">
+        <v>49.735819999999997</v>
+      </c>
+    </row>
+    <row r="584" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A584">
         <v>357</v>
       </c>
@@ -27599,8 +28726,26 @@
       <c r="G584" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="585" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H584" t="s">
+        <v>3852</v>
+      </c>
+      <c r="J584" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K584" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L584">
+        <v>131988</v>
+      </c>
+      <c r="M584">
+        <v>9.4852100000000004</v>
+      </c>
+      <c r="N584">
+        <v>49.748159999999999</v>
+      </c>
+    </row>
+    <row r="585" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A585">
         <v>358</v>
       </c>
@@ -27622,8 +28767,26 @@
       <c r="G585" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="586" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H585" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J585" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K585" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L585">
+        <v>133833</v>
+      </c>
+      <c r="M585">
+        <v>9.4914699999999996</v>
+      </c>
+      <c r="N585">
+        <v>49.732230000000001</v>
+      </c>
+    </row>
+    <row r="586" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A586">
         <v>359</v>
       </c>
@@ -27645,8 +28808,26 @@
       <c r="G586" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="587" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H586" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J586" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K586" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L586">
+        <v>133833</v>
+      </c>
+      <c r="M586">
+        <v>9.4914699999999996</v>
+      </c>
+      <c r="N586">
+        <v>49.732230000000001</v>
+      </c>
+    </row>
+    <row r="587" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A587">
         <v>360</v>
       </c>
@@ -27668,8 +28849,26 @@
       <c r="G587" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="588" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H587" t="s">
+        <v>3853</v>
+      </c>
+      <c r="J587" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K587" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L587">
+        <v>133833</v>
+      </c>
+      <c r="M587">
+        <v>9.4914699999999996</v>
+      </c>
+      <c r="N587">
+        <v>49.732230000000001</v>
+      </c>
+    </row>
+    <row r="588" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A588">
         <v>361</v>
       </c>
@@ -27691,8 +28890,26 @@
       <c r="G588" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H588" t="s">
+        <v>3854</v>
+      </c>
+      <c r="J588" t="s">
+        <v>3843</v>
+      </c>
+      <c r="K588" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L588">
+        <v>130634</v>
+      </c>
+      <c r="M588">
+        <v>9.4393799999999999</v>
+      </c>
+      <c r="N588">
+        <v>49.717529999999996</v>
+      </c>
+    </row>
+    <row r="589" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A589">
         <v>362</v>
       </c>
@@ -27714,8 +28931,26 @@
       <c r="G589" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H589" t="s">
+        <v>3855</v>
+      </c>
+      <c r="J589" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K589" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L589">
+        <v>130046</v>
+      </c>
+      <c r="M589">
+        <v>9.5009999999999994</v>
+      </c>
+      <c r="N589">
+        <v>49.712730000000001</v>
+      </c>
+    </row>
+    <row r="590" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A590">
         <v>363</v>
       </c>
@@ -27737,8 +28972,26 @@
       <c r="G590" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H590" t="s">
+        <v>3856</v>
+      </c>
+      <c r="J590" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K590" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L590">
+        <v>133241</v>
+      </c>
+      <c r="M590">
+        <v>9.4669100000000004</v>
+      </c>
+      <c r="N590">
+        <v>49.691090000000003</v>
+      </c>
+    </row>
+    <row r="591" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A591">
         <v>364</v>
       </c>
@@ -27761,7 +29014,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="592" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A592">
         <v>365</v>
       </c>
@@ -27783,8 +29036,26 @@
       <c r="G592" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="593" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H592" t="s">
+        <v>1633</v>
+      </c>
+      <c r="J592" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K592" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L592">
+        <v>132646</v>
+      </c>
+      <c r="M592">
+        <v>9.3840699999999995</v>
+      </c>
+      <c r="N592">
+        <v>49.741169999999997</v>
+      </c>
+    </row>
+    <row r="593" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A593">
         <v>366</v>
       </c>
@@ -27807,7 +29078,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="594" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="594" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A594">
         <v>367</v>
       </c>
@@ -27829,8 +29100,26 @@
       <c r="G594" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="595" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H594" t="s">
+        <v>3857</v>
+      </c>
+      <c r="J594" t="s">
+        <v>3858</v>
+      </c>
+      <c r="K594" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L594">
+        <v>130709</v>
+      </c>
+      <c r="M594">
+        <v>9.5229800000000004</v>
+      </c>
+      <c r="N594">
+        <v>49.743569999999998</v>
+      </c>
+    </row>
+    <row r="595" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A595">
         <v>368</v>
       </c>
@@ -27852,8 +29141,26 @@
       <c r="G595" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="596" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H595" t="s">
+        <v>3859</v>
+      </c>
+      <c r="J595" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K595" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L595">
+        <v>132326</v>
+      </c>
+      <c r="M595">
+        <v>9.5706000000000007</v>
+      </c>
+      <c r="N595">
+        <v>49.747979999999998</v>
+      </c>
+    </row>
+    <row r="596" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A596">
         <v>369</v>
       </c>
@@ -27875,8 +29182,26 @@
       <c r="G596" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H596" t="s">
+        <v>3860</v>
+      </c>
+      <c r="J596" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K596" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L596">
+        <v>132611</v>
+      </c>
+      <c r="M596">
+        <v>9.6066000000000003</v>
+      </c>
+      <c r="N596">
+        <v>49.74297</v>
+      </c>
+    </row>
+    <row r="597" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A597">
         <v>370</v>
       </c>
@@ -27898,8 +29223,26 @@
       <c r="G597" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H597" t="s">
+        <v>3861</v>
+      </c>
+      <c r="J597" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K597" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L597" t="s">
+        <v>3862</v>
+      </c>
+      <c r="M597">
+        <v>9.6246100000000006</v>
+      </c>
+      <c r="N597">
+        <v>49.742170000000002</v>
+      </c>
+    </row>
+    <row r="598" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A598">
         <v>371</v>
       </c>
@@ -27921,8 +29264,26 @@
       <c r="G598" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H598" t="s">
+        <v>3863</v>
+      </c>
+      <c r="J598" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K598" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L598">
+        <v>128326</v>
+      </c>
+      <c r="M598">
+        <v>9.5339299999999998</v>
+      </c>
+      <c r="N598">
+        <v>49.72663</v>
+      </c>
+    </row>
+    <row r="599" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A599">
         <v>372</v>
       </c>
@@ -27944,8 +29305,26 @@
       <c r="G599" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="600" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H599" t="s">
+        <v>3864</v>
+      </c>
+      <c r="J599" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K599" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L599">
+        <v>133334</v>
+      </c>
+      <c r="M599">
+        <v>9.5465400000000002</v>
+      </c>
+      <c r="N599">
+        <v>49.713479999999997</v>
+      </c>
+    </row>
+    <row r="600" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A600">
         <v>373</v>
       </c>
@@ -27967,8 +29346,26 @@
       <c r="G600" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="601" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H600" t="s">
+        <v>3865</v>
+      </c>
+      <c r="J600" t="s">
+        <v>3866</v>
+      </c>
+      <c r="K600" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L600">
+        <v>128944</v>
+      </c>
+      <c r="M600">
+        <v>9.5236000000000001</v>
+      </c>
+      <c r="N600">
+        <v>49.669469999999997</v>
+      </c>
+    </row>
+    <row r="601" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A601">
         <v>374</v>
       </c>
@@ -27990,8 +29387,26 @@
       <c r="G601" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="602" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H601" t="s">
+        <v>3867</v>
+      </c>
+      <c r="J601" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K601" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L601" t="s">
+        <v>3868</v>
+      </c>
+      <c r="M601">
+        <v>9.5719399999999997</v>
+      </c>
+      <c r="N601">
+        <v>49.679569999999998</v>
+      </c>
+    </row>
+    <row r="602" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A602">
         <v>375</v>
       </c>
@@ -28013,8 +29428,26 @@
       <c r="G602" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="603" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H602" t="s">
+        <v>3869</v>
+      </c>
+      <c r="J602" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K602" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L602">
+        <v>129161</v>
+      </c>
+      <c r="M602">
+        <v>9.5998599999999996</v>
+      </c>
+      <c r="N602">
+        <v>49.693820000000002</v>
+      </c>
+    </row>
+    <row r="603" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A603">
         <v>376</v>
       </c>
@@ -28036,8 +29469,26 @@
       <c r="G603" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="604" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H603" t="s">
+        <v>3870</v>
+      </c>
+      <c r="J603" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K603" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L603">
+        <v>131806</v>
+      </c>
+      <c r="M603">
+        <v>9.6174999999999997</v>
+      </c>
+      <c r="N603">
+        <v>49.704529999999998</v>
+      </c>
+    </row>
+    <row r="604" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A604">
         <v>377</v>
       </c>
@@ -28059,8 +29510,26 @@
       <c r="G604" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="605" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H604" t="s">
+        <v>3871</v>
+      </c>
+      <c r="J604" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K604" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L604">
+        <v>133307</v>
+      </c>
+      <c r="M604">
+        <v>9.6090499999999999</v>
+      </c>
+      <c r="N604">
+        <v>49.712710000000001</v>
+      </c>
+    </row>
+    <row r="605" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A605">
         <v>378</v>
       </c>
@@ -28083,7 +29552,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="606" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="606" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A606">
         <v>379</v>
       </c>
@@ -28105,8 +29574,26 @@
       <c r="G606" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="607" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H606" t="s">
+        <v>3872</v>
+      </c>
+      <c r="J606" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K606" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L606">
+        <v>128766</v>
+      </c>
+      <c r="M606">
+        <v>9.6387099999999997</v>
+      </c>
+      <c r="N606">
+        <v>49.670290000000001</v>
+      </c>
+    </row>
+    <row r="607" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A607">
         <v>380</v>
       </c>
@@ -28128,8 +29615,26 @@
       <c r="G607" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="608" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H607" t="s">
+        <v>3872</v>
+      </c>
+      <c r="J607" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K607" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L607">
+        <v>128766</v>
+      </c>
+      <c r="M607">
+        <v>9.6387099999999997</v>
+      </c>
+      <c r="N607">
+        <v>49.670290000000001</v>
+      </c>
+    </row>
+    <row r="608" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A608">
         <v>381</v>
       </c>
@@ -28151,8 +29656,26 @@
       <c r="G608" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="609" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H608" t="s">
+        <v>3872</v>
+      </c>
+      <c r="J608" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K608" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L608">
+        <v>128766</v>
+      </c>
+      <c r="M608">
+        <v>9.6387099999999997</v>
+      </c>
+      <c r="N608">
+        <v>49.670290000000001</v>
+      </c>
+    </row>
+    <row r="609" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A609">
         <v>382</v>
       </c>
@@ -28175,7 +29698,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="610" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="610" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A610">
         <v>383</v>
       </c>
@@ -28197,8 +29720,26 @@
       <c r="G610" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="611" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H610" t="s">
+        <v>3873</v>
+      </c>
+      <c r="J610" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K610" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L610">
+        <v>132716</v>
+      </c>
+      <c r="M610">
+        <v>9.7014899999999997</v>
+      </c>
+      <c r="N610">
+        <v>49.700220000000002</v>
+      </c>
+    </row>
+    <row r="611" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A611">
         <v>384</v>
       </c>
@@ -28220,8 +29761,26 @@
       <c r="G611" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="612" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H611" t="s">
+        <v>3874</v>
+      </c>
+      <c r="J611" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K611" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L611">
+        <v>128138</v>
+      </c>
+      <c r="M611">
+        <v>9.6795399999999994</v>
+      </c>
+      <c r="N611">
+        <v>49.679459999999999</v>
+      </c>
+    </row>
+    <row r="612" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A612">
         <v>385</v>
       </c>
@@ -28244,7 +29803,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="613" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="613" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A613">
         <v>386</v>
       </c>
@@ -28266,8 +29825,26 @@
       <c r="G613" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="614" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H613" t="s">
+        <v>3725</v>
+      </c>
+      <c r="J613" t="s">
+        <v>3875</v>
+      </c>
+      <c r="K613" t="s">
+        <v>3876</v>
+      </c>
+      <c r="L613">
+        <v>84346</v>
+      </c>
+      <c r="M613">
+        <v>9.7221200000000003</v>
+      </c>
+      <c r="N613">
+        <v>49.710749999999997</v>
+      </c>
+    </row>
+    <row r="614" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A614">
         <v>387</v>
       </c>
@@ -28290,7 +29867,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="615" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="615" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A615">
         <v>388</v>
       </c>
@@ -28313,7 +29890,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="616" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="616" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A616">
         <v>389</v>
       </c>
@@ -28335,8 +29912,26 @@
       <c r="G616" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="617" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H616" t="s">
+        <v>3877</v>
+      </c>
+      <c r="J616" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K616" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L616">
+        <v>129238</v>
+      </c>
+      <c r="M616">
+        <v>9.7830100000000009</v>
+      </c>
+      <c r="N616">
+        <v>49.706809999999997</v>
+      </c>
+    </row>
+    <row r="617" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A617">
         <v>390</v>
       </c>
@@ -28358,8 +29953,26 @@
       <c r="G617" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="618" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H617" t="s">
+        <v>3878</v>
+      </c>
+      <c r="J617" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K617" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L617">
+        <v>129131</v>
+      </c>
+      <c r="M617">
+        <v>9.8006899999999995</v>
+      </c>
+      <c r="N617">
+        <v>49.677019999999999</v>
+      </c>
+    </row>
+    <row r="618" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A618">
         <v>391</v>
       </c>
@@ -28382,7 +29995,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="619" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="619" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A619">
         <v>392</v>
       </c>
@@ -28405,7 +30018,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="620" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="620" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A620">
         <v>495</v>
       </c>
@@ -28427,8 +30040,26 @@
       <c r="G620" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="621" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H620" t="s">
+        <v>3879</v>
+      </c>
+      <c r="J620" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K620" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L620">
+        <v>128978</v>
+      </c>
+      <c r="M620">
+        <v>9.3450799999999994</v>
+      </c>
+      <c r="N620">
+        <v>49.640030000000003</v>
+      </c>
+    </row>
+    <row r="621" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A621">
         <v>496</v>
       </c>
@@ -28450,8 +30081,26 @@
       <c r="G621" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="622" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H621" t="s">
+        <v>3880</v>
+      </c>
+      <c r="J621" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K621" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L621">
+        <v>133941</v>
+      </c>
+      <c r="M621">
+        <v>9.3664799999999993</v>
+      </c>
+      <c r="N621">
+        <v>49.623820000000002</v>
+      </c>
+    </row>
+    <row r="622" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A622">
         <v>497</v>
       </c>
@@ -28473,8 +30122,26 @@
       <c r="G622" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="623" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H622" t="s">
+        <v>3881</v>
+      </c>
+      <c r="J622" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K622" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L622">
+        <v>129542</v>
+      </c>
+      <c r="M622">
+        <v>9.3874300000000002</v>
+      </c>
+      <c r="N622">
+        <v>49.630749999999999</v>
+      </c>
+    </row>
+    <row r="623" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A623">
         <v>498</v>
       </c>
@@ -28497,7 +30164,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="624" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="624" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A624">
         <v>499</v>
       </c>
@@ -28519,8 +30186,26 @@
       <c r="G624" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="625" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H624" t="s">
+        <v>3882</v>
+      </c>
+      <c r="J624" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K624" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L624">
+        <v>130243</v>
+      </c>
+      <c r="M624">
+        <v>9.4275300000000009</v>
+      </c>
+      <c r="N624">
+        <v>49.601849999999999</v>
+      </c>
+    </row>
+    <row r="625" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A625">
         <v>500</v>
       </c>
@@ -28542,8 +30227,26 @@
       <c r="G625" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="626" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H625" t="s">
+        <v>3883</v>
+      </c>
+      <c r="J625" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K625" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L625">
+        <v>133085</v>
+      </c>
+      <c r="M625">
+        <v>9.4284300000000005</v>
+      </c>
+      <c r="N625">
+        <v>49.625419999999998</v>
+      </c>
+    </row>
+    <row r="626" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A626">
         <v>501</v>
       </c>
@@ -28565,8 +30268,26 @@
       <c r="G626" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="627" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H626" t="s">
+        <v>3884</v>
+      </c>
+      <c r="J626" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K626" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L626">
+        <v>131797</v>
+      </c>
+      <c r="M626">
+        <v>9.4745699999999999</v>
+      </c>
+      <c r="N626">
+        <v>49.608040000000003</v>
+      </c>
+    </row>
+    <row r="627" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A627">
         <v>502</v>
       </c>
@@ -28588,8 +30309,26 @@
       <c r="G627" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="628" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H627" t="s">
+        <v>3885</v>
+      </c>
+      <c r="J627" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K627" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L627">
+        <v>132006</v>
+      </c>
+      <c r="M627">
+        <v>9.4842499999999994</v>
+      </c>
+      <c r="N627">
+        <v>49.64828</v>
+      </c>
+    </row>
+    <row r="628" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A628">
         <v>503</v>
       </c>
@@ -28611,8 +30350,26 @@
       <c r="G628" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="629" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H628" t="s">
+        <v>3886</v>
+      </c>
+      <c r="J628" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K628" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L628">
+        <v>130297</v>
+      </c>
+      <c r="M628">
+        <v>9.5245899999999999</v>
+      </c>
+      <c r="N628">
+        <v>49.618639999999999</v>
+      </c>
+    </row>
+    <row r="629" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A629">
         <v>504</v>
       </c>
@@ -28634,8 +30391,26 @@
       <c r="G629" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="630" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H629" t="s">
+        <v>3887</v>
+      </c>
+      <c r="J629" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K629" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L629">
+        <v>128684</v>
+      </c>
+      <c r="M629">
+        <v>9.5878700000000006</v>
+      </c>
+      <c r="N629">
+        <v>49.659529999999997</v>
+      </c>
+    </row>
+    <row r="630" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A630">
         <v>505</v>
       </c>
@@ -28657,8 +30432,26 @@
       <c r="G630" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="631" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H630" t="s">
+        <v>3888</v>
+      </c>
+      <c r="J630" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K630" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L630">
+        <v>130580</v>
+      </c>
+      <c r="M630">
+        <v>9.6123200000000004</v>
+      </c>
+      <c r="N630">
+        <v>49.63373</v>
+      </c>
+    </row>
+    <row r="631" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A631">
         <v>506</v>
       </c>
@@ -28680,8 +30473,26 @@
       <c r="G631" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="632" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H631" t="s">
+        <v>3889</v>
+      </c>
+      <c r="J631" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K631" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L631">
+        <v>133251</v>
+      </c>
+      <c r="M631">
+        <v>9.5941899999999993</v>
+      </c>
+      <c r="N631">
+        <v>49.618020000000001</v>
+      </c>
+    </row>
+    <row r="632" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A632">
         <v>507</v>
       </c>
@@ -28703,8 +30514,26 @@
       <c r="G632" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="633" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H632" t="s">
+        <v>3890</v>
+      </c>
+      <c r="J632" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K632" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L632">
+        <v>132878</v>
+      </c>
+      <c r="M632">
+        <v>9.5872600000000006</v>
+      </c>
+      <c r="N632">
+        <v>49.59451</v>
+      </c>
+    </row>
+    <row r="633" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A633">
         <v>508</v>
       </c>
@@ -28726,8 +30555,26 @@
       <c r="G633" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="634" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H633" t="s">
+        <v>3891</v>
+      </c>
+      <c r="J633" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K633" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L633">
+        <v>130184</v>
+      </c>
+      <c r="M633">
+        <v>9.6359300000000001</v>
+      </c>
+      <c r="N633">
+        <v>49.589739999999999</v>
+      </c>
+    </row>
+    <row r="634" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A634">
         <v>509</v>
       </c>
@@ -28749,8 +30596,26 @@
       <c r="G634" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="635" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H634" t="s">
+        <v>3839</v>
+      </c>
+      <c r="J634" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K634" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L634">
+        <v>129771</v>
+      </c>
+      <c r="M634">
+        <v>9.6655300000000004</v>
+      </c>
+      <c r="N634">
+        <v>49.623519999999999</v>
+      </c>
+    </row>
+    <row r="635" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A635">
         <v>510</v>
       </c>
@@ -28772,8 +30637,26 @@
       <c r="G635" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="636" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H635" t="s">
+        <v>3892</v>
+      </c>
+      <c r="J635" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K635" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L635">
+        <v>128637</v>
+      </c>
+      <c r="M635">
+        <v>9.6594599999999993</v>
+      </c>
+      <c r="N635">
+        <v>49.647190000000002</v>
+      </c>
+    </row>
+    <row r="636" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A636">
         <v>511</v>
       </c>
@@ -28795,8 +30678,26 @@
       <c r="G636" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="637" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H636" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J636" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K636" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L636" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M636">
+        <v>9.6352600000000006</v>
+      </c>
+      <c r="N636">
+        <v>49.662100000000002</v>
+      </c>
+    </row>
+    <row r="637" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A637">
         <v>512</v>
       </c>
@@ -28818,8 +30719,26 @@
       <c r="G637" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="638" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H637" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J637" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K637" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L637" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M637">
+        <v>9.6352600000000006</v>
+      </c>
+      <c r="N637">
+        <v>49.662100000000002</v>
+      </c>
+    </row>
+    <row r="638" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A638">
         <v>513</v>
       </c>
@@ -28841,8 +30760,26 @@
       <c r="G638" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="639" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H638" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J638" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K638" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L638" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M638">
+        <v>9.6352600000000006</v>
+      </c>
+      <c r="N638">
+        <v>49.662100000000002</v>
+      </c>
+    </row>
+    <row r="639" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A639">
         <v>514</v>
       </c>
@@ -28864,8 +30801,26 @@
       <c r="G639" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="640" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H639" t="s">
+        <v>1698</v>
+      </c>
+      <c r="J639" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K639" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L639" t="s">
+        <v>3893</v>
+      </c>
+      <c r="M639">
+        <v>9.6352600000000006</v>
+      </c>
+      <c r="N639">
+        <v>49.662100000000002</v>
+      </c>
+    </row>
+    <row r="640" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A640">
         <v>515</v>
       </c>
@@ -28887,8 +30842,26 @@
       <c r="G640" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="641" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H640" t="s">
+        <v>3894</v>
+      </c>
+      <c r="J640" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K640" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L640">
+        <v>133428</v>
+      </c>
+      <c r="M640">
+        <v>9.6764700000000001</v>
+      </c>
+      <c r="N640">
+        <v>49.610349999999997</v>
+      </c>
+    </row>
+    <row r="641" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A641">
         <v>516</v>
       </c>
@@ -28910,8 +30883,26 @@
       <c r="G641" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="642" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H641" t="s">
+        <v>3895</v>
+      </c>
+      <c r="J641" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K641" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L641">
+        <v>128727</v>
+      </c>
+      <c r="M641">
+        <v>9.6935300000000009</v>
+      </c>
+      <c r="N641">
+        <v>49.597349999999999</v>
+      </c>
+    </row>
+    <row r="642" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A642">
         <v>517</v>
       </c>
@@ -28933,8 +30924,26 @@
       <c r="G642" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="643" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H642" t="s">
+        <v>3896</v>
+      </c>
+      <c r="J642" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K642" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L642">
+        <v>130684</v>
+      </c>
+      <c r="M642">
+        <v>9.7465600000000006</v>
+      </c>
+      <c r="N642">
+        <v>49.6066</v>
+      </c>
+    </row>
+    <row r="643" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A643">
         <v>518</v>
       </c>
@@ -28956,8 +30965,26 @@
       <c r="G643" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="644" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H643" t="s">
+        <v>3897</v>
+      </c>
+      <c r="J643" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K643" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L643">
+        <v>132544</v>
+      </c>
+      <c r="M643">
+        <v>9.7405500000000007</v>
+      </c>
+      <c r="N643">
+        <v>49.624560000000002</v>
+      </c>
+    </row>
+    <row r="644" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A644">
         <v>519</v>
       </c>
@@ -28979,8 +31006,26 @@
       <c r="G644" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="645" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H644" t="s">
+        <v>3898</v>
+      </c>
+      <c r="J644" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K644" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L644">
+        <v>130104</v>
+      </c>
+      <c r="M644">
+        <v>9.7536799999999992</v>
+      </c>
+      <c r="N644">
+        <v>49.6402</v>
+      </c>
+    </row>
+    <row r="645" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A645">
         <v>520</v>
       </c>
@@ -29002,8 +31047,26 @@
       <c r="G645" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="646" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H645" t="s">
+        <v>3899</v>
+      </c>
+      <c r="J645" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K645" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L645">
+        <v>131375</v>
+      </c>
+      <c r="M645">
+        <v>9.7800200000000004</v>
+      </c>
+      <c r="N645">
+        <v>49.637810000000002</v>
+      </c>
+    </row>
+    <row r="646" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A646">
         <v>521</v>
       </c>
@@ -29025,8 +31088,26 @@
       <c r="G646" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="647" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H646" t="s">
+        <v>3900</v>
+      </c>
+      <c r="J646" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K646" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L646">
+        <v>131698</v>
+      </c>
+      <c r="M646">
+        <v>9.8262199999999993</v>
+      </c>
+      <c r="N646">
+        <v>49.630650000000003</v>
+      </c>
+    </row>
+    <row r="647" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A647">
         <v>522</v>
       </c>
@@ -29048,8 +31129,26 @@
       <c r="G647" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="648" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H647" t="s">
+        <v>3901</v>
+      </c>
+      <c r="J647" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K647" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L647">
+        <v>127916</v>
+      </c>
+      <c r="M647">
+        <v>9.8387799999999999</v>
+      </c>
+      <c r="N647">
+        <v>49.613439999999997</v>
+      </c>
+    </row>
+    <row r="648" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A648">
         <v>523</v>
       </c>
@@ -29072,7 +31171,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="649" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="649" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A649">
         <v>524</v>
       </c>
@@ -29094,8 +31193,26 @@
       <c r="G649" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="650" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H649" t="s">
+        <v>3902</v>
+      </c>
+      <c r="J649" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K649" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L649" t="s">
+        <v>3903</v>
+      </c>
+      <c r="M649">
+        <v>9.8516399999999997</v>
+      </c>
+      <c r="N649">
+        <v>49.62585</v>
+      </c>
+    </row>
+    <row r="650" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A650">
         <v>525</v>
       </c>
@@ -29118,7 +31235,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="651" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="651" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A651">
         <v>526</v>
       </c>
@@ -29141,7 +31258,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="652" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="652" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A652">
         <v>527</v>
       </c>
@@ -29164,7 +31281,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="653" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="653" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A653">
         <v>528</v>
       </c>
@@ -29187,7 +31304,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="654" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="654" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A654">
         <v>529</v>
       </c>
@@ -29210,7 +31327,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="655" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="655" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A655">
         <v>530</v>
       </c>
@@ -29233,7 +31350,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="656" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="656" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A656">
         <v>531</v>
       </c>
@@ -29256,7 +31373,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="657" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="657" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A657">
         <v>532</v>
       </c>
@@ -29279,7 +31396,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="658" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="658" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A658">
         <v>533</v>
       </c>
@@ -29302,7 +31419,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="659" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="659" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A659">
         <v>534</v>
       </c>
@@ -29325,7 +31442,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="660" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="660" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A660">
         <v>535</v>
       </c>
@@ -29348,7 +31465,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="661" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="661" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A661">
         <v>536</v>
       </c>
@@ -29371,7 +31488,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="662" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="662" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A662">
         <v>537</v>
       </c>
@@ -29394,7 +31511,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="663" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="663" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A663">
         <v>538</v>
       </c>
@@ -29417,7 +31534,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="664" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="664" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A664">
         <v>539</v>
       </c>
@@ -29440,7 +31557,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="665" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="665" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A665">
         <v>625</v>
       </c>
@@ -29462,8 +31579,26 @@
       <c r="G665" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="666" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H665" t="s">
+        <v>3904</v>
+      </c>
+      <c r="J665" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K665" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L665">
+        <v>134163</v>
+      </c>
+      <c r="M665">
+        <v>9.3664400000000008</v>
+      </c>
+      <c r="N665">
+        <v>49.519399999999997</v>
+      </c>
+    </row>
+    <row r="666" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A666">
         <v>626</v>
       </c>
@@ -29485,8 +31620,26 @@
       <c r="G666" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="667" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H666" t="s">
+        <v>3905</v>
+      </c>
+      <c r="J666" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K666" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L666">
+        <v>133202</v>
+      </c>
+      <c r="M666">
+        <v>9.3924900000000004</v>
+      </c>
+      <c r="N666">
+        <v>49.513689999999997</v>
+      </c>
+    </row>
+    <row r="667" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A667">
         <v>627</v>
       </c>
@@ -29508,8 +31661,26 @@
       <c r="G667" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="668" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H667" t="s">
+        <v>3906</v>
+      </c>
+      <c r="J667" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K667" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L667">
+        <v>130061</v>
+      </c>
+      <c r="M667">
+        <v>9.4436</v>
+      </c>
+      <c r="N667">
+        <v>49.519150000000003</v>
+      </c>
+    </row>
+    <row r="668" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A668">
         <v>628</v>
       </c>
@@ -29531,8 +31702,26 @@
       <c r="G668" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="669" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H668" t="s">
+        <v>3907</v>
+      </c>
+      <c r="J668" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K668" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L668">
+        <v>132613</v>
+      </c>
+      <c r="M668">
+        <v>9.4489300000000007</v>
+      </c>
+      <c r="N668">
+        <v>49.564700000000002</v>
+      </c>
+    </row>
+    <row r="669" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A669">
         <v>629</v>
       </c>
@@ -29554,8 +31743,26 @@
       <c r="G669" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="670" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H669" t="s">
+        <v>3908</v>
+      </c>
+      <c r="J669" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K669" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L669">
+        <v>131601</v>
+      </c>
+      <c r="M669">
+        <v>9.4868199999999998</v>
+      </c>
+      <c r="N669">
+        <v>49.57826</v>
+      </c>
+    </row>
+    <row r="670" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A670">
         <v>630</v>
       </c>
@@ -29577,8 +31784,26 @@
       <c r="G670" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="671" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H670" t="s">
+        <v>3909</v>
+      </c>
+      <c r="J670" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K670" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L670">
+        <v>129340</v>
+      </c>
+      <c r="M670">
+        <v>9.4959699999999998</v>
+      </c>
+      <c r="N670">
+        <v>49.554160000000003</v>
+      </c>
+    </row>
+    <row r="671" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A671">
         <v>631</v>
       </c>
@@ -29600,8 +31825,26 @@
       <c r="G671" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="672" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H671" t="s">
+        <v>3910</v>
+      </c>
+      <c r="J671" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K671" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L671">
+        <v>133647</v>
+      </c>
+      <c r="M671">
+        <v>9.5048999999999992</v>
+      </c>
+      <c r="N671">
+        <v>49.534990000000001</v>
+      </c>
+    </row>
+    <row r="672" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A672">
         <v>632</v>
       </c>
@@ -29623,8 +31866,26 @@
       <c r="G672" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="673" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H672" t="s">
+        <v>3911</v>
+      </c>
+      <c r="J672" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K672" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L672">
+        <v>127519</v>
+      </c>
+      <c r="M672">
+        <v>9.5262399999999996</v>
+      </c>
+      <c r="N672">
+        <v>49.581490000000002</v>
+      </c>
+    </row>
+    <row r="673" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A673">
         <v>633</v>
       </c>
@@ -29646,8 +31907,26 @@
       <c r="G673" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="674" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H673" t="s">
+        <v>3912</v>
+      </c>
+      <c r="J673" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K673" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L673">
+        <v>129351</v>
+      </c>
+      <c r="M673">
+        <v>9.5545399999999994</v>
+      </c>
+      <c r="N673">
+        <v>49.568390000000001</v>
+      </c>
+    </row>
+    <row r="674" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A674">
         <v>634</v>
       </c>
@@ -29669,8 +31948,29 @@
       <c r="G674" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="675" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H674" t="s">
+        <v>3913</v>
+      </c>
+      <c r="I674" t="s">
+        <v>3914</v>
+      </c>
+      <c r="J674" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K674" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L674">
+        <v>130376</v>
+      </c>
+      <c r="M674">
+        <v>9.5559200000000004</v>
+      </c>
+      <c r="N674">
+        <v>49.538580000000003</v>
+      </c>
+    </row>
+    <row r="675" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A675">
         <v>635</v>
       </c>
@@ -29692,8 +31992,26 @@
       <c r="G675" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="676" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H675" t="s">
+        <v>3915</v>
+      </c>
+      <c r="J675" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K675" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L675">
+        <v>130742</v>
+      </c>
+      <c r="M675">
+        <v>9.5397700000000007</v>
+      </c>
+      <c r="N675">
+        <v>49.501800000000003</v>
+      </c>
+    </row>
+    <row r="676" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A676">
         <v>636</v>
       </c>
@@ -29715,8 +32033,26 @@
       <c r="G676" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="677" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H676" t="s">
+        <v>3916</v>
+      </c>
+      <c r="J676" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K676" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L676">
+        <v>128534</v>
+      </c>
+      <c r="M676">
+        <v>9.5922699999999992</v>
+      </c>
+      <c r="N676">
+        <v>49.501710000000003</v>
+      </c>
+    </row>
+    <row r="677" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A677">
         <v>637</v>
       </c>
@@ -29738,8 +32074,26 @@
       <c r="G677" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="678" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H677" t="s">
+        <v>3917</v>
+      </c>
+      <c r="J677" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K677" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L677">
+        <v>134059</v>
+      </c>
+      <c r="M677">
+        <v>9.6200200000000002</v>
+      </c>
+      <c r="N677">
+        <v>49.526269999999997</v>
+      </c>
+    </row>
+    <row r="678" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A678">
         <v>638</v>
       </c>
@@ -29761,8 +32115,26 @@
       <c r="G678" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="679" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H678" t="s">
+        <v>3918</v>
+      </c>
+      <c r="J678" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K678" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L678">
+        <v>129154</v>
+      </c>
+      <c r="M678">
+        <v>9.6274200000000008</v>
+      </c>
+      <c r="N678">
+        <v>49.505400000000002</v>
+      </c>
+    </row>
+    <row r="679" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A679">
         <v>639</v>
       </c>
@@ -29785,7 +32157,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="680" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="680" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A680">
         <v>640</v>
       </c>
@@ -29807,8 +32179,26 @@
       <c r="G680" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="681" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H680" t="s">
+        <v>3919</v>
+      </c>
+      <c r="J680" t="s">
+        <v>3858</v>
+      </c>
+      <c r="K680" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L680">
+        <v>127479</v>
+      </c>
+      <c r="M680">
+        <v>9.6791199999999993</v>
+      </c>
+      <c r="N680">
+        <v>49.566079999999999</v>
+      </c>
+    </row>
+    <row r="681" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A681">
         <v>641</v>
       </c>
@@ -29830,8 +32220,26 @@
       <c r="G681" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="682" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H681" t="s">
+        <v>3920</v>
+      </c>
+      <c r="J681" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K681" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L681">
+        <v>134091</v>
+      </c>
+      <c r="M681">
+        <v>9.7020300000000006</v>
+      </c>
+      <c r="N681">
+        <v>49.5702</v>
+      </c>
+    </row>
+    <row r="682" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A682">
         <v>642</v>
       </c>
@@ -29853,8 +32261,26 @@
       <c r="G682" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="683" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H682" t="s">
+        <v>3921</v>
+      </c>
+      <c r="J682" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K682" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L682">
+        <v>130008</v>
+      </c>
+      <c r="M682">
+        <v>9.7042199999999994</v>
+      </c>
+      <c r="N682">
+        <v>49.546680000000002</v>
+      </c>
+    </row>
+    <row r="683" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A683">
         <v>643</v>
       </c>
@@ -29876,8 +32302,26 @@
       <c r="G683" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="684" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H683" t="s">
+        <v>3922</v>
+      </c>
+      <c r="J683" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K683" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L683">
+        <v>133898</v>
+      </c>
+      <c r="M683">
+        <v>9.6768699999999992</v>
+      </c>
+      <c r="N683">
+        <v>49.52252</v>
+      </c>
+    </row>
+    <row r="684" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A684">
         <v>644</v>
       </c>
@@ -29899,8 +32343,26 @@
       <c r="G684" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="685" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H684" t="s">
+        <v>3923</v>
+      </c>
+      <c r="J684" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K684" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L684">
+        <v>128686</v>
+      </c>
+      <c r="M684">
+        <v>9.6892200000000006</v>
+      </c>
+      <c r="N684">
+        <v>49.51437</v>
+      </c>
+    </row>
+    <row r="685" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A685">
         <v>645</v>
       </c>
@@ -29922,8 +32384,26 @@
       <c r="G685" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="686" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H685" t="s">
+        <v>3924</v>
+      </c>
+      <c r="J685" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K685" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L685">
+        <v>133639</v>
+      </c>
+      <c r="M685">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="N685">
+        <v>49.523769999999999</v>
+      </c>
+    </row>
+    <row r="686" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A686">
         <v>646</v>
       </c>
@@ -29945,8 +32425,26 @@
       <c r="G686" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="687" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H686" t="s">
+        <v>3925</v>
+      </c>
+      <c r="J686" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K686" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L686">
+        <v>127954</v>
+      </c>
+      <c r="M686">
+        <v>9.7310499999999998</v>
+      </c>
+      <c r="N686">
+        <v>49.54759</v>
+      </c>
+    </row>
+    <row r="687" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A687">
         <v>647</v>
       </c>
@@ -29968,8 +32466,26 @@
       <c r="G687" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="688" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H687" t="s">
+        <v>3926</v>
+      </c>
+      <c r="J687" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K687" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L687">
+        <v>130685</v>
+      </c>
+      <c r="M687">
+        <v>9.7471099999999993</v>
+      </c>
+      <c r="N687">
+        <v>49.527790000000003</v>
+      </c>
+    </row>
+    <row r="688" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A688">
         <v>648</v>
       </c>
@@ -29992,7 +32508,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="689" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="689" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A689">
         <v>649</v>
       </c>
@@ -30014,8 +32530,26 @@
       <c r="G689" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="690" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H689" t="s">
+        <v>3927</v>
+      </c>
+      <c r="J689" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K689" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L689">
+        <v>131648</v>
+      </c>
+      <c r="M689">
+        <v>9.7263999999999999</v>
+      </c>
+      <c r="N689">
+        <v>49.565809999999999</v>
+      </c>
+    </row>
+    <row r="690" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A690">
         <v>650</v>
       </c>
@@ -30037,8 +32571,26 @@
       <c r="G690" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="691" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H690" t="s">
+        <v>3928</v>
+      </c>
+      <c r="J690" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K690" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L690">
+        <v>132507</v>
+      </c>
+      <c r="M690">
+        <v>9.7177500000000006</v>
+      </c>
+      <c r="N690">
+        <v>49.579979999999999</v>
+      </c>
+    </row>
+    <row r="691" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A691">
         <v>651</v>
       </c>
@@ -30060,8 +32612,26 @@
       <c r="G691" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="692" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H691" t="s">
+        <v>3929</v>
+      </c>
+      <c r="J691" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K691" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L691">
+        <v>128911</v>
+      </c>
+      <c r="M691">
+        <v>9.7613599999999998</v>
+      </c>
+      <c r="N691">
+        <v>49.581589999999998</v>
+      </c>
+    </row>
+    <row r="692" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A692">
         <v>652</v>
       </c>
@@ -30083,8 +32653,26 @@
       <c r="G692" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="693" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H692" t="s">
+        <v>3930</v>
+      </c>
+      <c r="J692" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K692" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L692">
+        <v>130760</v>
+      </c>
+      <c r="M692">
+        <v>9.7887000000000004</v>
+      </c>
+      <c r="N692">
+        <v>49.575600000000001</v>
+      </c>
+    </row>
+    <row r="693" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A693">
         <v>653</v>
       </c>
@@ -30106,8 +32694,26 @@
       <c r="G693" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="694" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H693" t="s">
+        <v>3930</v>
+      </c>
+      <c r="J693" t="s">
+        <v>3931</v>
+      </c>
+      <c r="K693" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L693">
+        <v>130760</v>
+      </c>
+      <c r="M693">
+        <v>9.7887000000000004</v>
+      </c>
+      <c r="N693">
+        <v>49.575600000000001</v>
+      </c>
+    </row>
+    <row r="694" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A694">
         <v>654</v>
       </c>
@@ -30130,7 +32736,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="695" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="695" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A695">
         <v>655</v>
       </c>
@@ -30153,7 +32759,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="696" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="696" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A696">
         <v>656</v>
       </c>
@@ -30175,8 +32781,26 @@
       <c r="G696" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="697" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H696" t="s">
+        <v>3932</v>
+      </c>
+      <c r="J696" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K696" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L696" t="s">
+        <v>3933</v>
+      </c>
+      <c r="M696">
+        <v>9.7937999999999992</v>
+      </c>
+      <c r="N696">
+        <v>49.539969999999997</v>
+      </c>
+    </row>
+    <row r="697" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A697">
         <v>747</v>
       </c>
@@ -30199,7 +32823,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="698" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="698" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A698">
         <v>748</v>
       </c>
@@ -30222,7 +32846,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="699" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="699" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A699">
         <v>749</v>
       </c>
@@ -30245,7 +32869,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="700" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="700" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A700">
         <v>750</v>
       </c>
@@ -30268,7 +32892,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="701" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="701" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A701">
         <v>751</v>
       </c>
@@ -30291,7 +32915,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="702" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="702" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A702">
         <v>752</v>
       </c>
@@ -30314,7 +32938,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="703" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="703" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A703">
         <v>753</v>
       </c>
@@ -30337,7 +32961,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="704" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="704" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A704">
         <v>754</v>
       </c>

--- a/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
+++ b/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DWA_FSJ\Städtenamen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_GeoRef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BFDF4292-75AF-4E6C-ABC5-F0E28F7BCF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71409B40-E3C6-42EF-9E94-D5651283635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11707" uniqueCount="3934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11734" uniqueCount="3942">
   <si>
     <t>ID</t>
   </si>
@@ -11827,13 +11827,37 @@
   </si>
   <si>
     <t>130868, 130868</t>
+  </si>
+  <si>
+    <t>Freudenberg</t>
+  </si>
+  <si>
+    <t>a. Main</t>
+  </si>
+  <si>
+    <t>Laudenbach</t>
+  </si>
+  <si>
+    <t>Gau Baden</t>
+  </si>
+  <si>
+    <t>Rippberg</t>
+  </si>
+  <si>
+    <t>Gerolzahn</t>
+  </si>
+  <si>
+    <t>Gottersdorf</t>
+  </si>
+  <si>
+    <t>Hornbach</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11878,6 +11902,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11955,7 +11986,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -11978,6 +12009,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
@@ -12295,8 +12327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:P3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A686" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H696" sqref="H696"/>
+    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H561" sqref="H561:H564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -14925,7 +14957,7 @@
         <v>3414</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5228</v>
       </c>
@@ -14948,7 +14980,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>5229</v>
       </c>
@@ -14971,7 +15003,7 @@
         <v>3416</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5230</v>
       </c>
@@ -14994,7 +15026,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5231</v>
       </c>
@@ -15017,7 +15049,7 @@
         <v>3418</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>5232</v>
       </c>
@@ -15040,7 +15072,7 @@
         <v>3419</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>5233</v>
       </c>
@@ -15063,7 +15095,7 @@
         <v>3420</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>5234</v>
       </c>
@@ -15086,7 +15118,7 @@
         <v>3421</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>5235</v>
       </c>
@@ -15109,7 +15141,7 @@
         <v>3422</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>5236</v>
       </c>
@@ -15132,7 +15164,7 @@
         <v>3423</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>5237</v>
       </c>
@@ -15155,7 +15187,7 @@
         <v>3424</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>5238</v>
       </c>
@@ -15178,7 +15210,7 @@
         <v>3425</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>5239</v>
       </c>
@@ -15201,7 +15233,7 @@
         <v>3426</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>5240</v>
       </c>
@@ -15224,7 +15256,7 @@
         <v>3427</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>5241</v>
       </c>
@@ -15247,7 +15279,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>5242</v>
       </c>
@@ -15270,7 +15302,7 @@
         <v>3429</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>5243</v>
       </c>
@@ -15292,8 +15324,29 @@
       <c r="G128" s="10" t="s">
         <v>3430</v>
       </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H128" t="s">
+        <v>3934</v>
+      </c>
+      <c r="I128" t="s">
+        <v>3935</v>
+      </c>
+      <c r="J128" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K128" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L128">
+        <v>129703</v>
+      </c>
+      <c r="M128">
+        <v>9.3253299999999992</v>
+      </c>
+      <c r="N128">
+        <v>49.751449999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>5244</v>
       </c>
@@ -15315,8 +15368,29 @@
       <c r="G129" s="10" t="s">
         <v>3431</v>
       </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H129" t="s">
+        <v>3934</v>
+      </c>
+      <c r="I129" t="s">
+        <v>3935</v>
+      </c>
+      <c r="J129" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K129" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L129">
+        <v>129703</v>
+      </c>
+      <c r="M129">
+        <v>9.3253299999999992</v>
+      </c>
+      <c r="N129">
+        <v>49.751449999999998</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>5245</v>
       </c>
@@ -15339,7 +15413,7 @@
         <v>3432</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>5246</v>
       </c>
@@ -15362,7 +15436,7 @@
         <v>3433</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>5247</v>
       </c>
@@ -15385,7 +15459,7 @@
         <v>3434</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>5248</v>
       </c>
@@ -15408,7 +15482,7 @@
         <v>3435</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>5249</v>
       </c>
@@ -15431,7 +15505,7 @@
         <v>3436</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>5250</v>
       </c>
@@ -15454,7 +15528,7 @@
         <v>3437</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>5251</v>
       </c>
@@ -15477,7 +15551,7 @@
         <v>3438</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>5252</v>
       </c>
@@ -15500,7 +15574,7 @@
         <v>3439</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>5253</v>
       </c>
@@ -15523,7 +15597,7 @@
         <v>3440</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>5254</v>
       </c>
@@ -15546,7 +15620,7 @@
         <v>3441</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>5255</v>
       </c>
@@ -15569,7 +15643,7 @@
         <v>3442</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>5256</v>
       </c>
@@ -15592,7 +15666,7 @@
         <v>3443</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>5257</v>
       </c>
@@ -15615,7 +15689,7 @@
         <v>3444</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>5258</v>
       </c>
@@ -15638,7 +15712,7 @@
         <v>3445</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>5259</v>
       </c>
@@ -17133,7 +17207,7 @@
         <v>3510</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>5324</v>
       </c>
@@ -17156,7 +17230,7 @@
         <v>3511</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>5325</v>
       </c>
@@ -17179,7 +17253,7 @@
         <v>3512</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>5326</v>
       </c>
@@ -17202,7 +17276,7 @@
         <v>3513</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>5327</v>
       </c>
@@ -17225,7 +17299,7 @@
         <v>3514</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>5328</v>
       </c>
@@ -17247,8 +17321,29 @@
       <c r="G213" s="10" t="s">
         <v>3515</v>
       </c>
-    </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H213" t="s">
+        <v>3936</v>
+      </c>
+      <c r="I213" t="s">
+        <v>3709</v>
+      </c>
+      <c r="J213" t="s">
+        <v>3699</v>
+      </c>
+      <c r="K213" t="s">
+        <v>3937</v>
+      </c>
+      <c r="L213">
+        <v>130756</v>
+      </c>
+      <c r="M213">
+        <v>8.6543399999999995</v>
+      </c>
+      <c r="N213">
+        <v>49.611899999999999</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>5329</v>
       </c>
@@ -17270,8 +17365,29 @@
       <c r="G214" s="10" t="s">
         <v>3516</v>
       </c>
-    </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H214" t="s">
+        <v>3936</v>
+      </c>
+      <c r="I214" t="s">
+        <v>3709</v>
+      </c>
+      <c r="J214" t="s">
+        <v>3699</v>
+      </c>
+      <c r="K214" t="s">
+        <v>3937</v>
+      </c>
+      <c r="L214">
+        <v>130756</v>
+      </c>
+      <c r="M214">
+        <v>8.6543399999999995</v>
+      </c>
+      <c r="N214">
+        <v>49.611899999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>5330</v>
       </c>
@@ -17294,7 +17410,7 @@
         <v>3517</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>5331</v>
       </c>
@@ -17317,7 +17433,7 @@
         <v>3518</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>5332</v>
       </c>
@@ -17340,7 +17456,7 @@
         <v>3519</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>5333</v>
       </c>
@@ -17363,7 +17479,7 @@
         <v>3520</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>5334</v>
       </c>
@@ -17386,7 +17502,7 @@
         <v>3521</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>5335</v>
       </c>
@@ -17409,7 +17525,7 @@
         <v>3522</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>5336</v>
       </c>
@@ -17432,7 +17548,7 @@
         <v>3523</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>5337</v>
       </c>
@@ -17455,7 +17571,7 @@
         <v>3524</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>5338</v>
       </c>
@@ -17478,7 +17594,7 @@
         <v>3525</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>5339</v>
       </c>
@@ -18237,7 +18353,7 @@
         <v>3558</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>5372</v>
       </c>
@@ -18260,7 +18376,7 @@
         <v>3559</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>5373</v>
       </c>
@@ -18283,7 +18399,7 @@
         <v>3560</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>5374</v>
       </c>
@@ -18306,7 +18422,7 @@
         <v>3561</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>5375</v>
       </c>
@@ -18329,7 +18445,7 @@
         <v>3562</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>5376</v>
       </c>
@@ -18352,7 +18468,7 @@
         <v>3563</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>5377</v>
       </c>
@@ -18375,7 +18491,7 @@
         <v>3564</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>5378</v>
       </c>
@@ -18398,7 +18514,7 @@
         <v>3565</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>5379</v>
       </c>
@@ -18421,7 +18537,7 @@
         <v>3566</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>5380</v>
       </c>
@@ -18444,7 +18560,7 @@
         <v>3567</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>5381</v>
       </c>
@@ -18467,7 +18583,7 @@
         <v>3568</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>5382</v>
       </c>
@@ -18490,7 +18606,7 @@
         <v>3569</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>5383</v>
       </c>
@@ -18513,7 +18629,7 @@
         <v>3570</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>5384</v>
       </c>
@@ -18536,7 +18652,7 @@
         <v>3571</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>5385</v>
       </c>
@@ -18558,8 +18674,26 @@
       <c r="G270" s="8" t="s">
         <v>3572</v>
       </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H270" t="s">
+        <v>3938</v>
+      </c>
+      <c r="J270" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K270">
+        <v>999</v>
+      </c>
+      <c r="L270">
+        <v>127552</v>
+      </c>
+      <c r="M270">
+        <v>9.2976200000000002</v>
+      </c>
+      <c r="N270">
+        <v>49.622529999999998</v>
+      </c>
+    </row>
+    <row r="271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>5386</v>
       </c>
@@ -18581,8 +18715,26 @@
       <c r="G271" s="8" t="s">
         <v>3573</v>
       </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H271" t="s">
+        <v>3939</v>
+      </c>
+      <c r="J271" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K271" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L271">
+        <v>127396</v>
+      </c>
+      <c r="M271">
+        <v>9.3189499999999992</v>
+      </c>
+      <c r="N271">
+        <v>49.626449999999998</v>
+      </c>
+    </row>
+    <row r="272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>5387</v>
       </c>
@@ -18604,8 +18756,26 @@
       <c r="G272" s="8" t="s">
         <v>3574</v>
       </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H272" t="s">
+        <v>3940</v>
+      </c>
+      <c r="J272" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K272" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L272">
+        <v>130367</v>
+      </c>
+      <c r="M272">
+        <v>9.3106399999999994</v>
+      </c>
+      <c r="N272">
+        <v>49.637509999999999</v>
+      </c>
+    </row>
+    <row r="273" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>5388</v>
       </c>
@@ -18628,7 +18798,7 @@
         <v>3575</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>5389</v>
       </c>
@@ -18651,7 +18821,7 @@
         <v>3576</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>5390</v>
       </c>
@@ -18673,8 +18843,26 @@
       <c r="G275" s="8" t="s">
         <v>3577</v>
       </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H275" t="s">
+        <v>3941</v>
+      </c>
+      <c r="J275" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K275" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L275">
+        <v>130438</v>
+      </c>
+      <c r="M275">
+        <v>9.2901199999999999</v>
+      </c>
+      <c r="N275">
+        <v>49.591000000000001</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>5391</v>
       </c>
@@ -18697,7 +18885,7 @@
         <v>3578</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>5392</v>
       </c>
@@ -18720,7 +18908,7 @@
         <v>3579</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>5393</v>
       </c>
@@ -18743,7 +18931,7 @@
         <v>3580</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>5394</v>
       </c>
@@ -18766,7 +18954,7 @@
         <v>3581</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>5395</v>
       </c>
@@ -18789,7 +18977,7 @@
         <v>3582</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>5396</v>
       </c>
@@ -18812,7 +19000,7 @@
         <v>3583</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>5397</v>
       </c>
@@ -18835,7 +19023,7 @@
         <v>3584</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>5398</v>
       </c>
@@ -18858,7 +19046,7 @@
         <v>3585</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>5399</v>
       </c>
@@ -18881,7 +19069,7 @@
         <v>3586</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>5400</v>
       </c>
@@ -18904,7 +19092,7 @@
         <v>3587</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>5401</v>
       </c>
@@ -18927,7 +19115,7 @@
         <v>3588</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>5402</v>
       </c>
@@ -18950,7 +19138,7 @@
         <v>3589</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>5403</v>
       </c>
@@ -28071,7 +28259,7 @@
       <c r="G561" t="s">
         <v>188</v>
       </c>
-      <c r="H561" t="s">
+      <c r="H561" s="22" t="s">
         <v>3843</v>
       </c>
     </row>
@@ -28097,7 +28285,7 @@
       <c r="G562" t="s">
         <v>189</v>
       </c>
-      <c r="H562" t="s">
+      <c r="H562" s="22" t="s">
         <v>3843</v>
       </c>
     </row>
@@ -28123,7 +28311,7 @@
       <c r="G563" t="s">
         <v>190</v>
       </c>
-      <c r="H563" t="s">
+      <c r="H563" s="22" t="s">
         <v>3843</v>
       </c>
     </row>
@@ -28149,7 +28337,7 @@
       <c r="G564" t="s">
         <v>191</v>
       </c>
-      <c r="H564" t="s">
+      <c r="H564" s="22" t="s">
         <v>3843</v>
       </c>
     </row>

--- a/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
+++ b/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_GeoRef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71409B40-E3C6-42EF-9E94-D5651283635D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C8543-719B-4E8F-8D5B-1ABA12D57AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7250" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11734" uniqueCount="3942">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12397" uniqueCount="4112">
   <si>
     <t>ID</t>
   </si>
@@ -11851,13 +11851,523 @@
   </si>
   <si>
     <t>Hornbach</t>
+  </si>
+  <si>
+    <t>Götzingen</t>
+  </si>
+  <si>
+    <t>Eberstadt</t>
+  </si>
+  <si>
+    <t>Schlierstadt</t>
+  </si>
+  <si>
+    <t>über Osterburken</t>
+  </si>
+  <si>
+    <t>Zimmern</t>
+  </si>
+  <si>
+    <t>129638, 129638</t>
+  </si>
+  <si>
+    <t>Bofsheim</t>
+  </si>
+  <si>
+    <t>Osterburken</t>
+  </si>
+  <si>
+    <t>Rosenberg</t>
+  </si>
+  <si>
+    <t>Sindolsheim</t>
+  </si>
+  <si>
+    <t>Hohenstadt</t>
+  </si>
+  <si>
+    <t>Hirschlanden</t>
+  </si>
+  <si>
+    <t>pq c'24</t>
+  </si>
+  <si>
+    <t>pq c'23</t>
+  </si>
+  <si>
+    <t>Berolzheim</t>
+  </si>
+  <si>
+    <t>Schillingstadt</t>
+  </si>
+  <si>
+    <t>Oberwittstadt</t>
+  </si>
+  <si>
+    <t>Windischbuch</t>
+  </si>
+  <si>
+    <t>Schwabhausen</t>
+  </si>
+  <si>
+    <t>Angeltürn</t>
+  </si>
+  <si>
+    <t>Wölchingen</t>
+  </si>
+  <si>
+    <t>Boxberg</t>
+  </si>
+  <si>
+    <t>Dainbach</t>
+  </si>
+  <si>
+    <t>Dainbach-Herold in places</t>
+  </si>
+  <si>
+    <t>Bobstadt</t>
+  </si>
+  <si>
+    <t>Assamstadt</t>
+  </si>
+  <si>
+    <t>Sennfeld</t>
+  </si>
+  <si>
+    <t>Adlesheim</t>
+  </si>
+  <si>
+    <t>Korb</t>
+  </si>
+  <si>
+    <t>Leibenstadt</t>
+  </si>
+  <si>
+    <t>Unterkessach</t>
+  </si>
+  <si>
+    <t>Buchen i. Odenwald</t>
+  </si>
+  <si>
+    <t>Hüngheim</t>
+  </si>
+  <si>
+    <t>Merchingen</t>
+  </si>
+  <si>
+    <t>pqd'23</t>
+  </si>
+  <si>
+    <t>Ballenberg</t>
+  </si>
+  <si>
+    <t>Erlenbach</t>
+  </si>
+  <si>
+    <t>Winzenhofen</t>
+  </si>
+  <si>
+    <t>Gommersdorf</t>
+  </si>
+  <si>
+    <t>Oberndorf</t>
+  </si>
+  <si>
+    <t>Neunstetten</t>
+  </si>
+  <si>
+    <t>Horrenbach</t>
+  </si>
+  <si>
+    <t>Krautheim</t>
+  </si>
+  <si>
+    <t>Jagst</t>
+  </si>
+  <si>
+    <t>Klepsau</t>
+  </si>
+  <si>
+    <t>Liedolsheim</t>
+  </si>
+  <si>
+    <t>Hochstetten</t>
+  </si>
+  <si>
+    <t>Karlsruhe</t>
+  </si>
+  <si>
+    <t>Linkenheim</t>
+  </si>
+  <si>
+    <t>Leopoldshafen</t>
+  </si>
+  <si>
+    <t>Eggenstein</t>
+  </si>
+  <si>
+    <t>Friedrichstal</t>
+  </si>
+  <si>
+    <t>Graben</t>
+  </si>
+  <si>
+    <t>Neuthard</t>
+  </si>
+  <si>
+    <t>Bruchsal</t>
+  </si>
+  <si>
+    <t>Spöck</t>
+  </si>
+  <si>
+    <t>Staffort</t>
+  </si>
+  <si>
+    <t>Karlsdorf</t>
+  </si>
+  <si>
+    <t>128927, 128927</t>
+  </si>
+  <si>
+    <t>Untergrombach</t>
+  </si>
+  <si>
+    <t>Ubstadt</t>
+  </si>
+  <si>
+    <t>Heidelsheim</t>
+  </si>
+  <si>
+    <t>Helmsheim</t>
+  </si>
+  <si>
+    <t>Oberöwisheim</t>
+  </si>
+  <si>
+    <t>Unteröwisheim</t>
+  </si>
+  <si>
+    <t>Münzesheim</t>
+  </si>
+  <si>
+    <t>Oberacker</t>
+  </si>
+  <si>
+    <t>Menzingen</t>
+  </si>
+  <si>
+    <t>Gochsheim</t>
+  </si>
+  <si>
+    <t>Landshausen</t>
+  </si>
+  <si>
+    <t>Bahnbrücken</t>
+  </si>
+  <si>
+    <t>Flehingen</t>
+  </si>
+  <si>
+    <t>Zaisenhausen</t>
+  </si>
+  <si>
+    <t>Rohrbach</t>
+  </si>
+  <si>
+    <t>b/ Eppingen</t>
+  </si>
+  <si>
+    <t>Rohrbach (am GiesshÃ¼bel)</t>
+  </si>
+  <si>
+    <t>Sulzfeld</t>
+  </si>
+  <si>
+    <t>Eppingen</t>
+  </si>
+  <si>
+    <t>Mühlbach</t>
+  </si>
+  <si>
+    <t>bei Eppingen</t>
+  </si>
+  <si>
+    <t>Gemmingen</t>
+  </si>
+  <si>
+    <t>Stebbach</t>
+  </si>
+  <si>
+    <t>Schluchtern</t>
+  </si>
+  <si>
+    <t>Neureut</t>
+  </si>
+  <si>
+    <t>127931, 127931</t>
+  </si>
+  <si>
+    <t>Karlsruhe-Rüppurr</t>
+  </si>
+  <si>
+    <t>Rintheim</t>
+  </si>
+  <si>
+    <t>Karlsruhe-Mühlberg</t>
+  </si>
+  <si>
+    <t>Blankenloch_Büchig</t>
+  </si>
+  <si>
+    <t>Bei Maurer Getrennt</t>
+  </si>
+  <si>
+    <t>Hagsfeld</t>
+  </si>
+  <si>
+    <t>Weingarten</t>
+  </si>
+  <si>
+    <t>Berghausen</t>
+  </si>
+  <si>
+    <t>Obergrombach</t>
+  </si>
+  <si>
+    <t>Wössingen</t>
+  </si>
+  <si>
+    <t>Dürrenbüchig</t>
+  </si>
+  <si>
+    <t>Gondelsheim</t>
+  </si>
+  <si>
+    <t>Grötzingen</t>
+  </si>
+  <si>
+    <t>Neibsheim</t>
+  </si>
+  <si>
+    <t>Diedelsheim</t>
+  </si>
+  <si>
+    <t>Rinklingen</t>
+  </si>
+  <si>
+    <t>Bretten</t>
+  </si>
+  <si>
+    <t>Büchig</t>
+  </si>
+  <si>
+    <t>b. Bretten</t>
+  </si>
+  <si>
+    <t>Kürnbach</t>
+  </si>
+  <si>
+    <t>Bulach</t>
+  </si>
+  <si>
+    <t>pqi'17</t>
+  </si>
+  <si>
+    <t>Durlach</t>
+  </si>
+  <si>
+    <t>pqi'17: Karlsruhe-Durlach</t>
+  </si>
+  <si>
+    <t>Bruchhausen</t>
+  </si>
+  <si>
+    <t>Ettlingenweier</t>
+  </si>
+  <si>
+    <t>Ettlingen</t>
+  </si>
+  <si>
+    <t>129117, 129117</t>
+  </si>
+  <si>
+    <t>Grünwettersbach</t>
+  </si>
+  <si>
+    <t>Palmbach</t>
+  </si>
+  <si>
+    <t>Reichenbach</t>
+  </si>
+  <si>
+    <t>bei Ettlingen</t>
+  </si>
+  <si>
+    <t>Söllingen</t>
+  </si>
+  <si>
+    <t>Mutschelbach</t>
+  </si>
+  <si>
+    <t>Singen</t>
+  </si>
+  <si>
+    <t>Pforzheim</t>
+  </si>
+  <si>
+    <t>Wilferdingen</t>
+  </si>
+  <si>
+    <t>Königsbach</t>
+  </si>
+  <si>
+    <t>131831, 130379</t>
+  </si>
+  <si>
+    <t>Bilfingen</t>
+  </si>
+  <si>
+    <t>Ersingen</t>
+  </si>
+  <si>
+    <t>Stein</t>
+  </si>
+  <si>
+    <t>Königsbach und Stein in einer Zeile</t>
+  </si>
+  <si>
+    <t>Eisingen</t>
+  </si>
+  <si>
+    <t>Nussbaum</t>
+  </si>
+  <si>
+    <t>Göbrichen</t>
+  </si>
+  <si>
+    <t>Bauschlott</t>
+  </si>
+  <si>
+    <t>Dürrn</t>
+  </si>
+  <si>
+    <t>Kieselbronn</t>
+  </si>
+  <si>
+    <t>Etzenrot</t>
+  </si>
+  <si>
+    <t>Völkersbach</t>
+  </si>
+  <si>
+    <t>Schluttenbach</t>
+  </si>
+  <si>
+    <t>Langenalb</t>
+  </si>
+  <si>
+    <t>Spielberg</t>
+  </si>
+  <si>
+    <t>Burbach</t>
+  </si>
+  <si>
+    <t>Schielberg</t>
+  </si>
+  <si>
+    <t>Auerbach</t>
+  </si>
+  <si>
+    <t>Dietlingen</t>
+  </si>
+  <si>
+    <t>Ellmendingen</t>
+  </si>
+  <si>
+    <t>Büchenbronn</t>
+  </si>
+  <si>
+    <t>Pforzheim-Brötzingen</t>
+  </si>
+  <si>
+    <t>pqk'18 und nur  Brötzingen</t>
+  </si>
+  <si>
+    <t>Äschelbronn</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131632</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131633</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131634</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131635</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131636</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131637</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131638</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131639</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131640</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131641</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131642</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131643</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131644</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131645</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131646</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131647</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131648</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131649</t>
+  </si>
+  <si>
+    <t>131632, 131632, 131632, 131650</t>
+  </si>
+  <si>
+    <t>Pforzheim-Dillweissenstein</t>
+  </si>
+  <si>
+    <t>Huchenfeld</t>
+  </si>
+  <si>
+    <t>Würm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11909,6 +12419,26 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.59999389629810485"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -11986,7 +12516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -12010,6 +12540,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Schlecht" xfId="1" builtinId="27"/>
@@ -12327,8 +12859,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:P3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A550" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H561" sqref="H561:H564"/>
+    <sheetView tabSelected="1" topLeftCell="A2282" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="K2314" sqref="K2314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -33010,6 +33542,24 @@
       <c r="G697" t="s">
         <v>327</v>
       </c>
+      <c r="H697" t="s">
+        <v>3942</v>
+      </c>
+      <c r="J697" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K697" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L697">
+        <v>130009</v>
+      </c>
+      <c r="M697">
+        <v>9.3946500000000004</v>
+      </c>
+      <c r="N697">
+        <v>49.496929999999999</v>
+      </c>
     </row>
     <row r="698" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A698">
@@ -33033,6 +33583,24 @@
       <c r="G698" t="s">
         <v>328</v>
       </c>
+      <c r="H698" t="s">
+        <v>3943</v>
+      </c>
+      <c r="J698" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K698" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L698">
+        <v>133375</v>
+      </c>
+      <c r="M698">
+        <v>9.3666</v>
+      </c>
+      <c r="N698">
+        <v>49.477269999999997</v>
+      </c>
     </row>
     <row r="699" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A699">
@@ -33056,6 +33624,27 @@
       <c r="G699" t="s">
         <v>329</v>
       </c>
+      <c r="H699" t="s">
+        <v>3944</v>
+      </c>
+      <c r="I699" t="s">
+        <v>3945</v>
+      </c>
+      <c r="J699" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K699" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L699">
+        <v>128572</v>
+      </c>
+      <c r="M699">
+        <v>9.3681599999999996</v>
+      </c>
+      <c r="N699">
+        <v>49.452570000000001</v>
+      </c>
     </row>
     <row r="700" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A700">
@@ -33079,6 +33668,24 @@
       <c r="G700" t="s">
         <v>330</v>
       </c>
+      <c r="H700" t="s">
+        <v>3946</v>
+      </c>
+      <c r="J700" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K700" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L700" t="s">
+        <v>3947</v>
+      </c>
+      <c r="M700">
+        <v>9.3730399999999996</v>
+      </c>
+      <c r="N700">
+        <v>49.433129999999998</v>
+      </c>
     </row>
     <row r="701" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A701">
@@ -33102,6 +33709,24 @@
       <c r="G701" t="s">
         <v>331</v>
       </c>
+      <c r="H701" t="s">
+        <v>3948</v>
+      </c>
+      <c r="J701" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K701" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L701">
+        <v>132566</v>
+      </c>
+      <c r="M701">
+        <v>9.4122599999999998</v>
+      </c>
+      <c r="N701">
+        <v>49.471400000000003</v>
+      </c>
     </row>
     <row r="702" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A702">
@@ -33125,6 +33750,24 @@
       <c r="G702" t="s">
         <v>332</v>
       </c>
+      <c r="H702" t="s">
+        <v>3949</v>
+      </c>
+      <c r="J702" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K702" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L702">
+        <v>128415</v>
+      </c>
+      <c r="M702">
+        <v>9.4283800000000006</v>
+      </c>
+      <c r="N702">
+        <v>49.430799999999998</v>
+      </c>
     </row>
     <row r="703" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A703">
@@ -33148,6 +33791,24 @@
       <c r="G703" t="s">
         <v>333</v>
       </c>
+      <c r="H703" t="s">
+        <v>3949</v>
+      </c>
+      <c r="J703" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K703" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L703">
+        <v>128415</v>
+      </c>
+      <c r="M703">
+        <v>9.4283800000000006</v>
+      </c>
+      <c r="N703">
+        <v>49.430799999999998</v>
+      </c>
     </row>
     <row r="704" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A704">
@@ -33171,8 +33832,26 @@
       <c r="G704" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="705" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H704" t="s">
+        <v>3950</v>
+      </c>
+      <c r="J704" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K704" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L704">
+        <v>130012</v>
+      </c>
+      <c r="M704">
+        <v>9.4751999999999992</v>
+      </c>
+      <c r="N704">
+        <v>49.455829999999999</v>
+      </c>
+    </row>
+    <row r="705" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A705">
         <v>755</v>
       </c>
@@ -33194,8 +33873,26 @@
       <c r="G705" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="706" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H705" t="s">
+        <v>3951</v>
+      </c>
+      <c r="J705" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K705" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L705">
+        <v>129673</v>
+      </c>
+      <c r="M705">
+        <v>9.4538399999999996</v>
+      </c>
+      <c r="N705">
+        <v>49.48715</v>
+      </c>
+    </row>
+    <row r="706" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A706">
         <v>756</v>
       </c>
@@ -33217,8 +33914,26 @@
       <c r="G706" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="707" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H706" t="s">
+        <v>3952</v>
+      </c>
+      <c r="J706" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K706" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L706">
+        <v>128219</v>
+      </c>
+      <c r="M706">
+        <v>9.5168499999999998</v>
+      </c>
+      <c r="N706">
+        <v>49.491680000000002</v>
+      </c>
+    </row>
+    <row r="707" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A707">
         <v>757</v>
       </c>
@@ -33240,8 +33955,29 @@
       <c r="G707" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="708" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H707" s="23" t="s">
+        <v>3953</v>
+      </c>
+      <c r="J707" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K707" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L707">
+        <v>132817</v>
+      </c>
+      <c r="M707">
+        <v>9.5007400000000004</v>
+      </c>
+      <c r="N707">
+        <v>49.472969999999997</v>
+      </c>
+      <c r="O707" t="s">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="708" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A708">
         <v>758</v>
       </c>
@@ -33263,8 +33999,26 @@
       <c r="G708" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="709" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H708" t="s">
+        <v>3956</v>
+      </c>
+      <c r="J708" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K708" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L708">
+        <v>132692</v>
+      </c>
+      <c r="M708">
+        <v>9.5404199999999992</v>
+      </c>
+      <c r="N708">
+        <v>49.474899999999998</v>
+      </c>
+    </row>
+    <row r="709" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A709">
         <v>759</v>
       </c>
@@ -33286,8 +34040,26 @@
       <c r="G709" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="710" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H709" t="s">
+        <v>3957</v>
+      </c>
+      <c r="J709" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K709" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L709">
+        <v>131156</v>
+      </c>
+      <c r="M709">
+        <v>9.5746099999999998</v>
+      </c>
+      <c r="N709">
+        <v>49.460349999999998</v>
+      </c>
+    </row>
+    <row r="710" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A710">
         <v>760</v>
       </c>
@@ -33309,8 +34081,26 @@
       <c r="G710" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="711" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H710" t="s">
+        <v>3958</v>
+      </c>
+      <c r="J710" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K710" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L710">
+        <v>128976</v>
+      </c>
+      <c r="M710">
+        <v>9.55565</v>
+      </c>
+      <c r="N710">
+        <v>49.43027</v>
+      </c>
+    </row>
+    <row r="711" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A711">
         <v>761</v>
       </c>
@@ -33332,8 +34122,26 @@
       <c r="G711" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="712" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H711" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J711" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K711" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L711">
+        <v>134092</v>
+      </c>
+      <c r="M711">
+        <v>9.6219400000000004</v>
+      </c>
+      <c r="N711">
+        <v>49.435929999999999</v>
+      </c>
+    </row>
+    <row r="712" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A712">
         <v>762</v>
       </c>
@@ -33355,8 +34163,26 @@
       <c r="G712" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="713" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H712" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J712" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K712" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L712">
+        <v>134092</v>
+      </c>
+      <c r="M712">
+        <v>9.6219400000000004</v>
+      </c>
+      <c r="N712">
+        <v>49.435929999999999</v>
+      </c>
+    </row>
+    <row r="713" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A713">
         <v>763</v>
       </c>
@@ -33378,8 +34204,26 @@
       <c r="G713" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="714" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H713" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J713" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K713" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L713">
+        <v>134092</v>
+      </c>
+      <c r="M713">
+        <v>9.6219400000000004</v>
+      </c>
+      <c r="N713">
+        <v>49.435929999999999</v>
+      </c>
+    </row>
+    <row r="714" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A714">
         <v>764</v>
       </c>
@@ -33401,8 +34245,26 @@
       <c r="G714" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="715" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H714" t="s">
+        <v>3959</v>
+      </c>
+      <c r="J714" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K714" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L714">
+        <v>134092</v>
+      </c>
+      <c r="M714">
+        <v>9.6219400000000004</v>
+      </c>
+      <c r="N714">
+        <v>49.435929999999999</v>
+      </c>
+    </row>
+    <row r="715" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A715">
         <v>765</v>
       </c>
@@ -33424,8 +34286,26 @@
       <c r="G715" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="716" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H715" t="s">
+        <v>3960</v>
+      </c>
+      <c r="J715" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K715" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L715">
+        <v>131529</v>
+      </c>
+      <c r="M715">
+        <v>9.6019600000000001</v>
+      </c>
+      <c r="N715">
+        <v>49.455689999999997</v>
+      </c>
+    </row>
+    <row r="716" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A716">
         <v>766</v>
       </c>
@@ -33447,8 +34327,26 @@
       <c r="G716" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="717" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H716" t="s">
+        <v>3960</v>
+      </c>
+      <c r="J716" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K716" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L716">
+        <v>131529</v>
+      </c>
+      <c r="M716">
+        <v>9.6019600000000001</v>
+      </c>
+      <c r="N716">
+        <v>49.455689999999997</v>
+      </c>
+    </row>
+    <row r="717" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A717">
         <v>767</v>
       </c>
@@ -33470,8 +34368,26 @@
       <c r="G717" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="718" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H717" t="s">
+        <v>3960</v>
+      </c>
+      <c r="J717" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K717" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L717">
+        <v>131529</v>
+      </c>
+      <c r="M717">
+        <v>9.6019600000000001</v>
+      </c>
+      <c r="N717">
+        <v>49.455689999999997</v>
+      </c>
+    </row>
+    <row r="718" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A718">
         <v>768</v>
       </c>
@@ -33493,8 +34409,26 @@
       <c r="G718" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="719" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H718" t="s">
+        <v>3961</v>
+      </c>
+      <c r="J718" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K718" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L718">
+        <v>127821</v>
+      </c>
+      <c r="M718">
+        <v>9.5972600000000003</v>
+      </c>
+      <c r="N718">
+        <v>49.485720000000001</v>
+      </c>
+    </row>
+    <row r="719" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A719">
         <v>769</v>
       </c>
@@ -33516,8 +34450,26 @@
       <c r="G719" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="720" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H719" t="s">
+        <v>3962</v>
+      </c>
+      <c r="J719" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K719" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L719">
+        <v>132374</v>
+      </c>
+      <c r="M719">
+        <v>9.6301100000000002</v>
+      </c>
+      <c r="N719">
+        <v>49.484940000000002</v>
+      </c>
+    </row>
+    <row r="720" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A720">
         <v>770</v>
       </c>
@@ -33539,8 +34491,26 @@
       <c r="G720" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="721" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H720" t="s">
+        <v>3962</v>
+      </c>
+      <c r="J720" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K720" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L720">
+        <v>132374</v>
+      </c>
+      <c r="M720">
+        <v>9.6301100000000002</v>
+      </c>
+      <c r="N720">
+        <v>49.484940000000002</v>
+      </c>
+    </row>
+    <row r="721" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A721">
         <v>771</v>
       </c>
@@ -33562,8 +34532,26 @@
       <c r="G721" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="722" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H721" t="s">
+        <v>3962</v>
+      </c>
+      <c r="J721" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K721" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L721">
+        <v>132374</v>
+      </c>
+      <c r="M721">
+        <v>9.6301100000000002</v>
+      </c>
+      <c r="N721">
+        <v>49.484940000000002</v>
+      </c>
+    </row>
+    <row r="722" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A722">
         <v>772</v>
       </c>
@@ -33585,8 +34573,26 @@
       <c r="G722" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="723" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H722" t="s">
+        <v>3963</v>
+      </c>
+      <c r="J722" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K722" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L722">
+        <v>132415</v>
+      </c>
+      <c r="M722">
+        <v>9.6429799999999997</v>
+      </c>
+      <c r="N722">
+        <v>49.481810000000003</v>
+      </c>
+    </row>
+    <row r="723" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A723">
         <v>773</v>
       </c>
@@ -33608,8 +34614,29 @@
       <c r="G723" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="724" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H723" s="24" t="s">
+        <v>3964</v>
+      </c>
+      <c r="J723" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K723" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L723">
+        <v>133431</v>
+      </c>
+      <c r="M723">
+        <v>9.7155299999999993</v>
+      </c>
+      <c r="N723">
+        <v>49.49662</v>
+      </c>
+      <c r="O723" t="s">
+        <v>3965</v>
+      </c>
+    </row>
+    <row r="724" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A724">
         <v>774</v>
       </c>
@@ -33631,8 +34658,29 @@
       <c r="G724" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="725" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H724" s="24" t="s">
+        <v>3966</v>
+      </c>
+      <c r="J724" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K724" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L724">
+        <v>134100</v>
+      </c>
+      <c r="M724">
+        <v>9.6739800000000002</v>
+      </c>
+      <c r="N724">
+        <v>49.466070000000002</v>
+      </c>
+      <c r="O724" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="725" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A725">
         <v>775</v>
       </c>
@@ -33654,8 +34702,26 @@
       <c r="G725" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="726" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H725" t="s">
+        <v>3967</v>
+      </c>
+      <c r="J725" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K725" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L725">
+        <v>129370</v>
+      </c>
+      <c r="M725">
+        <v>9.6873799999999992</v>
+      </c>
+      <c r="N725">
+        <v>49.42689</v>
+      </c>
+    </row>
+    <row r="726" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A726">
         <v>776</v>
       </c>
@@ -33677,8 +34743,26 @@
       <c r="G726" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="727" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H726" t="s">
+        <v>3967</v>
+      </c>
+      <c r="J726" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K726" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L726">
+        <v>129370</v>
+      </c>
+      <c r="M726">
+        <v>9.6873799999999992</v>
+      </c>
+      <c r="N726">
+        <v>49.42689</v>
+      </c>
+    </row>
+    <row r="727" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A727">
         <v>777</v>
       </c>
@@ -33700,8 +34784,26 @@
       <c r="G727" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="728" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H727" t="s">
+        <v>3967</v>
+      </c>
+      <c r="J727" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K727" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L727">
+        <v>129370</v>
+      </c>
+      <c r="M727">
+        <v>9.6873799999999992</v>
+      </c>
+      <c r="N727">
+        <v>49.42689</v>
+      </c>
+    </row>
+    <row r="728" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A728">
         <v>778</v>
       </c>
@@ -33723,8 +34825,26 @@
       <c r="G728" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="729" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H728" t="s">
+        <v>3967</v>
+      </c>
+      <c r="J728" t="s">
+        <v>3839</v>
+      </c>
+      <c r="K728" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L728">
+        <v>129370</v>
+      </c>
+      <c r="M728">
+        <v>9.6873799999999992</v>
+      </c>
+      <c r="N728">
+        <v>49.42689</v>
+      </c>
+    </row>
+    <row r="729" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A729">
         <v>779</v>
       </c>
@@ -33747,7 +34867,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="730" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A730">
         <v>780</v>
       </c>
@@ -33770,7 +34890,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="731" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A731">
         <v>781</v>
       </c>
@@ -33793,7 +34913,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="732" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A732">
         <v>782</v>
       </c>
@@ -33816,7 +34936,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="733" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A733">
         <v>783</v>
       </c>
@@ -33839,7 +34959,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="734" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A734">
         <v>784</v>
       </c>
@@ -33862,7 +34982,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="735" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A735">
         <v>785</v>
       </c>
@@ -33885,7 +35005,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="736" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A736">
         <v>786</v>
       </c>
@@ -33908,7 +35028,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="737" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A737">
         <v>879</v>
       </c>
@@ -33931,7 +35051,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="738" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A738">
         <v>880</v>
       </c>
@@ -33953,8 +35073,26 @@
       <c r="G738" t="s">
         <v>368</v>
       </c>
-    </row>
-    <row r="739" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H738" t="s">
+        <v>3968</v>
+      </c>
+      <c r="J738" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K738" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L738">
+        <v>128009</v>
+      </c>
+      <c r="M738">
+        <v>9.3843800000000002</v>
+      </c>
+      <c r="N738">
+        <v>49.380450000000003</v>
+      </c>
+    </row>
+    <row r="739" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A739">
         <v>881</v>
       </c>
@@ -33976,8 +35114,26 @@
       <c r="G739" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="740" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H739" t="s">
+        <v>3969</v>
+      </c>
+      <c r="J739" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K739" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L739">
+        <v>133297</v>
+      </c>
+      <c r="M739">
+        <v>9.3910099999999996</v>
+      </c>
+      <c r="N739">
+        <v>49.402889999999999</v>
+      </c>
+    </row>
+    <row r="740" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A740">
         <v>882</v>
       </c>
@@ -33999,8 +35155,26 @@
       <c r="G740" t="s">
         <v>370</v>
       </c>
-    </row>
-    <row r="741" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H740" t="s">
+        <v>3970</v>
+      </c>
+      <c r="J740" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K740" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L740">
+        <v>130083</v>
+      </c>
+      <c r="M740">
+        <v>9.3973200000000006</v>
+      </c>
+      <c r="N740">
+        <v>49.355939999999997</v>
+      </c>
+    </row>
+    <row r="741" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A741">
         <v>883</v>
       </c>
@@ -34022,8 +35196,26 @@
       <c r="G741" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="742" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H741" t="s">
+        <v>3971</v>
+      </c>
+      <c r="J741" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K741" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L741">
+        <v>130624</v>
+      </c>
+      <c r="M741">
+        <v>9.42028</v>
+      </c>
+      <c r="N741">
+        <v>49.368609999999997</v>
+      </c>
+    </row>
+    <row r="742" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A742">
         <v>884</v>
       </c>
@@ -34045,8 +35237,26 @@
       <c r="G742" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="743" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H742" t="s">
+        <v>3972</v>
+      </c>
+      <c r="J742" t="s">
+        <v>3973</v>
+      </c>
+      <c r="K742" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L742">
+        <v>128827</v>
+      </c>
+      <c r="M742">
+        <v>9.4382900000000003</v>
+      </c>
+      <c r="N742">
+        <v>49.345709999999997</v>
+      </c>
+    </row>
+    <row r="743" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A743">
         <v>885</v>
       </c>
@@ -34069,7 +35279,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="744" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A744">
         <v>886</v>
       </c>
@@ -34092,7 +35302,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="745" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A745">
         <v>887</v>
       </c>
@@ -34114,8 +35324,26 @@
       <c r="G745" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="746" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H745" t="s">
+        <v>3974</v>
+      </c>
+      <c r="J745" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K745" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L745">
+        <v>128355</v>
+      </c>
+      <c r="M745">
+        <v>9.5182300000000009</v>
+      </c>
+      <c r="N745">
+        <v>49.412570000000002</v>
+      </c>
+    </row>
+    <row r="746" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A746">
         <v>888</v>
       </c>
@@ -34137,8 +35365,29 @@
       <c r="G746" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="747" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H746" s="24" t="s">
+        <v>3975</v>
+      </c>
+      <c r="J746" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K746" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L746">
+        <v>132776</v>
+      </c>
+      <c r="M746">
+        <v>9.5063300000000002</v>
+      </c>
+      <c r="N746">
+        <v>49.400300000000001</v>
+      </c>
+      <c r="O746" t="s">
+        <v>3976</v>
+      </c>
+    </row>
+    <row r="747" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A747">
         <v>889</v>
       </c>
@@ -34160,8 +35409,26 @@
       <c r="G747" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="748" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H747" t="s">
+        <v>3977</v>
+      </c>
+      <c r="J747" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K747" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L747">
+        <v>132269</v>
+      </c>
+      <c r="M747">
+        <v>9.5508600000000001</v>
+      </c>
+      <c r="N747">
+        <v>49.400930000000002</v>
+      </c>
+    </row>
+    <row r="748" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A748">
         <v>890</v>
       </c>
@@ -34183,8 +35450,26 @@
       <c r="G748" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="749" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H748" t="s">
+        <v>3978</v>
+      </c>
+      <c r="J748" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K748" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L748">
+        <v>133983</v>
+      </c>
+      <c r="M748">
+        <v>9.5513999999999992</v>
+      </c>
+      <c r="N748">
+        <v>49.385530000000003</v>
+      </c>
+    </row>
+    <row r="749" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A749">
         <v>891</v>
       </c>
@@ -34207,7 +35492,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="750" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A750">
         <v>892</v>
       </c>
@@ -34230,7 +35515,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="751" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A751">
         <v>893</v>
       </c>
@@ -34252,8 +35537,26 @@
       <c r="G751" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="752" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H751" t="s">
+        <v>3979</v>
+      </c>
+      <c r="J751" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K751" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L751">
+        <v>129536</v>
+      </c>
+      <c r="M751">
+        <v>9.5722900000000006</v>
+      </c>
+      <c r="N751">
+        <v>49.356279999999998</v>
+      </c>
+    </row>
+    <row r="752" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A752">
         <v>894</v>
       </c>
@@ -34275,8 +35578,26 @@
       <c r="G752" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="753" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H752" t="s">
+        <v>3980</v>
+      </c>
+      <c r="J752" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K752" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L752">
+        <v>129606</v>
+      </c>
+      <c r="M752">
+        <v>9.6125299999999996</v>
+      </c>
+      <c r="N752">
+        <v>49.368769999999998</v>
+      </c>
+    </row>
+    <row r="753" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A753">
         <v>895</v>
       </c>
@@ -34298,8 +35619,26 @@
       <c r="G753" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="754" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H753" t="s">
+        <v>3981</v>
+      </c>
+      <c r="J753" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K753" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L753">
+        <v>131163</v>
+      </c>
+      <c r="M753">
+        <v>9.5918100000000006</v>
+      </c>
+      <c r="N753">
+        <v>49.408169999999998</v>
+      </c>
+    </row>
+    <row r="754" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A754">
         <v>896</v>
       </c>
@@ -34321,8 +35660,26 @@
       <c r="G754" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="755" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H754" t="s">
+        <v>3982</v>
+      </c>
+      <c r="J754" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K754" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L754">
+        <v>133029</v>
+      </c>
+      <c r="M754">
+        <v>9.6126699999999996</v>
+      </c>
+      <c r="N754">
+        <v>49.411140000000003</v>
+      </c>
+    </row>
+    <row r="755" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A755">
         <v>897</v>
       </c>
@@ -34344,8 +35701,26 @@
       <c r="G755" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="756" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H755" t="s">
+        <v>3983</v>
+      </c>
+      <c r="J755" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K755" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L755">
+        <v>128472</v>
+      </c>
+      <c r="M755">
+        <v>9.6602800000000002</v>
+      </c>
+      <c r="N755">
+        <v>49.408259999999999</v>
+      </c>
+    </row>
+    <row r="756" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A756">
         <v>898</v>
       </c>
@@ -34367,8 +35742,29 @@
       <c r="G756" t="s">
         <v>386</v>
       </c>
-    </row>
-    <row r="757" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H756" t="s">
+        <v>3984</v>
+      </c>
+      <c r="I756" t="s">
+        <v>3985</v>
+      </c>
+      <c r="J756" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K756" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L756">
+        <v>131526</v>
+      </c>
+      <c r="M756">
+        <v>9.6336899999999996</v>
+      </c>
+      <c r="N756">
+        <v>49.391590000000001</v>
+      </c>
+    </row>
+    <row r="757" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A757">
         <v>899</v>
       </c>
@@ -34390,8 +35786,26 @@
       <c r="G757" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="758" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H757" t="s">
+        <v>3986</v>
+      </c>
+      <c r="J757" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K757" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L757">
+        <v>132661</v>
+      </c>
+      <c r="M757">
+        <v>9.6715599999999995</v>
+      </c>
+      <c r="N757">
+        <v>49.38805</v>
+      </c>
+    </row>
+    <row r="758" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A758">
         <v>900</v>
       </c>
@@ -34414,7 +35828,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="759" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="759" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A759">
         <v>901</v>
       </c>
@@ -34437,7 +35851,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="760" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="760" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A760">
         <v>902</v>
       </c>
@@ -34460,7 +35874,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="761" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="761" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A761">
         <v>903</v>
       </c>
@@ -34483,7 +35897,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="762" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="762" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A762">
         <v>904</v>
       </c>
@@ -34506,7 +35920,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="763" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="763" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A763">
         <v>905</v>
       </c>
@@ -34529,7 +35943,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="764" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="764" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A764">
         <v>906</v>
       </c>
@@ -34552,7 +35966,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="765" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="765" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A765">
         <v>2286</v>
       </c>
@@ -34575,7 +35989,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="766" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="766" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A766">
         <v>2287</v>
       </c>
@@ -34598,7 +36012,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="767" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="767" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A767">
         <v>2288</v>
       </c>
@@ -34621,7 +36035,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="768" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="768" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A768">
         <v>2289</v>
       </c>
@@ -67041,6 +68455,24 @@
       <c r="G2102" t="s">
         <v>1832</v>
       </c>
+      <c r="H2102" t="s">
+        <v>3987</v>
+      </c>
+      <c r="J2102" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2102" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2102">
+        <v>130543</v>
+      </c>
+      <c r="M2102">
+        <v>8.4145099999999999</v>
+      </c>
+      <c r="N2102">
+        <v>49.162210000000002</v>
+      </c>
     </row>
     <row r="2103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2103">
@@ -67064,6 +68496,24 @@
       <c r="G2103" t="s">
         <v>1833</v>
       </c>
+      <c r="H2103" t="s">
+        <v>3988</v>
+      </c>
+      <c r="J2103" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2103" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2103">
+        <v>132522</v>
+      </c>
+      <c r="M2103">
+        <v>8.4156600000000008</v>
+      </c>
+      <c r="N2103">
+        <v>49.13702</v>
+      </c>
     </row>
     <row r="2104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2104">
@@ -67087,6 +68537,24 @@
       <c r="G2104" t="s">
         <v>1834</v>
       </c>
+      <c r="H2104" t="s">
+        <v>3988</v>
+      </c>
+      <c r="J2104" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2104" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2104">
+        <v>132522</v>
+      </c>
+      <c r="M2104">
+        <v>8.4156600000000008</v>
+      </c>
+      <c r="N2104">
+        <v>49.13702</v>
+      </c>
     </row>
     <row r="2105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2105">
@@ -67110,6 +68578,24 @@
       <c r="G2105" t="s">
         <v>1835</v>
       </c>
+      <c r="H2105" t="s">
+        <v>3990</v>
+      </c>
+      <c r="J2105" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2105" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2105">
+        <v>127902</v>
+      </c>
+      <c r="M2105">
+        <v>8.4084400000000006</v>
+      </c>
+      <c r="N2105">
+        <v>49.124180000000003</v>
+      </c>
     </row>
     <row r="2106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2106">
@@ -67133,6 +68619,24 @@
       <c r="G2106" t="s">
         <v>1836</v>
       </c>
+      <c r="H2106" t="s">
+        <v>3991</v>
+      </c>
+      <c r="J2106" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2106" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2106">
+        <v>132982</v>
+      </c>
+      <c r="M2106">
+        <v>8.3923000000000005</v>
+      </c>
+      <c r="N2106">
+        <v>49.099330000000002</v>
+      </c>
     </row>
     <row r="2107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2107">
@@ -67156,6 +68660,24 @@
       <c r="G2107" t="s">
         <v>1837</v>
       </c>
+      <c r="H2107" t="s">
+        <v>3992</v>
+      </c>
+      <c r="J2107" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2107" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2107">
+        <v>133237</v>
+      </c>
+      <c r="M2107">
+        <v>8.3957200000000007</v>
+      </c>
+      <c r="N2107">
+        <v>49.084820000000001</v>
+      </c>
     </row>
     <row r="2108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2108">
@@ -67179,6 +68701,24 @@
       <c r="G2108" t="s">
         <v>1838</v>
       </c>
+      <c r="H2108" t="s">
+        <v>3992</v>
+      </c>
+      <c r="J2108" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2108" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2108">
+        <v>133237</v>
+      </c>
+      <c r="M2108">
+        <v>8.3957200000000007</v>
+      </c>
+      <c r="N2108">
+        <v>49.084820000000001</v>
+      </c>
     </row>
     <row r="2109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2109">
@@ -67202,6 +68742,24 @@
       <c r="G2109" t="s">
         <v>1839</v>
       </c>
+      <c r="H2109" t="s">
+        <v>3993</v>
+      </c>
+      <c r="J2109" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2109" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2109">
+        <v>132481</v>
+      </c>
+      <c r="M2109">
+        <v>8.4809099999999997</v>
+      </c>
+      <c r="N2109">
+        <v>49.104810000000001</v>
+      </c>
     </row>
     <row r="2110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2110">
@@ -67225,6 +68783,24 @@
       <c r="G2110" t="s">
         <v>1840</v>
       </c>
+      <c r="H2110" t="s">
+        <v>3994</v>
+      </c>
+      <c r="J2110" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2110" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2110">
+        <v>132099</v>
+      </c>
+      <c r="M2110">
+        <v>8.4892800000000008</v>
+      </c>
+      <c r="N2110">
+        <v>49.165349999999997</v>
+      </c>
     </row>
     <row r="2111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2111">
@@ -67248,6 +68824,24 @@
       <c r="G2111" t="s">
         <v>1841</v>
       </c>
+      <c r="H2111" t="s">
+        <v>3995</v>
+      </c>
+      <c r="J2111" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2111" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2111">
+        <v>131469</v>
+      </c>
+      <c r="M2111">
+        <v>8.5208600000000008</v>
+      </c>
+      <c r="N2111">
+        <v>49.127800000000001</v>
+      </c>
     </row>
     <row r="2112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2112">
@@ -67271,8 +68865,26 @@
       <c r="G2112" t="s">
         <v>1842</v>
       </c>
-    </row>
-    <row r="2113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2112" t="s">
+        <v>3997</v>
+      </c>
+      <c r="J2112" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2112" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2112">
+        <v>130306</v>
+      </c>
+      <c r="M2112">
+        <v>8.5103299999999997</v>
+      </c>
+      <c r="N2112">
+        <v>49.111789999999999</v>
+      </c>
+    </row>
+    <row r="2113" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2113">
         <v>3800</v>
       </c>
@@ -67294,8 +68906,26 @@
       <c r="G2113" t="s">
         <v>1843</v>
       </c>
-    </row>
-    <row r="2114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2113" t="s">
+        <v>3998</v>
+      </c>
+      <c r="J2113" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2113" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2113">
+        <v>128700</v>
+      </c>
+      <c r="M2113">
+        <v>8.5103399999999993</v>
+      </c>
+      <c r="N2113">
+        <v>49.090789999999998</v>
+      </c>
+    </row>
+    <row r="2114" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2114">
         <v>3801</v>
       </c>
@@ -67317,8 +68947,26 @@
       <c r="G2114" t="s">
         <v>1844</v>
       </c>
-    </row>
-    <row r="2115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2114" t="s">
+        <v>3998</v>
+      </c>
+      <c r="J2114" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2114" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2114">
+        <v>128700</v>
+      </c>
+      <c r="M2114">
+        <v>8.5103399999999993</v>
+      </c>
+      <c r="N2114">
+        <v>49.090789999999998</v>
+      </c>
+    </row>
+    <row r="2115" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2115">
         <v>3802</v>
       </c>
@@ -67340,8 +68988,26 @@
       <c r="G2115" t="s">
         <v>1845</v>
       </c>
-    </row>
-    <row r="2116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2115" t="s">
+        <v>3998</v>
+      </c>
+      <c r="J2115" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2115" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2115">
+        <v>128700</v>
+      </c>
+      <c r="M2115">
+        <v>8.5103399999999993</v>
+      </c>
+      <c r="N2115">
+        <v>49.090789999999998</v>
+      </c>
+    </row>
+    <row r="2116" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2116">
         <v>3803</v>
       </c>
@@ -67363,8 +69029,26 @@
       <c r="G2116" t="s">
         <v>1846</v>
       </c>
-    </row>
-    <row r="2117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2116" t="s">
+        <v>3999</v>
+      </c>
+      <c r="J2116" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2116" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2116">
+        <v>128532</v>
+      </c>
+      <c r="M2116">
+        <v>8.5416399999999992</v>
+      </c>
+      <c r="N2116">
+        <v>49.136299999999999</v>
+      </c>
+    </row>
+    <row r="2117" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2117">
         <v>3804</v>
       </c>
@@ -67387,7 +69071,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="2118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2118" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2118">
         <v>3805</v>
       </c>
@@ -67409,8 +69093,26 @@
       <c r="G2118" t="s">
         <v>1848</v>
       </c>
-    </row>
-    <row r="2119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2118" t="s">
+        <v>3996</v>
+      </c>
+      <c r="J2118" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2118" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2118" t="s">
+        <v>4000</v>
+      </c>
+      <c r="M2118">
+        <v>8.6010200000000001</v>
+      </c>
+      <c r="N2118">
+        <v>49.12377</v>
+      </c>
+    </row>
+    <row r="2119" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2119">
         <v>3806</v>
       </c>
@@ -67432,8 +69134,26 @@
       <c r="G2119" t="s">
         <v>1849</v>
       </c>
-    </row>
-    <row r="2120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2119" t="s">
+        <v>3996</v>
+      </c>
+      <c r="J2119" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2119" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2119" t="s">
+        <v>4000</v>
+      </c>
+      <c r="M2119">
+        <v>8.6010200000000001</v>
+      </c>
+      <c r="N2119">
+        <v>49.12377</v>
+      </c>
+    </row>
+    <row r="2120" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2120">
         <v>3807</v>
       </c>
@@ -67455,8 +69175,26 @@
       <c r="G2120" t="s">
         <v>1850</v>
       </c>
-    </row>
-    <row r="2121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2120" t="s">
+        <v>3996</v>
+      </c>
+      <c r="J2120" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2120" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2120" t="s">
+        <v>4000</v>
+      </c>
+      <c r="M2120">
+        <v>8.6010200000000001</v>
+      </c>
+      <c r="N2120">
+        <v>49.12377</v>
+      </c>
+    </row>
+    <row r="2121" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2121">
         <v>3808</v>
       </c>
@@ -67478,8 +69216,26 @@
       <c r="G2121" t="s">
         <v>1851</v>
       </c>
-    </row>
-    <row r="2122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2121" t="s">
+        <v>4001</v>
+      </c>
+      <c r="J2121" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2121" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2121">
+        <v>130393</v>
+      </c>
+      <c r="M2121">
+        <v>8.5531799999999993</v>
+      </c>
+      <c r="N2121">
+        <v>49.086100000000002</v>
+      </c>
+    </row>
+    <row r="2122" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2122">
         <v>3809</v>
       </c>
@@ -67501,8 +69257,26 @@
       <c r="G2122" t="s">
         <v>1852</v>
       </c>
-    </row>
-    <row r="2123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2122" t="s">
+        <v>4001</v>
+      </c>
+      <c r="J2122" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2122" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2122">
+        <v>130393</v>
+      </c>
+      <c r="M2122">
+        <v>8.5531799999999993</v>
+      </c>
+      <c r="N2122">
+        <v>49.086100000000002</v>
+      </c>
+    </row>
+    <row r="2123" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2123">
         <v>3810</v>
       </c>
@@ -67524,8 +69298,26 @@
       <c r="G2123" t="s">
         <v>1853</v>
       </c>
-    </row>
-    <row r="2124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2123" t="s">
+        <v>4001</v>
+      </c>
+      <c r="J2123" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2123" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2123">
+        <v>130393</v>
+      </c>
+      <c r="M2123">
+        <v>8.5531799999999993</v>
+      </c>
+      <c r="N2123">
+        <v>49.086100000000002</v>
+      </c>
+    </row>
+    <row r="2124" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2124">
         <v>3811</v>
       </c>
@@ -67547,8 +69339,26 @@
       <c r="G2124" t="s">
         <v>1854</v>
       </c>
-    </row>
-    <row r="2125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2124" t="s">
+        <v>4002</v>
+      </c>
+      <c r="J2124" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2124" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2124">
+        <v>130318</v>
+      </c>
+      <c r="M2124">
+        <v>8.6321999999999992</v>
+      </c>
+      <c r="N2124">
+        <v>49.161810000000003</v>
+      </c>
+    </row>
+    <row r="2125" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2125">
         <v>3812</v>
       </c>
@@ -67570,8 +69380,26 @@
       <c r="G2125" t="s">
         <v>1855</v>
       </c>
-    </row>
-    <row r="2126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2125" t="s">
+        <v>4006</v>
+      </c>
+      <c r="J2125" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2125" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2125">
+        <v>133790</v>
+      </c>
+      <c r="M2125">
+        <v>8.6659500000000005</v>
+      </c>
+      <c r="N2125">
+        <v>49.14423</v>
+      </c>
+    </row>
+    <row r="2126" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2126">
         <v>3813</v>
       </c>
@@ -67593,8 +69421,26 @@
       <c r="G2126" t="s">
         <v>1856</v>
       </c>
-    </row>
-    <row r="2127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2126" t="s">
+        <v>4003</v>
+      </c>
+      <c r="J2126" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2126" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2126">
+        <v>132233</v>
+      </c>
+      <c r="M2126">
+        <v>8.6454199999999997</v>
+      </c>
+      <c r="N2126">
+        <v>49.101140000000001</v>
+      </c>
+    </row>
+    <row r="2127" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2127">
         <v>3814</v>
       </c>
@@ -67616,8 +69462,26 @@
       <c r="G2127" t="s">
         <v>1857</v>
       </c>
-    </row>
-    <row r="2128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2127" t="s">
+        <v>4004</v>
+      </c>
+      <c r="J2127" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2127" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2127">
+        <v>134009</v>
+      </c>
+      <c r="M2127">
+        <v>8.6422899999999991</v>
+      </c>
+      <c r="N2127">
+        <v>49.085090000000001</v>
+      </c>
+    </row>
+    <row r="2128" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2128">
         <v>3815</v>
       </c>
@@ -67639,8 +69503,26 @@
       <c r="G2128" t="s">
         <v>1858</v>
       </c>
-    </row>
-    <row r="2129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2128" t="s">
+        <v>4005</v>
+      </c>
+      <c r="J2128" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2128" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2128">
+        <v>129412</v>
+      </c>
+      <c r="M2128">
+        <v>8.6890999999999998</v>
+      </c>
+      <c r="N2128">
+        <v>49.145319999999998</v>
+      </c>
+    </row>
+    <row r="2129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2129">
         <v>3816</v>
       </c>
@@ -67662,8 +69544,26 @@
       <c r="G2129" t="s">
         <v>1859</v>
       </c>
-    </row>
-    <row r="2130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2129" t="s">
+        <v>4007</v>
+      </c>
+      <c r="J2129" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2129" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2129">
+        <v>127625</v>
+      </c>
+      <c r="M2129">
+        <v>8.7157900000000001</v>
+      </c>
+      <c r="N2129">
+        <v>49.122459999999997</v>
+      </c>
+    </row>
+    <row r="2130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2130">
         <v>3817</v>
       </c>
@@ -67685,8 +69585,26 @@
       <c r="G2130" t="s">
         <v>1860</v>
       </c>
-    </row>
-    <row r="2131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2130" t="s">
+        <v>4008</v>
+      </c>
+      <c r="J2130" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2130" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2130">
+        <v>130365</v>
+      </c>
+      <c r="M2130">
+        <v>8.7139900000000008</v>
+      </c>
+      <c r="N2130">
+        <v>49.108699999999999</v>
+      </c>
+    </row>
+    <row r="2131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2131">
         <v>3818</v>
       </c>
@@ -67708,8 +69626,26 @@
       <c r="G2131" t="s">
         <v>1861</v>
       </c>
-    </row>
-    <row r="2132" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2131" t="s">
+        <v>4009</v>
+      </c>
+      <c r="J2131" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2131" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2131">
+        <v>133758</v>
+      </c>
+      <c r="M2131">
+        <v>8.7706700000000009</v>
+      </c>
+      <c r="N2131">
+        <v>49.139310000000002</v>
+      </c>
+    </row>
+    <row r="2132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2132">
         <v>3819</v>
       </c>
@@ -67731,8 +69667,26 @@
       <c r="G2132" t="s">
         <v>1862</v>
       </c>
-    </row>
-    <row r="2133" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2132" t="s">
+        <v>4010</v>
+      </c>
+      <c r="J2132" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2132" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2132">
+        <v>132619</v>
+      </c>
+      <c r="M2132">
+        <v>8.7455099999999995</v>
+      </c>
+      <c r="N2132">
+        <v>49.10407</v>
+      </c>
+    </row>
+    <row r="2133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2133">
         <v>3820</v>
       </c>
@@ -67754,8 +69708,26 @@
       <c r="G2133" t="s">
         <v>1863</v>
       </c>
-    </row>
-    <row r="2134" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2133" t="s">
+        <v>4011</v>
+      </c>
+      <c r="J2133" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2133" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2133">
+        <v>127753</v>
+      </c>
+      <c r="M2133">
+        <v>8.8062699999999996</v>
+      </c>
+      <c r="N2133">
+        <v>49.148989999999998</v>
+      </c>
+    </row>
+    <row r="2134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2134">
         <v>3821</v>
       </c>
@@ -67777,8 +69749,26 @@
       <c r="G2134" t="s">
         <v>1864</v>
       </c>
-    </row>
-    <row r="2135" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2134" t="s">
+        <v>4012</v>
+      </c>
+      <c r="J2134" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2134" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2134">
+        <v>129879</v>
+      </c>
+      <c r="M2134">
+        <v>8.7867099999999994</v>
+      </c>
+      <c r="N2134">
+        <v>49.118650000000002</v>
+      </c>
+    </row>
+    <row r="2135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2135">
         <v>3822</v>
       </c>
@@ -67800,8 +69790,26 @@
       <c r="G2135" t="s">
         <v>1865</v>
       </c>
-    </row>
-    <row r="2136" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2135" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J2135" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2135" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2135">
+        <v>134135</v>
+      </c>
+      <c r="M2135">
+        <v>8.7869399999999995</v>
+      </c>
+      <c r="N2135">
+        <v>49.0869</v>
+      </c>
+    </row>
+    <row r="2136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2136">
         <v>3823</v>
       </c>
@@ -67823,8 +69831,26 @@
       <c r="G2136" t="s">
         <v>1866</v>
       </c>
-    </row>
-    <row r="2137" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2136" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J2136" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2136" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2136">
+        <v>134135</v>
+      </c>
+      <c r="M2136">
+        <v>8.7869399999999995</v>
+      </c>
+      <c r="N2136">
+        <v>49.0869</v>
+      </c>
+    </row>
+    <row r="2137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2137">
         <v>3824</v>
       </c>
@@ -67846,8 +69872,26 @@
       <c r="G2137" t="s">
         <v>1867</v>
       </c>
-    </row>
-    <row r="2138" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2137" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J2137" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2137" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2137">
+        <v>134135</v>
+      </c>
+      <c r="M2137">
+        <v>8.7869399999999995</v>
+      </c>
+      <c r="N2137">
+        <v>49.0869</v>
+      </c>
+    </row>
+    <row r="2138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2138">
         <v>3825</v>
       </c>
@@ -67869,8 +69913,26 @@
       <c r="G2138" t="s">
         <v>1868</v>
       </c>
-    </row>
-    <row r="2139" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2138" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J2138" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2138" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2138">
+        <v>134135</v>
+      </c>
+      <c r="M2138">
+        <v>8.7869399999999995</v>
+      </c>
+      <c r="N2138">
+        <v>49.0869</v>
+      </c>
+    </row>
+    <row r="2139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2139">
         <v>3826</v>
       </c>
@@ -67892,8 +69954,26 @@
       <c r="G2139" t="s">
         <v>1869</v>
       </c>
-    </row>
-    <row r="2140" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2139" t="s">
+        <v>4013</v>
+      </c>
+      <c r="J2139" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2139" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2139">
+        <v>134135</v>
+      </c>
+      <c r="M2139">
+        <v>8.7869399999999995</v>
+      </c>
+      <c r="N2139">
+        <v>49.0869</v>
+      </c>
+    </row>
+    <row r="2140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2140">
         <v>3827</v>
       </c>
@@ -67915,8 +69995,26 @@
       <c r="G2140" t="s">
         <v>1870</v>
       </c>
-    </row>
-    <row r="2141" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2140" t="s">
+        <v>4014</v>
+      </c>
+      <c r="J2140" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2140" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2140">
+        <v>131359</v>
+      </c>
+      <c r="M2140">
+        <v>8.8171199999999992</v>
+      </c>
+      <c r="N2140">
+        <v>49.10745</v>
+      </c>
+    </row>
+    <row r="2141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2141">
         <v>3828</v>
       </c>
@@ -67938,8 +70036,32 @@
       <c r="G2141" t="s">
         <v>1871</v>
       </c>
-    </row>
-    <row r="2142" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2141" s="24" t="s">
+        <v>4015</v>
+      </c>
+      <c r="I2141" t="s">
+        <v>4016</v>
+      </c>
+      <c r="J2141" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2141" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2141">
+        <v>130370</v>
+      </c>
+      <c r="M2141">
+        <v>8.8564900000000009</v>
+      </c>
+      <c r="N2141">
+        <v>49.140549999999998</v>
+      </c>
+      <c r="O2141" s="24" t="s">
+        <v>4017</v>
+      </c>
+    </row>
+    <row r="2142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2142">
         <v>3829</v>
       </c>
@@ -67961,8 +70083,26 @@
       <c r="G2142" t="s">
         <v>1872</v>
       </c>
-    </row>
-    <row r="2143" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2142" t="s">
+        <v>4018</v>
+      </c>
+      <c r="J2142" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2142" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2142">
+        <v>132472</v>
+      </c>
+      <c r="M2142">
+        <v>8.8567099999999996</v>
+      </c>
+      <c r="N2142">
+        <v>49.103360000000002</v>
+      </c>
+    </row>
+    <row r="2143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2143">
         <v>3830</v>
       </c>
@@ -67984,8 +70124,26 @@
       <c r="G2143" t="s">
         <v>1873</v>
       </c>
-    </row>
-    <row r="2144" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2143" t="s">
+        <v>4018</v>
+      </c>
+      <c r="J2143" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2143" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2143">
+        <v>132472</v>
+      </c>
+      <c r="M2143">
+        <v>8.8567099999999996</v>
+      </c>
+      <c r="N2143">
+        <v>49.103360000000002</v>
+      </c>
+    </row>
+    <row r="2144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2144">
         <v>3831</v>
       </c>
@@ -68007,8 +70165,26 @@
       <c r="G2144" t="s">
         <v>1874</v>
       </c>
-    </row>
-    <row r="2145" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2144" t="s">
+        <v>4018</v>
+      </c>
+      <c r="J2144" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2144" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2144">
+        <v>132472</v>
+      </c>
+      <c r="M2144">
+        <v>8.8567099999999996</v>
+      </c>
+      <c r="N2144">
+        <v>49.103360000000002</v>
+      </c>
+    </row>
+    <row r="2145" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2145">
         <v>3832</v>
       </c>
@@ -68030,8 +70206,26 @@
       <c r="G2145" t="s">
         <v>1875</v>
       </c>
-    </row>
-    <row r="2146" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2145" t="s">
+        <v>4018</v>
+      </c>
+      <c r="J2145" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2145" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2145">
+        <v>132472</v>
+      </c>
+      <c r="M2145">
+        <v>8.8567099999999996</v>
+      </c>
+      <c r="N2145">
+        <v>49.103360000000002</v>
+      </c>
+    </row>
+    <row r="2146" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2146">
         <v>3833</v>
       </c>
@@ -68054,7 +70248,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="2147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2147" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2147">
         <v>3834</v>
       </c>
@@ -68076,8 +70270,26 @@
       <c r="G2147" t="s">
         <v>1877</v>
       </c>
-    </row>
-    <row r="2148" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2147" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J2147" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2147" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2147">
+        <v>129709</v>
+      </c>
+      <c r="M2147">
+        <v>8.9098000000000006</v>
+      </c>
+      <c r="N2147">
+        <v>49.137039999999999</v>
+      </c>
+    </row>
+    <row r="2148" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2148">
         <v>3835</v>
       </c>
@@ -68099,8 +70311,26 @@
       <c r="G2148" t="s">
         <v>1878</v>
       </c>
-    </row>
-    <row r="2149" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2148" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J2148" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2148" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2148">
+        <v>129709</v>
+      </c>
+      <c r="M2148">
+        <v>8.9098000000000006</v>
+      </c>
+      <c r="N2148">
+        <v>49.137039999999999</v>
+      </c>
+    </row>
+    <row r="2149" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2149">
         <v>3836</v>
       </c>
@@ -68122,8 +70352,26 @@
       <c r="G2149" t="s">
         <v>1879</v>
       </c>
-    </row>
-    <row r="2150" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2149" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J2149" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2149" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2149">
+        <v>129709</v>
+      </c>
+      <c r="M2149">
+        <v>8.9098000000000006</v>
+      </c>
+      <c r="N2149">
+        <v>49.137039999999999</v>
+      </c>
+    </row>
+    <row r="2150" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2150">
         <v>3837</v>
       </c>
@@ -68145,8 +70393,26 @@
       <c r="G2150" t="s">
         <v>1880</v>
       </c>
-    </row>
-    <row r="2151" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2150" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J2150" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2150" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2150">
+        <v>129709</v>
+      </c>
+      <c r="M2150">
+        <v>8.9098000000000006</v>
+      </c>
+      <c r="N2150">
+        <v>49.137039999999999</v>
+      </c>
+    </row>
+    <row r="2151" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2151">
         <v>3838</v>
       </c>
@@ -68168,8 +70434,26 @@
       <c r="G2151" t="s">
         <v>1881</v>
       </c>
-    </row>
-    <row r="2152" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2151" t="s">
+        <v>4019</v>
+      </c>
+      <c r="J2151" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2151" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2151">
+        <v>129709</v>
+      </c>
+      <c r="M2151">
+        <v>8.9098000000000006</v>
+      </c>
+      <c r="N2151">
+        <v>49.137039999999999</v>
+      </c>
+    </row>
+    <row r="2152" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2152">
         <v>3839</v>
       </c>
@@ -68191,8 +70475,29 @@
       <c r="G2152" t="s">
         <v>1882</v>
       </c>
-    </row>
-    <row r="2153" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2152" t="s">
+        <v>4020</v>
+      </c>
+      <c r="I2152" t="s">
+        <v>4021</v>
+      </c>
+      <c r="J2152" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2152" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2152">
+        <v>131189</v>
+      </c>
+      <c r="M2152">
+        <v>8.9030100000000001</v>
+      </c>
+      <c r="N2152">
+        <v>49.097029999999997</v>
+      </c>
+    </row>
+    <row r="2153" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2153">
         <v>3840</v>
       </c>
@@ -68214,8 +70519,26 @@
       <c r="G2153" t="s">
         <v>1883</v>
       </c>
-    </row>
-    <row r="2154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2153" t="s">
+        <v>4022</v>
+      </c>
+      <c r="J2153" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2153" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2153">
+        <v>133272</v>
+      </c>
+      <c r="M2153">
+        <v>8.9835799999999999</v>
+      </c>
+      <c r="N2153">
+        <v>49.156329999999997</v>
+      </c>
+    </row>
+    <row r="2154" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2154">
         <v>3841</v>
       </c>
@@ -68237,8 +70560,26 @@
       <c r="G2154" t="s">
         <v>1884</v>
       </c>
-    </row>
-    <row r="2155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2154" t="s">
+        <v>4022</v>
+      </c>
+      <c r="J2154" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2154" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2154">
+        <v>133272</v>
+      </c>
+      <c r="M2154">
+        <v>8.9835799999999999</v>
+      </c>
+      <c r="N2154">
+        <v>49.156329999999997</v>
+      </c>
+    </row>
+    <row r="2155" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2155">
         <v>3842</v>
       </c>
@@ -68260,8 +70601,26 @@
       <c r="G2155" t="s">
         <v>1885</v>
       </c>
-    </row>
-    <row r="2156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2155" t="s">
+        <v>4022</v>
+      </c>
+      <c r="J2155" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2155" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2155">
+        <v>133272</v>
+      </c>
+      <c r="M2155">
+        <v>8.9835799999999999</v>
+      </c>
+      <c r="N2155">
+        <v>49.156329999999997</v>
+      </c>
+    </row>
+    <row r="2156" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2156">
         <v>3843</v>
       </c>
@@ -68283,8 +70642,26 @@
       <c r="G2156" t="s">
         <v>1886</v>
       </c>
-    </row>
-    <row r="2157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2156" t="s">
+        <v>4022</v>
+      </c>
+      <c r="J2156" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2156" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2156">
+        <v>133272</v>
+      </c>
+      <c r="M2156">
+        <v>8.9835799999999999</v>
+      </c>
+      <c r="N2156">
+        <v>49.156329999999997</v>
+      </c>
+    </row>
+    <row r="2157" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2157">
         <v>3844</v>
       </c>
@@ -68306,8 +70683,26 @@
       <c r="G2157" t="s">
         <v>1887</v>
       </c>
-    </row>
-    <row r="2158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2157" t="s">
+        <v>4023</v>
+      </c>
+      <c r="J2157" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2157" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2157">
+        <v>130014</v>
+      </c>
+      <c r="M2157">
+        <v>8.96448</v>
+      </c>
+      <c r="N2157">
+        <v>49.14676</v>
+      </c>
+    </row>
+    <row r="2158" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2158">
         <v>3845</v>
       </c>
@@ -68330,7 +70725,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="2159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2159" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2159">
         <v>3846</v>
       </c>
@@ -68353,7 +70748,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="2160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2160" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2160">
         <v>3847</v>
       </c>
@@ -68376,7 +70771,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="2161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2161">
         <v>3848</v>
       </c>
@@ -68399,7 +70794,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="2162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2162">
         <v>3849</v>
       </c>
@@ -68422,7 +70817,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="2163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2163">
         <v>3850</v>
       </c>
@@ -68445,7 +70840,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="2164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2164">
         <v>3851</v>
       </c>
@@ -68468,7 +70863,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="2165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2165">
         <v>3852</v>
       </c>
@@ -68491,7 +70886,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="2166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2166">
         <v>3853</v>
       </c>
@@ -68513,8 +70908,26 @@
       <c r="G2166" t="s">
         <v>1896</v>
       </c>
-    </row>
-    <row r="2167" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2166" t="s">
+        <v>4024</v>
+      </c>
+      <c r="J2166" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2166" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2166">
+        <v>131674</v>
+      </c>
+      <c r="M2166">
+        <v>9.1026000000000007</v>
+      </c>
+      <c r="N2166">
+        <v>49.148429999999998</v>
+      </c>
+    </row>
+    <row r="2167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2167">
         <v>3854</v>
       </c>
@@ -68537,7 +70950,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="2168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2168">
         <v>3855</v>
       </c>
@@ -68560,7 +70973,7 @@
         <v>1898</v>
       </c>
     </row>
-    <row r="2169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2169">
         <v>3856</v>
       </c>
@@ -68583,7 +70996,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="2170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2170">
         <v>3857</v>
       </c>
@@ -68606,7 +71019,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="2171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2171">
         <v>3858</v>
       </c>
@@ -68629,7 +71042,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="2172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2172">
         <v>3859</v>
       </c>
@@ -68652,7 +71065,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="2173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2173">
         <v>3860</v>
       </c>
@@ -68675,7 +71088,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="2174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2174">
         <v>3949</v>
       </c>
@@ -68697,8 +71110,26 @@
       <c r="G2174" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="2175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2174" t="s">
+        <v>4025</v>
+      </c>
+      <c r="J2174" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2174" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2174" t="s">
+        <v>4026</v>
+      </c>
+      <c r="M2174">
+        <v>8.3790200000000006</v>
+      </c>
+      <c r="N2174">
+        <v>49.052669999999999</v>
+      </c>
+    </row>
+    <row r="2175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2175">
         <v>3950</v>
       </c>
@@ -68720,8 +71151,26 @@
       <c r="G2175" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="2176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2175" t="s">
+        <v>3989</v>
+      </c>
+      <c r="J2175" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2175" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2175">
+        <v>128594</v>
+      </c>
+      <c r="M2175">
+        <v>8.4091900000000006</v>
+      </c>
+      <c r="N2175">
+        <v>49.010379999999998</v>
+      </c>
+    </row>
+    <row r="2176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2176">
         <v>3951</v>
       </c>
@@ -68743,8 +71192,29 @@
       <c r="G2176" t="s">
         <v>1907</v>
       </c>
-    </row>
-    <row r="2177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2176" s="24" t="s">
+        <v>4027</v>
+      </c>
+      <c r="J2176" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2176" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2176">
+        <v>128878</v>
+      </c>
+      <c r="M2176">
+        <v>8.4060000000000006</v>
+      </c>
+      <c r="N2176">
+        <v>48.973939999999999</v>
+      </c>
+      <c r="O2176" t="s">
+        <v>4048</v>
+      </c>
+    </row>
+    <row r="2177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2177">
         <v>3952</v>
       </c>
@@ -68766,8 +71236,26 @@
       <c r="G2177" t="s">
         <v>1908</v>
       </c>
-    </row>
-    <row r="2178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2177" t="s">
+        <v>4028</v>
+      </c>
+      <c r="J2177" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2177" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2177">
+        <v>544410</v>
+      </c>
+      <c r="M2177">
+        <v>8.4507100000000008</v>
+      </c>
+      <c r="N2177">
+        <v>49.009900000000002</v>
+      </c>
+    </row>
+    <row r="2178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2178">
         <v>3953</v>
       </c>
@@ -68789,8 +71277,17 @@
       <c r="G2178" t="s">
         <v>1909</v>
       </c>
-    </row>
-    <row r="2179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2178" s="24" t="s">
+        <v>4029</v>
+      </c>
+      <c r="J2178" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2178" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="2179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2179">
         <v>3954</v>
       </c>
@@ -68812,8 +71309,29 @@
       <c r="G2179" t="s">
         <v>1910</v>
       </c>
-    </row>
-    <row r="2180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2179" s="24" t="s">
+        <v>4030</v>
+      </c>
+      <c r="J2179" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2179" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2179">
+        <v>127728</v>
+      </c>
+      <c r="M2179">
+        <v>8.4713700000000003</v>
+      </c>
+      <c r="N2179">
+        <v>49.064819999999997</v>
+      </c>
+      <c r="O2179" t="s">
+        <v>4031</v>
+      </c>
+    </row>
+    <row r="2180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2180">
         <v>3955</v>
       </c>
@@ -68835,8 +71353,26 @@
       <c r="G2180" t="s">
         <v>1911</v>
       </c>
-    </row>
-    <row r="2181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2180" t="s">
+        <v>4032</v>
+      </c>
+      <c r="J2180" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2180" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2180">
+        <v>128704</v>
+      </c>
+      <c r="M2180">
+        <v>8.4551400000000001</v>
+      </c>
+      <c r="N2180">
+        <v>49.027729999999998</v>
+      </c>
+    </row>
+    <row r="2181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2181">
         <v>3956</v>
       </c>
@@ -68858,8 +71394,29 @@
       <c r="G2181" t="s">
         <v>1912</v>
       </c>
-    </row>
-    <row r="2182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2181" s="24" t="s">
+        <v>4049</v>
+      </c>
+      <c r="J2181" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2181" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2181">
+        <v>132760</v>
+      </c>
+      <c r="M2181">
+        <v>8.4703999999999997</v>
+      </c>
+      <c r="N2181">
+        <v>48.99897</v>
+      </c>
+      <c r="O2181" t="s">
+        <v>4050</v>
+      </c>
+    </row>
+    <row r="2182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2182">
         <v>3957</v>
       </c>
@@ -68881,8 +71438,26 @@
       <c r="G2182" t="s">
         <v>1913</v>
       </c>
-    </row>
-    <row r="2183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2182" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J2182" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2182" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2182">
+        <v>129723</v>
+      </c>
+      <c r="M2182">
+        <v>8.5311400000000006</v>
+      </c>
+      <c r="N2182">
+        <v>49.0533</v>
+      </c>
+    </row>
+    <row r="2183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2183">
         <v>3958</v>
       </c>
@@ -68904,8 +71479,26 @@
       <c r="G2183" t="s">
         <v>1914</v>
       </c>
-    </row>
-    <row r="2184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2183" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J2183" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2183" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2183">
+        <v>129723</v>
+      </c>
+      <c r="M2183">
+        <v>8.5311400000000006</v>
+      </c>
+      <c r="N2183">
+        <v>49.0533</v>
+      </c>
+    </row>
+    <row r="2184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2184">
         <v>3959</v>
       </c>
@@ -68927,8 +71520,26 @@
       <c r="G2184" t="s">
         <v>1915</v>
       </c>
-    </row>
-    <row r="2185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2184" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J2184" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2184" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2184">
+        <v>129723</v>
+      </c>
+      <c r="M2184">
+        <v>8.5311400000000006</v>
+      </c>
+      <c r="N2184">
+        <v>49.0533</v>
+      </c>
+    </row>
+    <row r="2185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2185">
         <v>3960</v>
       </c>
@@ -68950,8 +71561,26 @@
       <c r="G2185" t="s">
         <v>1916</v>
       </c>
-    </row>
-    <row r="2186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2185" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J2185" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2185" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2185">
+        <v>129723</v>
+      </c>
+      <c r="M2185">
+        <v>8.5311400000000006</v>
+      </c>
+      <c r="N2185">
+        <v>49.0533</v>
+      </c>
+    </row>
+    <row r="2186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2186">
         <v>3961</v>
       </c>
@@ -68973,8 +71602,26 @@
       <c r="G2186" t="s">
         <v>1917</v>
       </c>
-    </row>
-    <row r="2187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2186" t="s">
+        <v>4033</v>
+      </c>
+      <c r="J2186" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2186" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2186">
+        <v>129723</v>
+      </c>
+      <c r="M2186">
+        <v>8.5311400000000006</v>
+      </c>
+      <c r="N2186">
+        <v>49.0533</v>
+      </c>
+    </row>
+    <row r="2187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2187">
         <v>3962</v>
       </c>
@@ -68996,8 +71643,26 @@
       <c r="G2187" t="s">
         <v>1918</v>
       </c>
-    </row>
-    <row r="2188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2187" t="s">
+        <v>4034</v>
+      </c>
+      <c r="J2187" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2187" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2187">
+        <v>132448</v>
+      </c>
+      <c r="M2187">
+        <v>8.52712</v>
+      </c>
+      <c r="N2187">
+        <v>49.003889999999998</v>
+      </c>
+    </row>
+    <row r="2188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2188">
         <v>3963</v>
       </c>
@@ -69019,8 +71684,26 @@
       <c r="G2188" t="s">
         <v>1919</v>
       </c>
-    </row>
-    <row r="2189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2188" t="s">
+        <v>4034</v>
+      </c>
+      <c r="J2188" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2188" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2188">
+        <v>132448</v>
+      </c>
+      <c r="M2188">
+        <v>8.52712</v>
+      </c>
+      <c r="N2188">
+        <v>49.003889999999998</v>
+      </c>
+    </row>
+    <row r="2189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2189">
         <v>3964</v>
       </c>
@@ -69042,8 +71725,26 @@
       <c r="G2189" t="s">
         <v>1920</v>
       </c>
-    </row>
-    <row r="2190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2189" t="s">
+        <v>4035</v>
+      </c>
+      <c r="J2189" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2189" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2189">
+        <v>128633</v>
+      </c>
+      <c r="M2189">
+        <v>8.5854199999999992</v>
+      </c>
+      <c r="N2189">
+        <v>49.077089999999998</v>
+      </c>
+    </row>
+    <row r="2190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2190">
         <v>3965</v>
       </c>
@@ -69065,8 +71766,26 @@
       <c r="G2190" t="s">
         <v>1921</v>
       </c>
-    </row>
-    <row r="2191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2190" t="s">
+        <v>4036</v>
+      </c>
+      <c r="J2190" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2190" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2190">
+        <v>127448</v>
+      </c>
+      <c r="M2190">
+        <v>8.6114200000000007</v>
+      </c>
+      <c r="N2190">
+        <v>49.010170000000002</v>
+      </c>
+    </row>
+    <row r="2191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2191">
         <v>3966</v>
       </c>
@@ -69088,8 +71807,26 @@
       <c r="G2191" t="s">
         <v>1922</v>
       </c>
-    </row>
-    <row r="2192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2191" t="s">
+        <v>4037</v>
+      </c>
+      <c r="J2191" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2191" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2191">
+        <v>131060</v>
+      </c>
+      <c r="M2191">
+        <v>8.6474700000000002</v>
+      </c>
+      <c r="N2191">
+        <v>49.0227</v>
+      </c>
+    </row>
+    <row r="2192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2192">
         <v>3967</v>
       </c>
@@ -69111,8 +71848,26 @@
       <c r="G2192" t="s">
         <v>1923</v>
       </c>
-    </row>
-    <row r="2193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2192" t="s">
+        <v>4038</v>
+      </c>
+      <c r="J2192" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2192" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2192">
+        <v>132056</v>
+      </c>
+      <c r="M2192">
+        <v>8.6558399999999995</v>
+      </c>
+      <c r="N2192">
+        <v>49.059600000000003</v>
+      </c>
+    </row>
+    <row r="2193" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2193">
         <v>3968</v>
       </c>
@@ -69134,8 +71889,26 @@
       <c r="G2193" t="s">
         <v>1924</v>
       </c>
-    </row>
-    <row r="2194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2193" t="s">
+        <v>4039</v>
+      </c>
+      <c r="J2193" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2193" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2193">
+        <v>130423</v>
+      </c>
+      <c r="M2193">
+        <v>8.4955599999999993</v>
+      </c>
+      <c r="N2193">
+        <v>49.007109999999997</v>
+      </c>
+    </row>
+    <row r="2194" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2194">
         <v>3969</v>
       </c>
@@ -69158,7 +71931,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="2195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2195" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2195">
         <v>3970</v>
       </c>
@@ -69180,8 +71953,26 @@
       <c r="G2195" t="s">
         <v>1926</v>
       </c>
-    </row>
-    <row r="2196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2195" t="s">
+        <v>4040</v>
+      </c>
+      <c r="J2195" t="s">
+        <v>3996</v>
+      </c>
+      <c r="K2195" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2195">
+        <v>133841</v>
+      </c>
+      <c r="M2195">
+        <v>8.6850900000000006</v>
+      </c>
+      <c r="N2195">
+        <v>49.071040000000004</v>
+      </c>
+    </row>
+    <row r="2196" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2196">
         <v>3971</v>
       </c>
@@ -69203,8 +71994,26 @@
       <c r="G2196" t="s">
         <v>1927</v>
       </c>
-    </row>
-    <row r="2197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2196" t="s">
+        <v>4041</v>
+      </c>
+      <c r="J2196" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2196" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2196">
+        <v>131816</v>
+      </c>
+      <c r="M2196">
+        <v>8.6784800000000004</v>
+      </c>
+      <c r="N2196">
+        <v>49.041089999999997</v>
+      </c>
+    </row>
+    <row r="2197" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2197">
         <v>3972</v>
       </c>
@@ -69226,8 +72035,26 @@
       <c r="G2197" t="s">
         <v>1928</v>
       </c>
-    </row>
-    <row r="2198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2197" t="s">
+        <v>4042</v>
+      </c>
+      <c r="J2197" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2197" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2197">
+        <v>130524</v>
+      </c>
+      <c r="M2197">
+        <v>8.6831999999999994</v>
+      </c>
+      <c r="N2197">
+        <v>49.034849999999999</v>
+      </c>
+    </row>
+    <row r="2198" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2198">
         <v>3973</v>
       </c>
@@ -69249,8 +72076,26 @@
       <c r="G2198" t="s">
         <v>1929</v>
       </c>
-    </row>
-    <row r="2199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2198" t="s">
+        <v>4043</v>
+      </c>
+      <c r="J2198" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2198" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2198">
+        <v>127648</v>
+      </c>
+      <c r="M2198">
+        <v>8.7065699999999993</v>
+      </c>
+      <c r="N2198">
+        <v>49.034559999999999</v>
+      </c>
+    </row>
+    <row r="2199" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2199">
         <v>3974</v>
       </c>
@@ -69272,8 +72117,26 @@
       <c r="G2199" t="s">
         <v>1930</v>
       </c>
-    </row>
-    <row r="2200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2199" t="s">
+        <v>4043</v>
+      </c>
+      <c r="J2199" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2199" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2199">
+        <v>127648</v>
+      </c>
+      <c r="M2199">
+        <v>8.7065699999999993</v>
+      </c>
+      <c r="N2199">
+        <v>49.034559999999999</v>
+      </c>
+    </row>
+    <row r="2200" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2200">
         <v>3975</v>
       </c>
@@ -69295,8 +72158,26 @@
       <c r="G2200" t="s">
         <v>1931</v>
       </c>
-    </row>
-    <row r="2201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2200" t="s">
+        <v>4043</v>
+      </c>
+      <c r="J2200" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2200" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2200">
+        <v>127648</v>
+      </c>
+      <c r="M2200">
+        <v>8.7065699999999993</v>
+      </c>
+      <c r="N2200">
+        <v>49.034559999999999</v>
+      </c>
+    </row>
+    <row r="2201" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2201">
         <v>3976</v>
       </c>
@@ -69319,7 +72200,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="2202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2202" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2202">
         <v>3977</v>
       </c>
@@ -69342,7 +72223,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="2203" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2203" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2203">
         <v>3978</v>
       </c>
@@ -69365,7 +72246,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="2204" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2204" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2204">
         <v>3979</v>
       </c>
@@ -69387,8 +72268,29 @@
       <c r="G2204" t="s">
         <v>1935</v>
       </c>
-    </row>
-    <row r="2205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2204" t="s">
+        <v>4044</v>
+      </c>
+      <c r="I2204" t="s">
+        <v>4045</v>
+      </c>
+      <c r="J2204" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2204" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2204">
+        <v>132322</v>
+      </c>
+      <c r="M2204">
+        <v>8.7098399999999998</v>
+      </c>
+      <c r="N2204">
+        <v>49.074199999999998</v>
+      </c>
+    </row>
+    <row r="2205" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2205">
         <v>3980</v>
       </c>
@@ -69411,7 +72313,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="2206" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2206" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2206">
         <v>3981</v>
       </c>
@@ -69433,8 +72335,26 @@
       <c r="G2206" t="s">
         <v>1937</v>
       </c>
-    </row>
-    <row r="2207" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2206" t="s">
+        <v>4046</v>
+      </c>
+      <c r="J2206" t="s">
+        <v>1667</v>
+      </c>
+      <c r="K2206" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2206">
+        <v>129667</v>
+      </c>
+      <c r="M2206">
+        <v>8.8427900000000008</v>
+      </c>
+      <c r="N2206">
+        <v>49.07732</v>
+      </c>
+    </row>
+    <row r="2207" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2207">
         <v>3982</v>
       </c>
@@ -69457,7 +72377,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="2208" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2208" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2208">
         <v>3983</v>
       </c>
@@ -69480,7 +72400,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="2209" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2209" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2209">
         <v>3984</v>
       </c>
@@ -69503,7 +72423,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="2210" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2210" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2210">
         <v>3985</v>
       </c>
@@ -69526,7 +72446,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="2211" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2211" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2211">
         <v>3986</v>
       </c>
@@ -69549,7 +72469,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="2212" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2212" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2212">
         <v>3987</v>
       </c>
@@ -69572,7 +72492,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="2213" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2213" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2213">
         <v>3988</v>
       </c>
@@ -69595,7 +72515,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="2214" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2214" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2214">
         <v>3989</v>
       </c>
@@ -69618,7 +72538,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="2215" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2215" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2215">
         <v>3990</v>
       </c>
@@ -69641,7 +72561,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="2216" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2216" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2216">
         <v>3991</v>
       </c>
@@ -69664,7 +72584,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="2217" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2217" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2217">
         <v>3992</v>
       </c>
@@ -69687,7 +72607,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="2218" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2218" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2218">
         <v>4076</v>
       </c>
@@ -69709,8 +72629,26 @@
       <c r="G2218" t="s">
         <v>1950</v>
       </c>
-    </row>
-    <row r="2219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2218" t="s">
+        <v>4047</v>
+      </c>
+      <c r="J2218" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2218" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2218">
+        <v>544501</v>
+      </c>
+      <c r="M2218">
+        <v>8.3824400000000008</v>
+      </c>
+      <c r="N2218">
+        <v>48.986800000000002</v>
+      </c>
+    </row>
+    <row r="2219" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2219">
         <v>4077</v>
       </c>
@@ -69732,8 +72670,26 @@
       <c r="G2219" t="s">
         <v>1951</v>
       </c>
-    </row>
-    <row r="2220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2219" t="s">
+        <v>4051</v>
+      </c>
+      <c r="J2219" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2219" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2219">
+        <v>133090</v>
+      </c>
+      <c r="M2219">
+        <v>8.3710000000000004</v>
+      </c>
+      <c r="N2219">
+        <v>48.927160000000001</v>
+      </c>
+    </row>
+    <row r="2220" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2220">
         <v>4078</v>
       </c>
@@ -69755,8 +72711,26 @@
       <c r="G2220" t="s">
         <v>1952</v>
       </c>
-    </row>
-    <row r="2221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2220" t="s">
+        <v>4052</v>
+      </c>
+      <c r="J2220" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2220" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2220">
+        <v>129278</v>
+      </c>
+      <c r="M2220">
+        <v>8.3858899999999998</v>
+      </c>
+      <c r="N2220">
+        <v>48.928870000000003</v>
+      </c>
+    </row>
+    <row r="2221" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2221">
         <v>4079</v>
       </c>
@@ -69778,8 +72752,26 @@
       <c r="G2221" t="s">
         <v>1953</v>
       </c>
-    </row>
-    <row r="2222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2221" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J2221" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2221" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2221" t="s">
+        <v>4054</v>
+      </c>
+      <c r="M2221">
+        <v>8.40245</v>
+      </c>
+      <c r="N2221">
+        <v>48.94247</v>
+      </c>
+    </row>
+    <row r="2222" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2222">
         <v>4080</v>
       </c>
@@ -69801,8 +72793,26 @@
       <c r="G2222" t="s">
         <v>1954</v>
       </c>
-    </row>
-    <row r="2223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2222" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J2222" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2222" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2222" t="s">
+        <v>4054</v>
+      </c>
+      <c r="M2222">
+        <v>8.40245</v>
+      </c>
+      <c r="N2222">
+        <v>48.94247</v>
+      </c>
+    </row>
+    <row r="2223" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2223">
         <v>4081</v>
       </c>
@@ -69824,8 +72834,26 @@
       <c r="G2223" t="s">
         <v>1955</v>
       </c>
-    </row>
-    <row r="2224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2223" t="s">
+        <v>4053</v>
+      </c>
+      <c r="J2223" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2223" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2223" t="s">
+        <v>4054</v>
+      </c>
+      <c r="M2223">
+        <v>8.40245</v>
+      </c>
+      <c r="N2223">
+        <v>48.94247</v>
+      </c>
+    </row>
+    <row r="2224" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2224">
         <v>4082</v>
       </c>
@@ -69847,8 +72875,26 @@
       <c r="G2224" t="s">
         <v>1956</v>
       </c>
-    </row>
-    <row r="2225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2224" t="s">
+        <v>4055</v>
+      </c>
+      <c r="J2224" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2224" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2224">
+        <v>133069</v>
+      </c>
+      <c r="M2224">
+        <v>8.4667100000000008</v>
+      </c>
+      <c r="N2224">
+        <v>48.957839999999997</v>
+      </c>
+    </row>
+    <row r="2225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2225">
         <v>4083</v>
       </c>
@@ -69870,8 +72916,26 @@
       <c r="G2225" t="s">
         <v>1957</v>
       </c>
-    </row>
-    <row r="2226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2225" t="s">
+        <v>4056</v>
+      </c>
+      <c r="J2225" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2225" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2225">
+        <v>131675</v>
+      </c>
+      <c r="M2225">
+        <v>8.4826599999999992</v>
+      </c>
+      <c r="N2225">
+        <v>48.946829999999999</v>
+      </c>
+    </row>
+    <row r="2226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2226">
         <v>4084</v>
       </c>
@@ -69893,8 +72957,29 @@
       <c r="G2226" t="s">
         <v>1958</v>
       </c>
-    </row>
-    <row r="2227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2226" t="s">
+        <v>4057</v>
+      </c>
+      <c r="I2226" t="s">
+        <v>4058</v>
+      </c>
+      <c r="J2226" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2226" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2226">
+        <v>127631</v>
+      </c>
+      <c r="M2226">
+        <v>8.47546</v>
+      </c>
+      <c r="N2226">
+        <v>48.923479999999998</v>
+      </c>
+    </row>
+    <row r="2227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2227">
         <v>4085</v>
       </c>
@@ -69916,8 +73001,26 @@
       <c r="G2227" t="s">
         <v>1959</v>
       </c>
-    </row>
-    <row r="2228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2227" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J2227" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2227" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2227">
+        <v>131761</v>
+      </c>
+      <c r="M2227">
+        <v>8.5425000000000004</v>
+      </c>
+      <c r="N2227">
+        <v>48.986220000000003</v>
+      </c>
+    </row>
+    <row r="2228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2228">
         <v>4086</v>
       </c>
@@ -69939,8 +73042,26 @@
       <c r="G2228" t="s">
         <v>1960</v>
       </c>
-    </row>
-    <row r="2229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2228" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J2228" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2228" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2228">
+        <v>131761</v>
+      </c>
+      <c r="M2228">
+        <v>8.5425000000000004</v>
+      </c>
+      <c r="N2228">
+        <v>48.986220000000003</v>
+      </c>
+    </row>
+    <row r="2229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2229">
         <v>4087</v>
       </c>
@@ -69962,8 +73083,26 @@
       <c r="G2229" t="s">
         <v>1961</v>
       </c>
-    </row>
-    <row r="2230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2229" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J2229" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2229" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2229">
+        <v>131761</v>
+      </c>
+      <c r="M2229">
+        <v>8.5425000000000004</v>
+      </c>
+      <c r="N2229">
+        <v>48.986220000000003</v>
+      </c>
+    </row>
+    <row r="2230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2230">
         <v>4088</v>
       </c>
@@ -69985,8 +73124,26 @@
       <c r="G2230" t="s">
         <v>1962</v>
       </c>
-    </row>
-    <row r="2231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2230" t="s">
+        <v>4059</v>
+      </c>
+      <c r="J2230" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2230" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2230">
+        <v>131761</v>
+      </c>
+      <c r="M2230">
+        <v>8.5425000000000004</v>
+      </c>
+      <c r="N2230">
+        <v>48.986220000000003</v>
+      </c>
+    </row>
+    <row r="2231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2231">
         <v>4089</v>
       </c>
@@ -70009,7 +73166,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="2232" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2232">
         <v>4090</v>
       </c>
@@ -70031,8 +73188,26 @@
       <c r="G2232" t="s">
         <v>1964</v>
       </c>
-    </row>
-    <row r="2233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2232" t="s">
+        <v>4060</v>
+      </c>
+      <c r="J2232" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2232" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2232">
+        <v>129882</v>
+      </c>
+      <c r="M2232">
+        <v>8.5342800000000008</v>
+      </c>
+      <c r="N2232">
+        <v>48.944090000000003</v>
+      </c>
+    </row>
+    <row r="2233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2233">
         <v>4091</v>
       </c>
@@ -70054,8 +73229,26 @@
       <c r="G2233" t="s">
         <v>1965</v>
       </c>
-    </row>
-    <row r="2234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2233" t="s">
+        <v>4061</v>
+      </c>
+      <c r="J2233" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2233" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2233">
+        <v>133322</v>
+      </c>
+      <c r="M2233">
+        <v>8.5680399999999999</v>
+      </c>
+      <c r="N2233">
+        <v>48.957639999999998</v>
+      </c>
+    </row>
+    <row r="2234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2234">
         <v>4092</v>
       </c>
@@ -70077,8 +73270,26 @@
       <c r="G2234" t="s">
         <v>1966</v>
       </c>
-    </row>
-    <row r="2235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2234" t="s">
+        <v>4063</v>
+      </c>
+      <c r="J2234" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2234" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2234">
+        <v>127330</v>
+      </c>
+      <c r="M2234">
+        <v>8.5728100000000005</v>
+      </c>
+      <c r="N2234">
+        <v>48.948700000000002</v>
+      </c>
+    </row>
+    <row r="2235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2235">
         <v>4093</v>
       </c>
@@ -70100,8 +73311,29 @@
       <c r="G2235" t="s">
         <v>1967</v>
       </c>
-    </row>
-    <row r="2236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2235" s="24" t="s">
+        <v>4064</v>
+      </c>
+      <c r="J2235" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2235" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2235" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M2235">
+        <v>8.6120699999999992</v>
+      </c>
+      <c r="N2235">
+        <v>48.965150000000001</v>
+      </c>
+      <c r="O2235" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2236">
         <v>4094</v>
       </c>
@@ -70123,8 +73355,29 @@
       <c r="G2236" t="s">
         <v>1968</v>
       </c>
-    </row>
-    <row r="2237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2236" s="24" t="s">
+        <v>4064</v>
+      </c>
+      <c r="J2236" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2236" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2236" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M2236">
+        <v>8.6120699999999992</v>
+      </c>
+      <c r="N2236">
+        <v>48.965150000000001</v>
+      </c>
+      <c r="O2236" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2237">
         <v>4095</v>
       </c>
@@ -70146,8 +73399,29 @@
       <c r="G2237" t="s">
         <v>1969</v>
       </c>
-    </row>
-    <row r="2238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2237" s="24" t="s">
+        <v>4064</v>
+      </c>
+      <c r="J2237" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2237" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2237" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M2237">
+        <v>8.6120699999999992</v>
+      </c>
+      <c r="N2237">
+        <v>48.965150000000001</v>
+      </c>
+      <c r="O2237" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2238">
         <v>4096</v>
       </c>
@@ -70169,8 +73443,29 @@
       <c r="G2238" t="s">
         <v>1970</v>
       </c>
-    </row>
-    <row r="2239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2238" s="24" t="s">
+        <v>4064</v>
+      </c>
+      <c r="J2238" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2238" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2238" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M2238">
+        <v>8.6120699999999992</v>
+      </c>
+      <c r="N2238">
+        <v>48.965150000000001</v>
+      </c>
+      <c r="O2238" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2239">
         <v>4097</v>
       </c>
@@ -70192,8 +73487,26 @@
       <c r="G2239" t="s">
         <v>1971</v>
       </c>
-    </row>
-    <row r="2240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2239" t="s">
+        <v>4066</v>
+      </c>
+      <c r="J2239" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2239" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2239">
+        <v>128140</v>
+      </c>
+      <c r="M2239">
+        <v>8.6199600000000007</v>
+      </c>
+      <c r="N2239">
+        <v>48.950270000000003</v>
+      </c>
+    </row>
+    <row r="2240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2240">
         <v>4098</v>
       </c>
@@ -70215,8 +73528,26 @@
       <c r="G2240" t="s">
         <v>1972</v>
       </c>
-    </row>
-    <row r="2241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2240" t="s">
+        <v>4067</v>
+      </c>
+      <c r="J2240" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2240" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2240">
+        <v>129584</v>
+      </c>
+      <c r="M2240">
+        <v>8.6349199999999993</v>
+      </c>
+      <c r="N2240">
+        <v>48.933239999999998</v>
+      </c>
+    </row>
+    <row r="2241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2241">
         <v>4099</v>
       </c>
@@ -70238,8 +73569,29 @@
       <c r="G2241" t="s">
         <v>1973</v>
       </c>
-    </row>
-    <row r="2242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2241" s="24" t="s">
+        <v>4068</v>
+      </c>
+      <c r="J2241" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2241" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2241" t="s">
+        <v>4065</v>
+      </c>
+      <c r="M2241">
+        <v>8.6120699999999992</v>
+      </c>
+      <c r="N2241">
+        <v>48.965150000000001</v>
+      </c>
+      <c r="O2241" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="2242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2242">
         <v>4100</v>
       </c>
@@ -70261,8 +73613,26 @@
       <c r="G2242" t="s">
         <v>1974</v>
       </c>
-    </row>
-    <row r="2243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2242" t="s">
+        <v>4070</v>
+      </c>
+      <c r="J2242" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2242" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2242">
+        <v>128481</v>
+      </c>
+      <c r="M2242">
+        <v>8.6686499999999995</v>
+      </c>
+      <c r="N2242">
+        <v>48.94773</v>
+      </c>
+    </row>
+    <row r="2243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2243">
         <v>4101</v>
       </c>
@@ -70285,7 +73655,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="2244" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2244">
         <v>4102</v>
       </c>
@@ -70308,7 +73678,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="2245" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2245">
         <v>4103</v>
       </c>
@@ -70330,8 +73700,26 @@
       <c r="G2245" t="s">
         <v>1977</v>
       </c>
-    </row>
-    <row r="2246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2245" t="s">
+        <v>4071</v>
+      </c>
+      <c r="J2245" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2245" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2245">
+        <v>131125</v>
+      </c>
+      <c r="M2245">
+        <v>8.6935300000000009</v>
+      </c>
+      <c r="N2245">
+        <v>48.98977</v>
+      </c>
+    </row>
+    <row r="2246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2246">
         <v>4104</v>
       </c>
@@ -70353,8 +73741,26 @@
       <c r="G2246" t="s">
         <v>1978</v>
       </c>
-    </row>
-    <row r="2247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2246" t="s">
+        <v>4072</v>
+      </c>
+      <c r="J2246" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2246" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2246">
+        <v>132956</v>
+      </c>
+      <c r="M2246">
+        <v>8.7084799999999998</v>
+      </c>
+      <c r="N2246">
+        <v>48.958080000000002</v>
+      </c>
+    </row>
+    <row r="2247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2247">
         <v>4105</v>
       </c>
@@ -70377,7 +73783,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="2248" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2248">
         <v>4106</v>
       </c>
@@ -70399,8 +73805,26 @@
       <c r="G2248" t="s">
         <v>1980</v>
       </c>
-    </row>
-    <row r="2249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2248" t="s">
+        <v>4073</v>
+      </c>
+      <c r="J2248" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2248" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2248">
+        <v>133206</v>
+      </c>
+      <c r="M2248">
+        <v>8.7278500000000001</v>
+      </c>
+      <c r="N2248">
+        <v>48.970509999999997</v>
+      </c>
+    </row>
+    <row r="2249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2249">
         <v>4107</v>
       </c>
@@ -70422,8 +73846,26 @@
       <c r="G2249" t="s">
         <v>1981</v>
       </c>
-    </row>
-    <row r="2250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2249" t="s">
+        <v>4073</v>
+      </c>
+      <c r="J2249" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2249" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2249">
+        <v>133206</v>
+      </c>
+      <c r="M2249">
+        <v>8.7278500000000001</v>
+      </c>
+      <c r="N2249">
+        <v>48.970509999999997</v>
+      </c>
+    </row>
+    <row r="2250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2250">
         <v>4108</v>
       </c>
@@ -70445,8 +73887,26 @@
       <c r="G2250" t="s">
         <v>1982</v>
       </c>
-    </row>
-    <row r="2251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2250" t="s">
+        <v>4074</v>
+      </c>
+      <c r="J2250" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2250" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2250">
+        <v>133306</v>
+      </c>
+      <c r="M2250">
+        <v>8.7561499999999999</v>
+      </c>
+      <c r="N2250">
+        <v>48.956530000000001</v>
+      </c>
+    </row>
+    <row r="2251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2251">
         <v>4109</v>
       </c>
@@ -70468,8 +73928,26 @@
       <c r="G2251" t="s">
         <v>1983</v>
       </c>
-    </row>
-    <row r="2252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2251" t="s">
+        <v>4075</v>
+      </c>
+      <c r="J2251" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2251" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2251">
+        <v>132736</v>
+      </c>
+      <c r="M2251">
+        <v>8.7528699999999997</v>
+      </c>
+      <c r="N2251">
+        <v>48.934530000000002</v>
+      </c>
+    </row>
+    <row r="2252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2252">
         <v>4110</v>
       </c>
@@ -70492,7 +73970,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="2253" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2253">
         <v>4111</v>
       </c>
@@ -70515,7 +73993,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="2254" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2254">
         <v>4112</v>
       </c>
@@ -70538,7 +74016,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="2255" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2255">
         <v>4113</v>
       </c>
@@ -70561,7 +74039,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="2256" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2256">
         <v>4114</v>
       </c>
@@ -70584,7 +74062,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="2257" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2257" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2257">
         <v>4220</v>
       </c>
@@ -70607,7 +74085,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="2258" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2258" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2258">
         <v>4221</v>
       </c>
@@ -70630,7 +74108,7 @@
         <v>1991</v>
       </c>
     </row>
-    <row r="2259" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2259" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2259">
         <v>4222</v>
       </c>
@@ -70652,8 +74130,26 @@
       <c r="G2259" t="s">
         <v>1992</v>
       </c>
-    </row>
-    <row r="2260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2259" t="s">
+        <v>4076</v>
+      </c>
+      <c r="J2259" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2259" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2259">
+        <v>133030</v>
+      </c>
+      <c r="M2259">
+        <v>8.4646500000000007</v>
+      </c>
+      <c r="N2259">
+        <v>48.909680000000002</v>
+      </c>
+    </row>
+    <row r="2260" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2260">
         <v>4223</v>
       </c>
@@ -70675,8 +74171,26 @@
       <c r="G2260" t="s">
         <v>1993</v>
       </c>
-    </row>
-    <row r="2261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2260" t="s">
+        <v>4076</v>
+      </c>
+      <c r="J2260" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2260" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2260">
+        <v>133030</v>
+      </c>
+      <c r="M2260">
+        <v>8.4646500000000007</v>
+      </c>
+      <c r="N2260">
+        <v>48.909680000000002</v>
+      </c>
+    </row>
+    <row r="2261" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2261">
         <v>4224</v>
       </c>
@@ -70699,7 +74213,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="2262" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2262" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2262">
         <v>4225</v>
       </c>
@@ -70721,8 +74235,26 @@
       <c r="G2262" t="s">
         <v>1995</v>
       </c>
-    </row>
-    <row r="2263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2262" t="s">
+        <v>4077</v>
+      </c>
+      <c r="J2262" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2262" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2262">
+        <v>129697</v>
+      </c>
+      <c r="M2262">
+        <v>8.3964400000000001</v>
+      </c>
+      <c r="N2262">
+        <v>48.870100000000001</v>
+      </c>
+    </row>
+    <row r="2263" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2263">
         <v>4226</v>
       </c>
@@ -70744,8 +74276,26 @@
       <c r="G2263" t="s">
         <v>1996</v>
       </c>
-    </row>
-    <row r="2264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2263" t="s">
+        <v>4078</v>
+      </c>
+      <c r="J2263" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2263" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2263">
+        <v>133659</v>
+      </c>
+      <c r="M2263">
+        <v>8.4002199999999991</v>
+      </c>
+      <c r="N2263">
+        <v>48.898850000000003</v>
+      </c>
+    </row>
+    <row r="2264" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2264">
         <v>4227</v>
       </c>
@@ -70767,8 +74317,26 @@
       <c r="G2264" t="s">
         <v>1997</v>
       </c>
-    </row>
-    <row r="2265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2264" t="s">
+        <v>4079</v>
+      </c>
+      <c r="J2264" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2264" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2264">
+        <v>132540</v>
+      </c>
+      <c r="M2264">
+        <v>8.5010399999999997</v>
+      </c>
+      <c r="N2264">
+        <v>48.84402</v>
+      </c>
+    </row>
+    <row r="2265" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2265">
         <v>4228</v>
       </c>
@@ -70790,8 +74358,26 @@
       <c r="G2265" t="s">
         <v>1998</v>
       </c>
-    </row>
-    <row r="2266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2265" t="s">
+        <v>4079</v>
+      </c>
+      <c r="J2265" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2265" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2265">
+        <v>132540</v>
+      </c>
+      <c r="M2265">
+        <v>8.5010399999999997</v>
+      </c>
+      <c r="N2265">
+        <v>48.84402</v>
+      </c>
+    </row>
+    <row r="2266" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2266">
         <v>4229</v>
       </c>
@@ -70813,8 +74399,26 @@
       <c r="G2266" t="s">
         <v>1999</v>
       </c>
-    </row>
-    <row r="2267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2266" t="s">
+        <v>4079</v>
+      </c>
+      <c r="J2266" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2266" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2266">
+        <v>132540</v>
+      </c>
+      <c r="M2266">
+        <v>8.5010399999999997</v>
+      </c>
+      <c r="N2266">
+        <v>48.84402</v>
+      </c>
+    </row>
+    <row r="2267" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2267">
         <v>4230</v>
       </c>
@@ -70836,8 +74440,26 @@
       <c r="G2267" t="s">
         <v>2000</v>
       </c>
-    </row>
-    <row r="2268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2267" t="s">
+        <v>4080</v>
+      </c>
+      <c r="J2267" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2267" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2267">
+        <v>134070</v>
+      </c>
+      <c r="M2267">
+        <v>8.4704499999999996</v>
+      </c>
+      <c r="N2267">
+        <v>48.897579999999998</v>
+      </c>
+    </row>
+    <row r="2268" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2268">
         <v>4231</v>
       </c>
@@ -70859,8 +74481,26 @@
       <c r="G2268" t="s">
         <v>2001</v>
       </c>
-    </row>
-    <row r="2269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2268" t="s">
+        <v>4081</v>
+      </c>
+      <c r="J2268" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2268" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2268">
+        <v>131236</v>
+      </c>
+      <c r="M2268">
+        <v>8.4385300000000001</v>
+      </c>
+      <c r="N2268">
+        <v>48.870370000000001</v>
+      </c>
+    </row>
+    <row r="2269" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2269">
         <v>4232</v>
       </c>
@@ -70882,8 +74522,26 @@
       <c r="G2269" t="s">
         <v>2002</v>
       </c>
-    </row>
-    <row r="2270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2269" t="s">
+        <v>4082</v>
+      </c>
+      <c r="J2269" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2269" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2269">
+        <v>132889</v>
+      </c>
+      <c r="M2269">
+        <v>8.4494500000000006</v>
+      </c>
+      <c r="N2269">
+        <v>48.843110000000003</v>
+      </c>
+    </row>
+    <row r="2270" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2270">
         <v>4233</v>
       </c>
@@ -70905,8 +74563,26 @@
       <c r="G2270" t="s">
         <v>2003</v>
       </c>
-    </row>
-    <row r="2271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2270" t="s">
+        <v>4083</v>
+      </c>
+      <c r="J2270" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2270" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2270">
+        <v>131705</v>
+      </c>
+      <c r="M2270">
+        <v>8.5316299999999998</v>
+      </c>
+      <c r="N2270">
+        <v>48.913789999999999</v>
+      </c>
+    </row>
+    <row r="2271" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2271">
         <v>4234</v>
       </c>
@@ -70928,8 +74604,26 @@
       <c r="G2271" t="s">
         <v>2004</v>
       </c>
-    </row>
-    <row r="2272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2271" t="s">
+        <v>4084</v>
+      </c>
+      <c r="J2271" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2271" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2271">
+        <v>133604</v>
+      </c>
+      <c r="M2271">
+        <v>8.60093</v>
+      </c>
+      <c r="N2271">
+        <v>48.896540000000002</v>
+      </c>
+    </row>
+    <row r="2272" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2272">
         <v>4235</v>
       </c>
@@ -70951,8 +74645,26 @@
       <c r="G2272" t="s">
         <v>2005</v>
       </c>
-    </row>
-    <row r="2273" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2272" t="s">
+        <v>1790</v>
+      </c>
+      <c r="J2272" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2272" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2272">
+        <v>129768</v>
+      </c>
+      <c r="M2272">
+        <v>8.5432600000000001</v>
+      </c>
+      <c r="N2272">
+        <v>48.883699999999997</v>
+      </c>
+    </row>
+    <row r="2273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2273">
         <v>4236</v>
       </c>
@@ -70975,7 +74687,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="2274" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2274">
         <v>4237</v>
       </c>
@@ -70998,7 +74710,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="2275" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2275">
         <v>4238</v>
       </c>
@@ -71021,7 +74733,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="2276" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2276">
         <v>4239</v>
       </c>
@@ -71044,7 +74756,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="2277" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2277">
         <v>4240</v>
       </c>
@@ -71066,8 +74778,26 @@
       <c r="G2277" t="s">
         <v>2010</v>
       </c>
-    </row>
-    <row r="2278" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2277" t="s">
+        <v>4085</v>
+      </c>
+      <c r="J2277" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2277" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2277">
+        <v>130404</v>
+      </c>
+      <c r="M2277">
+        <v>8.5761000000000003</v>
+      </c>
+      <c r="N2277">
+        <v>48.901310000000002</v>
+      </c>
+    </row>
+    <row r="2278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2278">
         <v>4241</v>
       </c>
@@ -71090,7 +74820,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="2279" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2279">
         <v>4242</v>
       </c>
@@ -71113,7 +74843,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="2280" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2280">
         <v>4243</v>
       </c>
@@ -71136,7 +74866,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="2281" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2281">
         <v>4244</v>
       </c>
@@ -71159,7 +74889,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="2282" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2282">
         <v>4245</v>
       </c>
@@ -71182,7 +74912,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2283" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2283">
         <v>4246</v>
       </c>
@@ -71205,7 +74935,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="2284" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2284">
         <v>4247</v>
       </c>
@@ -71227,8 +74957,26 @@
       <c r="G2284" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="2285" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2284" t="s">
+        <v>4086</v>
+      </c>
+      <c r="J2284" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2284" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2284">
+        <v>132379</v>
+      </c>
+      <c r="M2284">
+        <v>8.6633499999999994</v>
+      </c>
+      <c r="N2284">
+        <v>48.855580000000003</v>
+      </c>
+    </row>
+    <row r="2285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2285">
         <v>4248</v>
       </c>
@@ -71250,8 +74998,29 @@
       <c r="G2285" t="s">
         <v>2018</v>
       </c>
-    </row>
-    <row r="2286" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2285" s="24" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J2285" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2285" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2285">
+        <v>544496</v>
+      </c>
+      <c r="M2285">
+        <v>8.6679899999999996</v>
+      </c>
+      <c r="N2285">
+        <v>48.889000000000003</v>
+      </c>
+      <c r="O2285" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="2286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2286">
         <v>4249</v>
       </c>
@@ -71273,8 +75042,29 @@
       <c r="G2286" t="s">
         <v>2019</v>
       </c>
-    </row>
-    <row r="2287" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2286" s="24" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J2286" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2286" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2286">
+        <v>544496</v>
+      </c>
+      <c r="M2286">
+        <v>8.6679899999999996</v>
+      </c>
+      <c r="N2286">
+        <v>48.889000000000003</v>
+      </c>
+      <c r="O2286" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="2287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2287">
         <v>4250</v>
       </c>
@@ -71296,8 +75086,29 @@
       <c r="G2287" t="s">
         <v>2020</v>
       </c>
-    </row>
-    <row r="2288" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2287" s="24" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J2287" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2287" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2287">
+        <v>544496</v>
+      </c>
+      <c r="M2287">
+        <v>8.6679899999999996</v>
+      </c>
+      <c r="N2287">
+        <v>48.889000000000003</v>
+      </c>
+      <c r="O2287" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="2288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2288">
         <v>4251</v>
       </c>
@@ -71319,8 +75130,29 @@
       <c r="G2288" t="s">
         <v>2021</v>
       </c>
-    </row>
-    <row r="2289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2288" s="24" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J2288" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2288" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2288">
+        <v>544496</v>
+      </c>
+      <c r="M2288">
+        <v>8.6679899999999996</v>
+      </c>
+      <c r="N2288">
+        <v>48.889000000000003</v>
+      </c>
+      <c r="O2288" t="s">
+        <v>4088</v>
+      </c>
+    </row>
+    <row r="2289" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2289">
         <v>4252</v>
       </c>
@@ -71343,7 +75175,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2290" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2290" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2290">
         <v>4253</v>
       </c>
@@ -71366,7 +75198,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="2291" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2291" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2291">
         <v>4254</v>
       </c>
@@ -71388,8 +75220,26 @@
       <c r="G2291" t="s">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2291" t="s">
+        <v>4089</v>
+      </c>
+      <c r="J2291" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2291" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2291">
+        <v>132528</v>
+      </c>
+      <c r="M2291">
+        <v>8.8141499999999997</v>
+      </c>
+      <c r="N2291">
+        <v>48.905990000000003</v>
+      </c>
+    </row>
+    <row r="2292" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2292">
         <v>4255</v>
       </c>
@@ -71411,8 +75261,26 @@
       <c r="G2292" t="s">
         <v>2025</v>
       </c>
-    </row>
-    <row r="2293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2292" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2292" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2292" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2292" t="s">
+        <v>4090</v>
+      </c>
+      <c r="M2292">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2292">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2293" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2293">
         <v>4256</v>
       </c>
@@ -71434,8 +75302,26 @@
       <c r="G2293" t="s">
         <v>2026</v>
       </c>
-    </row>
-    <row r="2294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2293" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2293" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2293" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2293" t="s">
+        <v>4091</v>
+      </c>
+      <c r="M2293">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2293">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2294" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2294">
         <v>4257</v>
       </c>
@@ -71457,8 +75343,26 @@
       <c r="G2294" t="s">
         <v>2027</v>
       </c>
-    </row>
-    <row r="2295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2294" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2294" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2294" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2294" t="s">
+        <v>4092</v>
+      </c>
+      <c r="M2294">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2294">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2295" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2295">
         <v>4258</v>
       </c>
@@ -71480,8 +75384,26 @@
       <c r="G2295" t="s">
         <v>2028</v>
       </c>
-    </row>
-    <row r="2296" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2295" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2295" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2295" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2295" t="s">
+        <v>4093</v>
+      </c>
+      <c r="M2295">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2295">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2296" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2296">
         <v>4259</v>
       </c>
@@ -71503,8 +75425,26 @@
       <c r="G2296" t="s">
         <v>2029</v>
       </c>
-    </row>
-    <row r="2297" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2296" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2296" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2296" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2296" t="s">
+        <v>4094</v>
+      </c>
+      <c r="M2296">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2296">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2297" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2297">
         <v>4260</v>
       </c>
@@ -71526,8 +75466,26 @@
       <c r="G2297" t="s">
         <v>2030</v>
       </c>
-    </row>
-    <row r="2298" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2297" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2297" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2297" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2297" t="s">
+        <v>4095</v>
+      </c>
+      <c r="M2297">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2297">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2298" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2298">
         <v>4261</v>
       </c>
@@ -71549,8 +75507,26 @@
       <c r="G2298" t="s">
         <v>2031</v>
       </c>
-    </row>
-    <row r="2299" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2298" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2298" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2298" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2298" t="s">
+        <v>4096</v>
+      </c>
+      <c r="M2298">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2298">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2299" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2299">
         <v>4262</v>
       </c>
@@ -71572,8 +75548,26 @@
       <c r="G2299" t="s">
         <v>2032</v>
       </c>
-    </row>
-    <row r="2300" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2299" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2299" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2299" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2299" t="s">
+        <v>4097</v>
+      </c>
+      <c r="M2299">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2299">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2300" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2300">
         <v>4263</v>
       </c>
@@ -71595,8 +75589,26 @@
       <c r="G2300" t="s">
         <v>2033</v>
       </c>
-    </row>
-    <row r="2301" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2300" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2300" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2300" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2300" t="s">
+        <v>4098</v>
+      </c>
+      <c r="M2300">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2300">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2301" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2301">
         <v>4264</v>
       </c>
@@ -71618,8 +75630,26 @@
       <c r="G2301" t="s">
         <v>2034</v>
       </c>
-    </row>
-    <row r="2302" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2301" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2301" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2301" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2301" t="s">
+        <v>4099</v>
+      </c>
+      <c r="M2301">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2301">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2302" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2302">
         <v>4265</v>
       </c>
@@ -71641,8 +75671,26 @@
       <c r="G2302" t="s">
         <v>2035</v>
       </c>
-    </row>
-    <row r="2303" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2302" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2302" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2302" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2302" t="s">
+        <v>4100</v>
+      </c>
+      <c r="M2302">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2302">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2303" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2303">
         <v>4266</v>
       </c>
@@ -71664,8 +75712,26 @@
       <c r="G2303" t="s">
         <v>2036</v>
       </c>
-    </row>
-    <row r="2304" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2303" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2303" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2303" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2303" t="s">
+        <v>4101</v>
+      </c>
+      <c r="M2303">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2303">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2304" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2304">
         <v>4267</v>
       </c>
@@ -71687,8 +75753,26 @@
       <c r="G2304" t="s">
         <v>2037</v>
       </c>
-    </row>
-    <row r="2305" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2304" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2304" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2304" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2304" t="s">
+        <v>4102</v>
+      </c>
+      <c r="M2304">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2304">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2305" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2305">
         <v>4268</v>
       </c>
@@ -71710,8 +75794,26 @@
       <c r="G2305" t="s">
         <v>2038</v>
       </c>
-    </row>
-    <row r="2306" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2305" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2305" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2305" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2305" t="s">
+        <v>4103</v>
+      </c>
+      <c r="M2305">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2305">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2306" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2306">
         <v>4269</v>
       </c>
@@ -71733,8 +75835,26 @@
       <c r="G2306" t="s">
         <v>2039</v>
       </c>
-    </row>
-    <row r="2307" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2306" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2306" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2306" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2306" t="s">
+        <v>4104</v>
+      </c>
+      <c r="M2306">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2306">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2307" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2307">
         <v>4270</v>
       </c>
@@ -71756,8 +75876,26 @@
       <c r="G2307" t="s">
         <v>2040</v>
       </c>
-    </row>
-    <row r="2308" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2307" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2307" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2307" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2307" t="s">
+        <v>4105</v>
+      </c>
+      <c r="M2307">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2307">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2308" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2308">
         <v>4271</v>
       </c>
@@ -71779,8 +75917,26 @@
       <c r="G2308" t="s">
         <v>2041</v>
       </c>
-    </row>
-    <row r="2309" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2308" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2308" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2308" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2308" t="s">
+        <v>4106</v>
+      </c>
+      <c r="M2308">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2308">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2309" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2309">
         <v>4272</v>
       </c>
@@ -71802,8 +75958,26 @@
       <c r="G2309" t="s">
         <v>2042</v>
       </c>
-    </row>
-    <row r="2310" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2309" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2309" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2309" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2309" t="s">
+        <v>4107</v>
+      </c>
+      <c r="M2309">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2309">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2310" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2310">
         <v>4273</v>
       </c>
@@ -71825,8 +75999,26 @@
       <c r="G2310" t="s">
         <v>2043</v>
       </c>
-    </row>
-    <row r="2311" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2310" t="s">
+        <v>4062</v>
+      </c>
+      <c r="J2310" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2310" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2310" t="s">
+        <v>4108</v>
+      </c>
+      <c r="M2310">
+        <v>8.7002500000000005</v>
+      </c>
+      <c r="N2310">
+        <v>48.890129999999999</v>
+      </c>
+    </row>
+    <row r="2311" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2311">
         <v>4274</v>
       </c>
@@ -71848,8 +76040,11 @@
       <c r="G2311" t="s">
         <v>2044</v>
       </c>
-    </row>
-    <row r="2312" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2311" s="24" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="2312" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2312">
         <v>4275</v>
       </c>
@@ -71871,8 +76066,11 @@
       <c r="G2312" t="s">
         <v>2045</v>
       </c>
-    </row>
-    <row r="2313" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2312" s="24" t="s">
+        <v>4109</v>
+      </c>
+    </row>
+    <row r="2313" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2313">
         <v>4276</v>
       </c>
@@ -71894,8 +76092,26 @@
       <c r="G2313" t="s">
         <v>2046</v>
       </c>
-    </row>
-    <row r="2314" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2313" t="s">
+        <v>4110</v>
+      </c>
+      <c r="J2313" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2313" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2313">
+        <v>132798</v>
+      </c>
+      <c r="M2313">
+        <v>8.6957400000000007</v>
+      </c>
+      <c r="N2313">
+        <v>48.85613</v>
+      </c>
+    </row>
+    <row r="2314" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2314">
         <v>4277</v>
       </c>
@@ -71917,8 +76133,26 @@
       <c r="G2314" t="s">
         <v>2047</v>
       </c>
-    </row>
-    <row r="2315" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2314" t="s">
+        <v>4111</v>
+      </c>
+      <c r="J2314" t="s">
+        <v>3989</v>
+      </c>
+      <c r="K2314" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2314">
+        <v>128782</v>
+      </c>
+      <c r="M2314">
+        <v>8.7364099999999993</v>
+      </c>
+      <c r="N2314">
+        <v>48.860410000000002</v>
+      </c>
+    </row>
+    <row r="2315" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2315">
         <v>4278</v>
       </c>
@@ -71941,7 +76175,7 @@
         <v>2048</v>
       </c>
     </row>
-    <row r="2316" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2316" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2316">
         <v>5117</v>
       </c>
@@ -71964,7 +76198,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2317" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2317">
         <v>5118</v>
       </c>
@@ -71987,7 +76221,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="2318" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2318">
         <v>5119</v>
       </c>
@@ -72010,7 +76244,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="2319" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2319" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2319">
         <v>5120</v>
       </c>
@@ -72033,7 +76267,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="2320" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2320" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2320">
         <v>5121</v>
       </c>
@@ -100692,6 +104926,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P3564">
     <sortCondition ref="G2:G3564"/>
   </sortState>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
+++ b/GeoRef/Data_GeoRef/DWA_GeoRef_JH.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DWA\GeoRef\Data_GeoRef\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9C8543-719B-4E8F-8D5B-1ABA12D57AC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77689ABF-7746-42C6-82B2-DE6CBF6EF531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="14400" windowHeight="7250" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
+    <workbookView xWindow="-3560" yWindow="1980" windowWidth="14400" windowHeight="7250" xr2:uid="{03AA7B1F-E0B8-4837-94CF-52CC00CF40C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12397" uniqueCount="4112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12481" uniqueCount="4145">
   <si>
     <t>ID</t>
   </si>
@@ -12361,6 +12361,105 @@
   </si>
   <si>
     <t>Würm</t>
+  </si>
+  <si>
+    <t>Rastadt</t>
+  </si>
+  <si>
+    <t>127427, 127427</t>
+  </si>
+  <si>
+    <t>Schellbronn</t>
+  </si>
+  <si>
+    <t>Hamberg</t>
+  </si>
+  <si>
+    <t>Steinegg</t>
+  </si>
+  <si>
+    <t>Tiefenbronn</t>
+  </si>
+  <si>
+    <t>Neuhausen</t>
+  </si>
+  <si>
+    <t>Lehningen</t>
+  </si>
+  <si>
+    <t>Mühlhausen</t>
+  </si>
+  <si>
+    <t>Wäschenbeuren</t>
+  </si>
+  <si>
+    <t>Göppingen</t>
+  </si>
+  <si>
+    <t>Würtemberg</t>
+  </si>
+  <si>
+    <t>Langenbrand</t>
+  </si>
+  <si>
+    <t>Forbach</t>
+  </si>
+  <si>
+    <t>Rastatt</t>
+  </si>
+  <si>
+    <t>Reichental</t>
+  </si>
+  <si>
+    <t>i. Murgtal</t>
+  </si>
+  <si>
+    <t>Obertsrot</t>
+  </si>
+  <si>
+    <t>maurer:Obertsrot und Hilpertsau</t>
+  </si>
+  <si>
+    <t>Hilpertsau</t>
+  </si>
+  <si>
+    <t>Sindelfingen</t>
+  </si>
+  <si>
+    <t>Böblingen</t>
+  </si>
+  <si>
+    <t>DÃ¶ffingen</t>
+  </si>
+  <si>
+    <t>Wildberg</t>
+  </si>
+  <si>
+    <t>Calw</t>
+  </si>
+  <si>
+    <t>Bissingen-Teck</t>
+  </si>
+  <si>
+    <t>Nürtingen</t>
+  </si>
+  <si>
+    <t>Kaltbrunn</t>
+  </si>
+  <si>
+    <t>Wolfach</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Schiltach </t>
+  </si>
+  <si>
+    <t>Schenkenzell</t>
+  </si>
+  <si>
+    <t>Tennenbronn</t>
+  </si>
+  <si>
+    <t>Villingen</t>
   </si>
 </sst>
 </file>
@@ -12859,8 +12958,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48BC5F02-D8D5-48E9-B70F-7F4CD3C854AC}">
   <dimension ref="A1:P3564"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2282" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="K2314" sqref="K2314"/>
+    <sheetView tabSelected="1" topLeftCell="F2454" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="N2475" sqref="N2475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -76197,6 +76296,24 @@
       <c r="G2316" t="s">
         <v>2050</v>
       </c>
+      <c r="H2316" t="s">
+        <v>3811</v>
+      </c>
+      <c r="J2316" t="s">
+        <v>4112</v>
+      </c>
+      <c r="K2316" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2316">
+        <v>130232</v>
+      </c>
+      <c r="M2316">
+        <v>8.3506199999999993</v>
+      </c>
+      <c r="N2316">
+        <v>48.818600000000004</v>
+      </c>
     </row>
     <row r="2317" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2317">
@@ -76220,6 +76337,24 @@
       <c r="G2317" t="s">
         <v>2051</v>
       </c>
+      <c r="H2317" t="s">
+        <v>3707</v>
+      </c>
+      <c r="J2317" t="s">
+        <v>4112</v>
+      </c>
+      <c r="K2317" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2317" t="s">
+        <v>4113</v>
+      </c>
+      <c r="M2317">
+        <v>8.3579100000000004</v>
+      </c>
+      <c r="N2317">
+        <v>48.805959999999999</v>
+      </c>
     </row>
     <row r="2318" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2318">
@@ -76290,7 +76425,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="2321" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2321" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2321">
         <v>5122</v>
       </c>
@@ -76313,7 +76448,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="2322" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2322" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2322">
         <v>5123</v>
       </c>
@@ -76336,7 +76471,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="2323" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2323" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2323">
         <v>5124</v>
       </c>
@@ -76359,7 +76494,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="2324" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2324" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2324">
         <v>5125</v>
       </c>
@@ -76382,7 +76517,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="2325" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2325" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2325">
         <v>5126</v>
       </c>
@@ -76405,7 +76540,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="2326" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2326" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2326">
         <v>5136</v>
       </c>
@@ -76428,7 +76563,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="2327" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2327" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2327">
         <v>5137</v>
       </c>
@@ -76451,7 +76586,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="2328" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2328" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2328">
         <v>5138</v>
       </c>
@@ -76474,7 +76609,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="2329" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2329" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2329">
         <v>5139</v>
       </c>
@@ -76496,8 +76631,26 @@
       <c r="G2329" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="2330" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2329" t="s">
+        <v>4114</v>
+      </c>
+      <c r="J2329" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2329" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2329">
+        <v>130597</v>
+      </c>
+      <c r="M2329">
+        <v>8.7422199999999997</v>
+      </c>
+      <c r="N2329">
+        <v>48.81738</v>
+      </c>
+    </row>
+    <row r="2330" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2330">
         <v>5140</v>
       </c>
@@ -76519,8 +76672,26 @@
       <c r="G2330" t="s">
         <v>2064</v>
       </c>
-    </row>
-    <row r="2331" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2330" t="s">
+        <v>4115</v>
+      </c>
+      <c r="J2330" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2330" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2330">
+        <v>129954</v>
+      </c>
+      <c r="M2330">
+        <v>8.7692399999999999</v>
+      </c>
+      <c r="N2330">
+        <v>48.818330000000003</v>
+      </c>
+    </row>
+    <row r="2331" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2331">
         <v>5141</v>
       </c>
@@ -76542,8 +76713,26 @@
       <c r="G2331" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="2332" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2331" t="s">
+        <v>4116</v>
+      </c>
+      <c r="J2331" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2331" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2331">
+        <v>130494</v>
+      </c>
+      <c r="M2331">
+        <v>8.7909100000000002</v>
+      </c>
+      <c r="N2331">
+        <v>48.813490000000002</v>
+      </c>
+    </row>
+    <row r="2332" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2332">
         <v>5142</v>
       </c>
@@ -76565,8 +76754,26 @@
       <c r="G2332" t="s">
         <v>2066</v>
       </c>
-    </row>
-    <row r="2333" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2332" t="s">
+        <v>4117</v>
+      </c>
+      <c r="J2332" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2332" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2332">
+        <v>132338</v>
+      </c>
+      <c r="M2332">
+        <v>8.8032900000000005</v>
+      </c>
+      <c r="N2332">
+        <v>48.825209999999998</v>
+      </c>
+    </row>
+    <row r="2333" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2333">
         <v>5143</v>
       </c>
@@ -76589,7 +76796,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="2334" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2334" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2334">
         <v>5144</v>
       </c>
@@ -76612,7 +76819,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="2335" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2335" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2335">
         <v>5145</v>
       </c>
@@ -76635,7 +76842,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="2336" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2336" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2336">
         <v>5146</v>
       </c>
@@ -76658,7 +76865,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="2337" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2337" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2337">
         <v>5147</v>
       </c>
@@ -76681,7 +76888,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="2338" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2338" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2338">
         <v>5148</v>
       </c>
@@ -76704,7 +76911,7 @@
         <v>2072</v>
       </c>
     </row>
-    <row r="2339" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2339" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2339">
         <v>5149</v>
       </c>
@@ -76727,7 +76934,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="2340" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2340" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2340">
         <v>5150</v>
       </c>
@@ -76749,8 +76956,26 @@
       <c r="G2340" t="s">
         <v>2074</v>
       </c>
-    </row>
-    <row r="2341" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2340" t="s">
+        <v>4118</v>
+      </c>
+      <c r="J2340" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2340" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2340">
+        <v>132686</v>
+      </c>
+      <c r="M2340">
+        <v>8.7788799999999991</v>
+      </c>
+      <c r="N2340">
+        <v>48.792560000000002</v>
+      </c>
+    </row>
+    <row r="2341" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2341">
         <v>5151</v>
       </c>
@@ -76772,8 +76997,26 @@
       <c r="G2341" t="s">
         <v>2075</v>
       </c>
-    </row>
-    <row r="2342" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2341" t="s">
+        <v>4119</v>
+      </c>
+      <c r="J2341" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2341" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2341">
+        <v>129060</v>
+      </c>
+      <c r="M2341">
+        <v>8.8163900000000002</v>
+      </c>
+      <c r="N2341">
+        <v>48.79486</v>
+      </c>
+    </row>
+    <row r="2342" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2342">
         <v>5152</v>
       </c>
@@ -76795,8 +77038,26 @@
       <c r="G2342" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="2343" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2342" t="s">
+        <v>4120</v>
+      </c>
+      <c r="J2342" t="s">
+        <v>4062</v>
+      </c>
+      <c r="K2342" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2342">
+        <v>130736</v>
+      </c>
+      <c r="M2342">
+        <v>8.8220100000000006</v>
+      </c>
+      <c r="N2342">
+        <v>48.806069999999998</v>
+      </c>
+    </row>
+    <row r="2343" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2343">
         <v>5153</v>
       </c>
@@ -76819,7 +77080,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="2344" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2344" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2344">
         <v>5154</v>
       </c>
@@ -76842,7 +77103,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="2345" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2345" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2345">
         <v>5155</v>
       </c>
@@ -76865,7 +77126,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="2346" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2346" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2346">
         <v>5156</v>
       </c>
@@ -76888,7 +77149,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="2347" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2347" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2347">
         <v>5174</v>
       </c>
@@ -76911,7 +77172,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="2348" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2348" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2348">
         <v>5175</v>
       </c>
@@ -76934,7 +77195,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="2349" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2349" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2349">
         <v>5176</v>
       </c>
@@ -76957,7 +77218,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="2350" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2350" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2350">
         <v>5177</v>
       </c>
@@ -76980,7 +77241,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="2351" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2351" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2351">
         <v>5178</v>
       </c>
@@ -77003,7 +77264,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="2352" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2352" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2352">
         <v>5179</v>
       </c>
@@ -77026,7 +77287,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="2353" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2353" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2353">
         <v>5180</v>
       </c>
@@ -77049,7 +77310,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="2354" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2354" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2354">
         <v>5181</v>
       </c>
@@ -77072,7 +77333,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="2355" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2355" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2355">
         <v>5182</v>
       </c>
@@ -77095,7 +77356,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="2356" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2356" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2356">
         <v>5183</v>
       </c>
@@ -77118,7 +77379,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="2357" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2357" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2357">
         <v>5184</v>
       </c>
@@ -77141,7 +77402,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="2358" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2358" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2358">
         <v>5185</v>
       </c>
@@ -77164,7 +77425,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="2359" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2359" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2359">
         <v>5219</v>
       </c>
@@ -77187,7 +77448,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="2360" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2360" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2360">
         <v>5220</v>
       </c>
@@ -77210,7 +77471,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="2361" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2361" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2361">
         <v>5221</v>
       </c>
@@ -77232,8 +77493,26 @@
       <c r="G2361" t="s">
         <v>2095</v>
       </c>
-    </row>
-    <row r="2362" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2361" t="s">
+        <v>4121</v>
+      </c>
+      <c r="J2361" t="s">
+        <v>4122</v>
+      </c>
+      <c r="K2361" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2361">
+        <v>128345</v>
+      </c>
+      <c r="M2361">
+        <v>9.6869499999999995</v>
+      </c>
+      <c r="N2361">
+        <v>48.759839999999997</v>
+      </c>
+    </row>
+    <row r="2362" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2362">
         <v>5222</v>
       </c>
@@ -77256,7 +77535,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="2363" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2363" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2363">
         <v>5223</v>
       </c>
@@ -77279,7 +77558,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="2364" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2364" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2364">
         <v>5224</v>
       </c>
@@ -77302,7 +77581,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="2365" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2365" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2365">
         <v>5225</v>
       </c>
@@ -77325,7 +77604,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="2366" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2366" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2366">
         <v>5226</v>
       </c>
@@ -77348,7 +77627,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="2367" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2367" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2367">
         <v>5227</v>
       </c>
@@ -77371,7 +77650,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="2368" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2368" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2368">
         <v>5228</v>
       </c>
@@ -77394,7 +77673,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="2369" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2369">
         <v>5229</v>
       </c>
@@ -77417,7 +77696,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="2370" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2370">
         <v>5230</v>
       </c>
@@ -77440,7 +77719,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="2371" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2371">
         <v>5231</v>
       </c>
@@ -77463,7 +77742,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="2372" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2372">
         <v>5232</v>
       </c>
@@ -77486,7 +77765,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="2373" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2373">
         <v>5257</v>
       </c>
@@ -77509,7 +77788,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="2374" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2374">
         <v>5258</v>
       </c>
@@ -77531,8 +77810,26 @@
       <c r="G2374" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="2375" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2374" t="s">
+        <v>4124</v>
+      </c>
+      <c r="J2374" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2374" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2374">
+        <v>131442</v>
+      </c>
+      <c r="M2374">
+        <v>8.3633400000000009</v>
+      </c>
+      <c r="N2374">
+        <v>48.704410000000003</v>
+      </c>
+    </row>
+    <row r="2375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2375">
         <v>5259</v>
       </c>
@@ -77554,8 +77851,26 @@
       <c r="G2375" t="s">
         <v>2110</v>
       </c>
-    </row>
-    <row r="2376" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2375" t="s">
+        <v>4125</v>
+      </c>
+      <c r="J2375" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2375" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2375">
+        <v>133978</v>
+      </c>
+      <c r="M2375">
+        <v>8.3589000000000002</v>
+      </c>
+      <c r="N2375">
+        <v>48.678570000000001</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2376">
         <v>5260</v>
       </c>
@@ -77577,8 +77892,23 @@
       <c r="G2376" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="2377" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2376" t="s">
+        <v>4125</v>
+      </c>
+      <c r="J2376" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2376" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2376">
+        <v>133978</v>
+      </c>
+      <c r="M2376">
+        <v>8.3589000000000002</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2377">
         <v>5261</v>
       </c>
@@ -77600,8 +77930,29 @@
       <c r="G2377" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="2378" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2377" t="s">
+        <v>4127</v>
+      </c>
+      <c r="I2377" t="s">
+        <v>4128</v>
+      </c>
+      <c r="J2377" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2377" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2377">
+        <v>131920</v>
+      </c>
+      <c r="M2377">
+        <v>8.3910099999999996</v>
+      </c>
+      <c r="N2377">
+        <v>48.729559999999999</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2378">
         <v>5262</v>
       </c>
@@ -77623,8 +77974,29 @@
       <c r="G2378" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="2379" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2378" s="24" t="s">
+        <v>4129</v>
+      </c>
+      <c r="J2378" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2378" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2378">
+        <v>133578</v>
+      </c>
+      <c r="M2378">
+        <v>8.34633</v>
+      </c>
+      <c r="N2378">
+        <v>48.743029999999997</v>
+      </c>
+      <c r="O2378" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2379">
         <v>5263</v>
       </c>
@@ -77646,8 +78018,29 @@
       <c r="G2379" t="s">
         <v>2114</v>
       </c>
-    </row>
-    <row r="2380" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2379" s="24" t="s">
+        <v>4131</v>
+      </c>
+      <c r="J2379" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2379" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2379">
+        <v>133578</v>
+      </c>
+      <c r="M2379">
+        <v>8.34633</v>
+      </c>
+      <c r="N2379">
+        <v>48.743029999999997</v>
+      </c>
+      <c r="O2379" t="s">
+        <v>4130</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2380">
         <v>5264</v>
       </c>
@@ -77670,7 +78063,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="2381" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2381">
         <v>5265</v>
       </c>
@@ -77693,7 +78086,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="2382" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2382">
         <v>5266</v>
       </c>
@@ -77716,7 +78109,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="2383" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2383">
         <v>5267</v>
       </c>
@@ -77739,7 +78132,7 @@
         <v>2118</v>
       </c>
     </row>
-    <row r="2384" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2384">
         <v>5294</v>
       </c>
@@ -77899,6 +78292,24 @@
       <c r="G2390" t="s">
         <v>2125</v>
       </c>
+      <c r="H2390" t="s">
+        <v>4132</v>
+      </c>
+      <c r="J2390" t="s">
+        <v>4133</v>
+      </c>
+      <c r="K2390" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2390">
+        <v>133574</v>
+      </c>
+      <c r="M2390">
+        <v>9.0019399999999994</v>
+      </c>
+      <c r="N2390">
+        <v>48.707970000000003</v>
+      </c>
     </row>
     <row r="2391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2391">
@@ -77968,6 +78379,24 @@
       <c r="G2393" t="s">
         <v>2128</v>
       </c>
+      <c r="H2393" t="s">
+        <v>4134</v>
+      </c>
+      <c r="J2393" t="s">
+        <v>4133</v>
+      </c>
+      <c r="K2393" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2393">
+        <v>544475</v>
+      </c>
+      <c r="M2393">
+        <v>8.9138300000000008</v>
+      </c>
+      <c r="N2393">
+        <v>48.710599999999999</v>
+      </c>
     </row>
     <row r="2394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2394">
@@ -78063,6 +78492,12 @@
       <c r="H2397" t="s">
         <v>3696</v>
       </c>
+      <c r="J2397" t="s">
+        <v>4126</v>
+      </c>
+      <c r="K2397" t="s">
+        <v>3700</v>
+      </c>
       <c r="L2397">
         <v>128211</v>
       </c>
@@ -78513,7 +78948,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="2417" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2417" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2417">
         <v>5427</v>
       </c>
@@ -78535,8 +78970,26 @@
       <c r="G2417" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="2418" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2417" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J2417" t="s">
+        <v>4136</v>
+      </c>
+      <c r="K2417" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2417">
+        <v>130330</v>
+      </c>
+      <c r="M2417">
+        <v>8.7392400000000006</v>
+      </c>
+      <c r="N2417">
+        <v>48.622509999999998</v>
+      </c>
+    </row>
+    <row r="2418" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2418">
         <v>5428</v>
       </c>
@@ -78559,7 +79012,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="2419" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2419" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2419">
         <v>5429</v>
       </c>
@@ -78582,7 +79035,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="2420" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2420" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2420">
         <v>5448</v>
       </c>
@@ -78605,7 +79058,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="2421" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2421" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2421">
         <v>5449</v>
       </c>
@@ -78628,7 +79081,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="2422" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2422" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2422">
         <v>5450</v>
       </c>
@@ -78651,7 +79104,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="2423" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2423" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2423">
         <v>5451</v>
       </c>
@@ -78674,7 +79127,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="2424" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2424" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2424">
         <v>5452</v>
       </c>
@@ -78697,7 +79150,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="2425" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2425" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2425">
         <v>5453</v>
       </c>
@@ -78720,7 +79173,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="2426" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2426" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2426">
         <v>5454</v>
       </c>
@@ -78743,7 +79196,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="2427" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2427" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2427">
         <v>5455</v>
       </c>
@@ -78766,7 +79219,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="2428" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2428" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2428">
         <v>5456</v>
       </c>
@@ -78789,7 +79242,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="2429" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2429" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2429">
         <v>5457</v>
       </c>
@@ -78812,7 +79265,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="2430" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2430" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2430">
         <v>5458</v>
       </c>
@@ -78835,7 +79288,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="2431" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2431" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2431">
         <v>5459</v>
       </c>
@@ -78858,7 +79311,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="2432" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2432" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2432">
         <v>5460</v>
       </c>
@@ -78881,7 +79334,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="2433" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2433" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2433">
         <v>5461</v>
       </c>
@@ -78904,7 +79357,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="2434" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2434" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2434">
         <v>5462</v>
       </c>
@@ -78927,7 +79380,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="2435" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2435" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2435">
         <v>5463</v>
       </c>
@@ -78950,7 +79403,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="2436" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2436" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2436">
         <v>5464</v>
       </c>
@@ -78973,7 +79426,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="2437" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2437" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2437">
         <v>5465</v>
       </c>
@@ -78996,7 +79449,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="2438" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2438" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2438">
         <v>5466</v>
       </c>
@@ -79019,7 +79472,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="2439" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2439" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2439">
         <v>5467</v>
       </c>
@@ -79042,7 +79495,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="2440" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2440" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2440">
         <v>5468</v>
       </c>
@@ -79065,7 +79518,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="2441" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2441" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2441">
         <v>5469</v>
       </c>
@@ -79088,7 +79541,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="2442" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2442" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2442">
         <v>5470</v>
       </c>
@@ -79111,7 +79564,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="2443" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2443" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2443">
         <v>5471</v>
       </c>
@@ -79134,7 +79587,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="2444" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2444" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2444">
         <v>5472</v>
       </c>
@@ -79156,8 +79609,26 @@
       <c r="G2444" t="s">
         <v>2180</v>
       </c>
-    </row>
-    <row r="2445" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2444" t="s">
+        <v>4137</v>
+      </c>
+      <c r="J2444" t="s">
+        <v>4138</v>
+      </c>
+      <c r="K2444" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2444">
+        <v>132519</v>
+      </c>
+      <c r="M2444">
+        <v>9.4912799999999997</v>
+      </c>
+      <c r="N2444">
+        <v>48.600239999999999</v>
+      </c>
+    </row>
+    <row r="2445" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2445">
         <v>5473</v>
       </c>
@@ -79180,7 +79651,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="2446" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2446" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2446">
         <v>5474</v>
       </c>
@@ -79203,7 +79674,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="2447" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2447" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2447">
         <v>5475</v>
       </c>
@@ -79226,7 +79697,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="2448" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2448" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2448">
         <v>5476</v>
       </c>
@@ -79249,7 +79720,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="2449" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2449" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2449">
         <v>5477</v>
       </c>
@@ -79272,7 +79743,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="2450" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2450" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2450">
         <v>5478</v>
       </c>
@@ -79295,7 +79766,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="2451" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2451" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2451">
         <v>5479</v>
       </c>
@@ -79318,7 +79789,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="2452" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2452" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2452">
         <v>1000</v>
       </c>
@@ -79340,8 +79811,26 @@
       <c r="G2452" t="s">
         <v>2188</v>
       </c>
-    </row>
-    <row r="2453" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2452" t="s">
+        <v>4139</v>
+      </c>
+      <c r="J2452" t="s">
+        <v>4140</v>
+      </c>
+      <c r="K2452" t="s">
+        <v>3937</v>
+      </c>
+      <c r="L2452">
+        <v>131979</v>
+      </c>
+      <c r="M2452">
+        <v>8.3524600000000007</v>
+      </c>
+      <c r="N2452">
+        <v>48.346209999999999</v>
+      </c>
+    </row>
+    <row r="2453" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2453">
         <v>1001</v>
       </c>
@@ -79364,7 +79853,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="2454" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2454" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2454">
         <v>1002</v>
       </c>
@@ -79387,7 +79876,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="2455" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2455" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2455">
         <v>1003</v>
       </c>
@@ -79410,7 +79899,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="2456" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2456" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2456">
         <v>1004</v>
       </c>
@@ -79433,7 +79922,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="2457" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2457" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2457">
         <v>1005</v>
       </c>
@@ -79456,7 +79945,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="2458" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2458" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2458">
         <v>1006</v>
       </c>
@@ -79479,7 +79968,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="2459" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2459" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2459">
         <v>1007</v>
       </c>
@@ -79502,7 +79991,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="2460" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2460" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2460">
         <v>1008</v>
       </c>
@@ -79525,7 +80014,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="2461" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2461" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2461">
         <v>1009</v>
       </c>
@@ -79548,7 +80037,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="2462" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2462" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2462">
         <v>1010</v>
       </c>
@@ -79571,7 +80060,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="2463" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2463" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2463">
         <v>1011</v>
       </c>
@@ -79594,7 +80083,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="2464" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2464" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2464">
         <v>1140</v>
       </c>
@@ -79617,7 +80106,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="2465" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2465" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2465">
         <v>1141</v>
       </c>
@@ -79640,7 +80129,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="2466" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2466" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2466">
         <v>1142</v>
       </c>
@@ -79663,7 +80152,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="2467" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2467" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2467">
         <v>1143</v>
       </c>
@@ -79686,7 +80175,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="2468" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2468" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2468">
         <v>1144</v>
       </c>
@@ -79709,7 +80198,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="2469" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2469" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2469">
         <v>1145</v>
       </c>
@@ -79732,7 +80221,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="2470" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2470" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2470">
         <v>1146</v>
       </c>
@@ -79754,8 +80243,26 @@
       <c r="G2470" t="s">
         <v>2206</v>
       </c>
-    </row>
-    <row r="2471" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2470" t="s">
+        <v>4142</v>
+      </c>
+      <c r="J2470" t="s">
+        <v>4140</v>
+      </c>
+      <c r="K2470" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2470">
+        <v>129571</v>
+      </c>
+      <c r="M2470">
+        <v>8.3725299999999994</v>
+      </c>
+      <c r="N2470">
+        <v>48.311050000000002</v>
+      </c>
+    </row>
+    <row r="2471" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2471">
         <v>1147</v>
       </c>
@@ -79777,8 +80284,26 @@
       <c r="G2471" t="s">
         <v>2207</v>
       </c>
-    </row>
-    <row r="2472" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2471" t="s">
+        <v>4141</v>
+      </c>
+      <c r="J2471" t="s">
+        <v>4140</v>
+      </c>
+      <c r="K2471" t="s">
+        <v>3700</v>
+      </c>
+      <c r="L2471">
+        <v>131969</v>
+      </c>
+      <c r="M2471">
+        <v>8.3425899999999995</v>
+      </c>
+      <c r="N2471">
+        <v>48.290329999999997</v>
+      </c>
+    </row>
+    <row r="2472" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2472">
         <v>1148</v>
       </c>
@@ -79801,7 +80326,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="2473" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2473" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2473">
         <v>1149</v>
       </c>
@@ -79824,7 +80349,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="2474" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2474" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2474">
         <v>1276</v>
       </c>
@@ -79847,7 +80372,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="2475" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2475" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2475">
         <v>1277</v>
       </c>
@@ -79870,7 +80395,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="2476" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2476" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2476">
         <v>1278</v>
       </c>
@@ -79893,7 +80418,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="2477" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2477" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2477">
         <v>1279</v>
       </c>
@@ -79916,7 +80441,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="2478" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2478" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2478">
         <v>1280</v>
       </c>
@@ -79938,8 +80463,26 @@
       <c r="G2478" t="s">
         <v>2214</v>
       </c>
-    </row>
-    <row r="2479" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2478" t="s">
+        <v>4143</v>
+      </c>
+      <c r="J2478" t="s">
+        <v>4144</v>
+      </c>
+      <c r="K2478" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2478">
+        <v>131093</v>
+      </c>
+      <c r="M2478">
+        <v>8.4604300000000006</v>
+      </c>
+      <c r="N2478">
+        <v>48.172269999999997</v>
+      </c>
+    </row>
+    <row r="2479" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2479">
         <v>1281</v>
       </c>
@@ -79961,8 +80504,26 @@
       <c r="G2479" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="2480" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H2479" t="s">
+        <v>4143</v>
+      </c>
+      <c r="J2479" t="s">
+        <v>4144</v>
+      </c>
+      <c r="K2479" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2479">
+        <v>131093</v>
+      </c>
+      <c r="M2479">
+        <v>8.4604300000000006</v>
+      </c>
+      <c r="N2479">
+        <v>48.172269999999997</v>
+      </c>
+    </row>
+    <row r="2480" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2480">
         <v>1282</v>
       </c>
@@ -79983,6 +80544,24 @@
       </c>
       <c r="G2480" t="s">
         <v>2216</v>
+      </c>
+      <c r="H2480" t="s">
+        <v>4143</v>
+      </c>
+      <c r="J2480" t="s">
+        <v>4144</v>
+      </c>
+      <c r="K2480" t="s">
+        <v>4123</v>
+      </c>
+      <c r="L2480">
+        <v>131093</v>
+      </c>
+      <c r="M2480">
+        <v>8.4604300000000006</v>
+      </c>
+      <c r="N2480">
+        <v>48.172269999999997</v>
       </c>
     </row>
     <row r="2481" spans="1:7" x14ac:dyDescent="0.35">
